--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04CE343A-1572-4560-906C-A50AF0639AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F2988-B2B9-4028-8FB9-AAD56BCD393B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
   <si>
     <t>TC-ID</t>
   </si>
@@ -58,13 +63,437 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>TC-Login-01</t>
+  </si>
+  <si>
+    <t>Successful login with valid credentials</t>
+  </si>
+  <si>
+    <t>Verify user can log in with correct email and password</t>
+  </si>
+  <si>
+    <t>Email: user@example.com, Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2. Enter valid email
+3. Enter valid password
+4. Click login</t>
+  </si>
+  <si>
+    <t>User is redirected to the homepage</t>
+  </si>
+  <si>
+    <t>SRS-Login-01, SRS-Login-07</t>
+  </si>
+  <si>
+    <t>TC-Login-02</t>
+  </si>
+  <si>
+    <t>Login with invalid email format</t>
+  </si>
+  <si>
+    <t>Verify system shows error for incorrect email format</t>
+  </si>
+  <si>
+    <t>User is on login page</t>
+  </si>
+  <si>
+    <t>1. Enter invalid email
+2. Enter valid password
+3. Click login</t>
+  </si>
+  <si>
+    <t>System displays 'Invalid email address.'</t>
+  </si>
+  <si>
+    <t>SRS-Login-02, SRS-Login-05</t>
+  </si>
+  <si>
+    <t>TC-Login-03</t>
+  </si>
+  <si>
+    <t>Login with empty email field</t>
+  </si>
+  <si>
+    <t>Verify system prompts when email is blank</t>
+  </si>
+  <si>
+    <t>1. Leave email field blank
+2. Enter password
+3. Click login</t>
+  </si>
+  <si>
+    <t>System displays 'This field is required.'</t>
+  </si>
+  <si>
+    <t>SRS-Login-03</t>
+  </si>
+  <si>
+    <t>TC-Login-04</t>
+  </si>
+  <si>
+    <t>Login with email starting with whitespace</t>
+  </si>
+  <si>
+    <t>Verify system rejects emails starting with whitespace</t>
+  </si>
+  <si>
+    <t>Email: ' user@example.com', Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>1. Enter email with leading space
+2. Enter password
+3. Click login</t>
+  </si>
+  <si>
+    <t>SRS-Login-04</t>
+  </si>
+  <si>
+    <t>TC-Login-05</t>
+  </si>
+  <si>
+    <t>Login with incorrect password</t>
+  </si>
+  <si>
+    <t>Verify system shows error message for wrong password</t>
+  </si>
+  <si>
+    <t>Email: user@example.com, Password: WrongPass</t>
+  </si>
+  <si>
+    <t>1. Enter valid email
+2. Enter incorrect password
+3. Click login</t>
+  </si>
+  <si>
+    <t>System displays 'Incorrect password'</t>
+  </si>
+  <si>
+    <t>SRS-Login-09</t>
+  </si>
+  <si>
+    <t>TC-Login-06</t>
+  </si>
+  <si>
+    <t>Login attempt exceeds limit</t>
+  </si>
+  <si>
+    <t>Verify system locks account after multiple failed attempts</t>
+  </si>
+  <si>
+    <t>System locks account for 10 minutes</t>
+  </si>
+  <si>
+    <t>SRS-Login-08</t>
+  </si>
+  <si>
+    <t>TC-Login-07</t>
+  </si>
+  <si>
+    <t>Check email field placeholder</t>
+  </si>
+  <si>
+    <t>Verify placeholder text is displayed in email field</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1. Navigate to login form</t>
+  </si>
+  <si>
+    <t>Email field shows placeholder 'Enter your email'</t>
+  </si>
+  <si>
+    <t>SRS-Login-06</t>
+  </si>
+  <si>
+    <t>TC-Login-08</t>
+  </si>
+  <si>
+    <t>Check Show/Hide Password toggle</t>
+  </si>
+  <si>
+    <t>Verify password visibility toggle works correctly</t>
+  </si>
+  <si>
+    <t>1. Type password
+2. Click Show/Hide toggle</t>
+  </si>
+  <si>
+    <t>Password field toggles between visible and hidden</t>
+  </si>
+  <si>
+    <t>SRS-Login-10</t>
+  </si>
+  <si>
+    <t>TC-Login-09</t>
+  </si>
+  <si>
+    <t>Login with empty password field</t>
+  </si>
+  <si>
+    <t>Verify system prompts when password is blank</t>
+  </si>
+  <si>
+    <t>1. Enter email
+2. Leave password blank
+3. Click login</t>
+  </si>
+  <si>
+    <t>SRS-Login-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User has a registered </t>
+  </si>
+  <si>
+    <t>SRS Link</t>
+  </si>
+  <si>
+    <t>Email: "userexample.com'',
+ Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>Email: '', 
+Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>User attempts to log in with
+ incorrect password 4 times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Attempt login 4 times with wrong password or wrong email </t>
+  </si>
+  <si>
+    <t>Email: "user@example.com" , 
+Password: AnyPassword123</t>
+  </si>
+  <si>
+    <t>Email: user@example.com, Password: ''"</t>
+  </si>
+  <si>
+    <t>TC-Login-10</t>
+  </si>
+  <si>
+    <t>Login with uppercase email</t>
+  </si>
+  <si>
+    <t>Verify login works with uppercase email</t>
+  </si>
+  <si>
+    <t>Email: USER@EXAMPLE.COM, Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>1. Enter email in uppercase
+2. Enter valid password
+3. Click login</t>
+  </si>
+  <si>
+    <t>SRS-Login-01</t>
+  </si>
+  <si>
+    <t>TC-Login-11</t>
+  </si>
+  <si>
+    <t>Email field auto-trim whitespace</t>
+  </si>
+  <si>
+    <t>Verify system trims leading/trailing whitespace in email</t>
+  </si>
+  <si>
+    <t>Email: ' user@example.com ', Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>1. Enter email with spaces
+2. Enter valid password
+3. Click login</t>
+  </si>
+  <si>
+    <t>TC-Login-12</t>
+  </si>
+  <si>
+    <t>TC-Login-13</t>
+  </si>
+  <si>
+    <t>Login with both fields empty</t>
+  </si>
+  <si>
+    <t>Verify error when both email and password are blank</t>
+  </si>
+  <si>
+    <t>Email: '', Password: ''</t>
+  </si>
+  <si>
+    <t>Email: '',
+ Password: ''</t>
+  </si>
+  <si>
+    <t>1. Leave both fields blank
+2. Click login</t>
+  </si>
+  <si>
+    <t>System displays error messages for both fields</t>
+  </si>
+  <si>
+    <t>SRS-Login-03, SRS-Login-11</t>
+  </si>
+  <si>
+    <t>TC-Login-14</t>
+  </si>
+  <si>
+    <t>Account unlock after lock period</t>
+  </si>
+  <si>
+    <t>Verify account unlocks after 10 minutes of lock</t>
+  </si>
+  <si>
+    <t>Email: user@example.com, Password: CorrectPass123 (after lock)</t>
+  </si>
+  <si>
+    <t>1. Lock account with failed attempts
+2. Wait 10 minutes
+3. Try login again</t>
+  </si>
+  <si>
+    <t>User can attempt login again</t>
+  </si>
+  <si>
+    <t>TC-Login-15</t>
+  </si>
+  <si>
+    <t>Password is masked by default</t>
+  </si>
+  <si>
+    <t>Verify password input is hidden by default</t>
+  </si>
+  <si>
+    <t>Password: "CorrectPass123*@"</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2.Enter password in field</t>
+  </si>
+  <si>
+    <t>Password characters are not visible</t>
+  </si>
+  <si>
+    <t>TC-Login-16</t>
+  </si>
+  <si>
+    <t>Placeholder disappears on focus</t>
+  </si>
+  <si>
+    <t>Verify placeholder disappears when user focuses input</t>
+  </si>
+  <si>
+    <t>1. Click on email input field</t>
+  </si>
+  <si>
+    <t>Placeholder 'Enter your email' disappears</t>
+  </si>
+  <si>
+    <t>TC-Login-17</t>
+  </si>
+  <si>
+    <t>Login button disabled on empty form</t>
+  </si>
+  <si>
+    <t>Verify login button is disabled until inputs are filled</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2. Leave fields blank
+3. Observe login button</t>
+  </si>
+  <si>
+    <t>Login button is disabled</t>
+  </si>
+  <si>
+    <t>TC-Login-18</t>
+  </si>
+  <si>
+    <t>Login with long email</t>
+  </si>
+  <si>
+    <t>Verify system handles max length email properly</t>
+  </si>
+  <si>
+    <t>Email: 256-character email, Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>Error or success depending on validation</t>
+  </si>
+  <si>
+    <t>SRS-Login-02</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2.Enter very long email
+3. Enter valid password
+4. Click login</t>
+  </si>
+  <si>
+    <t>Verify email input accepts valid special chars</t>
+  </si>
+  <si>
+    <t>TC-Login-19</t>
+  </si>
+  <si>
+    <t>Email: user+test@example.com, Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>1.Go to login page
+2. Enter special char email
+3. Enter password
+4. Click login</t>
+  </si>
+  <si>
+    <t>Login successful</t>
+  </si>
+  <si>
+    <t>Show password on toggle</t>
+  </si>
+  <si>
+    <t>Verify clicking 'Show Password' 
+reveals password</t>
+  </si>
+  <si>
+    <t>Password: "HiddenPass123"</t>
+  </si>
+  <si>
+    <t>1.Go to login page
+2. Enter password
+3. Click toggle</t>
+  </si>
+  <si>
+    <t>Password becomes visible</t>
+  </si>
+  <si>
+    <t>Verify redirect to previous protected page after login</t>
+  </si>
+  <si>
+    <t>Redirection to home page after login</t>
+  </si>
+  <si>
+    <t>1.Go to Login Page
+2. Access protected page
+3. Login when prompted</t>
+  </si>
+  <si>
+    <t>User is redirected to home  page</t>
+  </si>
+  <si>
+    <t>SRS-Login-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -89,8 +518,33 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +563,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -178,13 +638,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -203,12 +675,97 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -271,14 +828,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="TC-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Bug-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -293,8 +850,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I20" headerRowDxfId="0">
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J21" headerRowDxfId="1">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description "/>
@@ -304,6 +861,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Expected Results "/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual Result"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status"/>
+    <tableColumn id="10" xr3:uid="{DFB551AE-0E00-404A-9F17-0514C32FB37A}" name="SRS Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TC-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -510,287 +1068,679 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="J1" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="J11" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F2988-B2B9-4028-8FB9-AAD56BCD393B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B77224-7011-48D2-BC3F-D177188BC714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
+    <sheet name="Headers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="236">
   <si>
     <t>TC-ID</t>
   </si>
@@ -487,13 +488,350 @@
   </si>
   <si>
     <t>SRS-Login-07</t>
+  </si>
+  <si>
+    <t>Verify Registration Form Fields</t>
+  </si>
+  <si>
+    <t>Ensure only the required fields are present in the form</t>
+  </si>
+  <si>
+    <t>User navigates to registration page</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Check available input fields and buttons</t>
+  </si>
+  <si>
+    <t>Only Username, Email, Password, Confirm Password, and Register button are present</t>
+  </si>
+  <si>
+    <t>Check Absence of Extra Fields</t>
+  </si>
+  <si>
+    <t>Ensure no extra fields like phone number are present</t>
+  </si>
+  <si>
+    <t>Check if phone number or other fields are present</t>
+  </si>
+  <si>
+    <t>No extra fields should be present</t>
+  </si>
+  <si>
+    <t>Verify error message when "Username" field is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Username" is not filled</t>
+  </si>
+  <si>
+    <t>Username: (leave blank)
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t>Error message below Username: “This field is required.”</t>
+  </si>
+  <si>
+    <t>Verify error message when "Email" field is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Email" is not filled</t>
+  </si>
+  <si>
+    <t>Username:testUser
+Email:  (leave blank)
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t>Verify error message when "Password" field is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Password" is not filled</t>
+  </si>
+  <si>
+    <t>Username: testUser
+Email: testuser@example.com
+Password: (leave blank)
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t>Verify error when "Confirm Password" is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error when the confirm password field is left blank.</t>
+  </si>
+  <si>
+    <t>Username: testUser
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: (leave blank)</t>
+  </si>
+  <si>
+    <t>Displays: “This field is required.”</t>
+  </si>
+  <si>
+    <t>Verify Placeholder Text</t>
+  </si>
+  <si>
+    <t>Ensure placeholder text exists for all fields</t>
+  </si>
+  <si>
+    <t>User on registration page</t>
+  </si>
+  <si>
+    <t>Check placeholder for each input field</t>
+  </si>
+  <si>
+    <t>Each field has correct placeholder (e.g., 'Enter your email')</t>
+  </si>
+  <si>
+    <t>Validate Username Format</t>
+  </si>
+  <si>
+    <t>Ensure username contains only letters</t>
+  </si>
+  <si>
+    <t>Username: user123!</t>
+  </si>
+  <si>
+    <t>Enter invalid username, click Register</t>
+  </si>
+  <si>
+    <t>Displays: 'Invalid username'</t>
+  </si>
+  <si>
+    <t>Validate Email Format</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error when the email is not in a valid format.</t>
+  </si>
+  <si>
+    <t>invalidemail.com</t>
+  </si>
+  <si>
+    <t>Displays: “Invalid email format.”</t>
+  </si>
+  <si>
+    <t>Password Security Check</t>
+  </si>
+  <si>
+    <t>Ensure password meets security criteria</t>
+  </si>
+  <si>
+    <t>Password: abc123</t>
+  </si>
+  <si>
+    <t>Enter weak password, click Register</t>
+  </si>
+  <si>
+    <t>Displays:  "Invalid password. 
+Your password must be at least 8 characters long and include at least one special character (e.g., ! @ # $ %)."</t>
+  </si>
+  <si>
+    <t>Password Validation Message</t>
+  </si>
+  <si>
+    <t>Password: short</t>
+  </si>
+  <si>
+    <t>Enter short password, click Register</t>
+  </si>
+  <si>
+    <t>Confirm Password Match</t>
+  </si>
+  <si>
+    <t>Ensure confirm password matches password</t>
+  </si>
+  <si>
+    <t>Click Register</t>
+  </si>
+  <si>
+    <t>Displays: 'Passwords do not match'</t>
+  </si>
+  <si>
+    <t>TC-REG-01</t>
+  </si>
+  <si>
+    <t>TC-REG-02</t>
+  </si>
+  <si>
+    <t>TC-REG-03</t>
+  </si>
+  <si>
+    <t>TC-REG-04</t>
+  </si>
+  <si>
+    <t>TC-REG-05</t>
+  </si>
+  <si>
+    <t>TC-REG-06</t>
+  </si>
+  <si>
+    <t>TC-REG-07</t>
+  </si>
+  <si>
+    <t>TC-REG-08</t>
+  </si>
+  <si>
+    <t>TC-REG-09</t>
+  </si>
+  <si>
+    <t>TC-REG-10</t>
+  </si>
+  <si>
+    <t>TC-REG-11</t>
+  </si>
+  <si>
+    <t>TC-REG-12</t>
+  </si>
+  <si>
+    <t>Navigate to the registration page</t>
+  </si>
+  <si>
+    <t>1.Fill in all fields except confirm password
+2.Click "Register"</t>
+  </si>
+  <si>
+    <t>1.Enter testUser in Username
+2.Enter invalidemail.com in Email
+3.Enter Test1234! in Password
+4.Click "Register"</t>
+  </si>
+  <si>
+    <t>Password: pass@123
+ Confirm Password: pass@124</t>
+  </si>
+  <si>
+    <t>Successful Registration and Redirect to Home Page</t>
+  </si>
+  <si>
+    <t>Ensure user can successfully register when all fields are valid and is redirected to the home page.</t>
+  </si>
+  <si>
+    <t>Username:testUser
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter "tastUser" empty
+2.Enter testuser@example.com in the Email field
+3.Enter Test1234! in the Password field
+4.Enter Test1234! in the confirm Password field
+5.Click the "Register" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Leave "Username" empty
+2.Enter testuser@example.com in the Email field
+3.Enter Test1234! in the Password field
+4.Enter Test1234! in the confirm Password field
+5.Click the "Register" button
+</t>
+  </si>
+  <si>
+    <t>1.Leave "email" empty
+2.Enter testUser in the Username field
+3.Enter Test1234! in the Password field
+4.Enter Test1234! in the confirm Password field
+5.Click the "Register" button</t>
+  </si>
+  <si>
+    <t>1.Leave "password" empty
+2.Enter testuser@example.com in the Email field
+3.Enter testUser in the Username field
+4.Enter Test1234! in the confirm Password field
+5.Click the "Register" button</t>
+  </si>
+  <si>
+    <t>User is redirected to the home page</t>
+  </si>
+  <si>
+    <t>TC-REG-13</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Updated section</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Version 
+Number</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>moaz</t>
+  </si>
+  <si>
+    <t>Adding login Test case</t>
+  </si>
+  <si>
+    <t>24-4-2025</t>
+  </si>
+  <si>
+    <t>Adding Registration Test case</t>
+  </si>
+  <si>
+    <t>SRS-REG-01</t>
+  </si>
+  <si>
+    <t>SRS-REG-02</t>
+  </si>
+  <si>
+    <t>SRS-REG-03</t>
+  </si>
+  <si>
+    <t>SRS-REG-04</t>
+  </si>
+  <si>
+    <t>SRS-REG-05</t>
+  </si>
+  <si>
+    <t>SRS-REG-06</t>
+  </si>
+  <si>
+    <t>SRS-REG-07</t>
+  </si>
+  <si>
+    <t>SRS-REG-08</t>
+  </si>
+  <si>
+    <t>SRS-REG-09</t>
+  </si>
+  <si>
+    <t>SRS-REG-10</t>
+  </si>
+  <si>
+    <t>SRS-REG-11</t>
+  </si>
+  <si>
+    <t>SRS-REG-12</t>
+  </si>
+  <si>
+    <t>Error displayed for invalid password when user enter Short password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -504,12 +842,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,10 +857,12 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,8 +885,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,8 +926,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -651,11 +1014,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -666,7 +1070,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -691,7 +1094,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -719,6 +1121,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,7 +1297,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J21" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J34" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
@@ -1068,88 +1515,88 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1158,153 +1605,153 @@
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1312,432 +1759,736 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>58</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>104</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="20" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="20" t="s">
+      <c r="H21" s="19"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="13"/>
+    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="28" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1746,4 +2497,169 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9365B4-989A-4710-8762-08F1179BCA67}">
+  <dimension ref="A4:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B77224-7011-48D2-BC3F-D177188BC714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D70E5B6-63C2-4690-9BAF-5817EF00EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="213">
   <si>
     <t>TC-ID</t>
   </si>
@@ -262,10 +262,6 @@
 Password: CorrectPass123</t>
   </si>
   <si>
-    <t>User attempts to log in with
- incorrect password 4 times</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Attempt login 4 times with wrong password or wrong email </t>
   </si>
   <si>
@@ -319,29 +315,6 @@
     <t>TC-Login-13</t>
   </si>
   <si>
-    <t>Login with both fields empty</t>
-  </si>
-  <si>
-    <t>Verify error when both email and password are blank</t>
-  </si>
-  <si>
-    <t>Email: '', Password: ''</t>
-  </si>
-  <si>
-    <t>Email: '',
- Password: ''</t>
-  </si>
-  <si>
-    <t>1. Leave both fields blank
-2. Click login</t>
-  </si>
-  <si>
-    <t>System displays error messages for both fields</t>
-  </si>
-  <si>
-    <t>SRS-Login-03, SRS-Login-11</t>
-  </si>
-  <si>
     <t>TC-Login-14</t>
   </si>
   <si>
@@ -359,9 +332,6 @@
 3. Try login again</t>
   </si>
   <si>
-    <t>User can attempt login again</t>
-  </si>
-  <si>
     <t>TC-Login-15</t>
   </si>
   <si>
@@ -396,33 +366,7 @@
     <t>Placeholder 'Enter your email' disappears</t>
   </si>
   <si>
-    <t>TC-Login-17</t>
-  </si>
-  <si>
-    <t>Login button disabled on empty form</t>
-  </si>
-  <si>
-    <t>Verify login button is disabled until inputs are filled</t>
-  </si>
-  <si>
-    <t>1. Go to login page
-2. Leave fields blank
-3. Observe login button</t>
-  </si>
-  <si>
-    <t>Login button is disabled</t>
-  </si>
-  <si>
-    <t>TC-Login-18</t>
-  </si>
-  <si>
     <t>Login with long email</t>
-  </si>
-  <si>
-    <t>Verify system handles max length email properly</t>
-  </si>
-  <si>
-    <t>Email: 256-character email, Password: CorrectPass123</t>
   </si>
   <si>
     <t>Error or success depending on validation</t>
@@ -440,9 +384,6 @@
     <t>Verify email input accepts valid special chars</t>
   </si>
   <si>
-    <t>TC-Login-19</t>
-  </si>
-  <si>
     <t>Email: user+test@example.com, Password: CorrectPass123</t>
   </si>
   <si>
@@ -450,44 +391,6 @@
 2. Enter special char email
 3. Enter password
 4. Click login</t>
-  </si>
-  <si>
-    <t>Login successful</t>
-  </si>
-  <si>
-    <t>Show password on toggle</t>
-  </si>
-  <si>
-    <t>Verify clicking 'Show Password' 
-reveals password</t>
-  </si>
-  <si>
-    <t>Password: "HiddenPass123"</t>
-  </si>
-  <si>
-    <t>1.Go to login page
-2. Enter password
-3. Click toggle</t>
-  </si>
-  <si>
-    <t>Password becomes visible</t>
-  </si>
-  <si>
-    <t>Verify redirect to previous protected page after login</t>
-  </si>
-  <si>
-    <t>Redirection to home page after login</t>
-  </si>
-  <si>
-    <t>1.Go to Login Page
-2. Access protected page
-3. Login when prompted</t>
-  </si>
-  <si>
-    <t>User is redirected to home  page</t>
-  </si>
-  <si>
-    <t>SRS-Login-07</t>
   </si>
   <si>
     <t>Verify Registration Form Fields</t>
@@ -825,6 +728,27 @@
   </si>
   <si>
     <t>Error displayed for invalid password when user enter Short password</t>
+  </si>
+  <si>
+    <t>User have a Registered Account
+User attempts to log in with
+ incorrect password 4 times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user must have a locked account for 10 minutes
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  should be redirection to home page as it's a successful login.</t>
+  </si>
+  <si>
+    <t>Email: 60-character email, Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>Verify system handles max length (60 character ) for email properly</t>
+  </si>
+  <si>
+    <t>Verify email input doesn’t accepts  special chars</t>
   </si>
 </sst>
 </file>
@@ -922,18 +846,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1003,19 +927,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1059,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1094,78 +1005,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1297,7 +1182,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J34" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J30" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
@@ -1515,11 +1400,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1499,7 @@
       <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="2"/>
@@ -1651,7 +1536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
@@ -1707,7 +1592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1717,14 +1602,14 @@
       <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>69</v>
+      <c r="D7" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>45</v>
@@ -1735,7 +1620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -1763,7 +1648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -1777,7 +1662,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>57</v>
@@ -1805,7 +1690,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>63</v>
@@ -1821,49 +1706,49 @@
     </row>
     <row r="11" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="J11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>14</v>
@@ -1874,9 +1759,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>84</v>
+    <row r="13" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>86</v>
@@ -1884,610 +1769,498 @@
       <c r="C13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
+      <c r="D13" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
+      <c r="G13" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>93</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>50</v>
+      <c r="E16" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="J17" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="G19" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="C21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="C22" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F22" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="C23" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="D23" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="F23" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="C24" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="D24" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="F24" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="E25" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="18" t="s">
+      <c r="G25" s="14" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="25" t="s">
+      <c r="H25" s="12"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C26" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D26" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="F26" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="G26" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="28" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="25" t="s">
+      <c r="C27" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="D27" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="F27" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="C28" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="32" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="28" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="28" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2516,148 +2289,148 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>214</v>
+      <c r="A4" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>221</v>
+      <c r="A5" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>221</v>
+      <c r="A6" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D70E5B6-63C2-4690-9BAF-5817EF00EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7F3BD6-F005-4C6C-B2BD-A70B0CADC7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="229">
   <si>
     <t>TC-ID</t>
   </si>
@@ -66,6 +66,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>SRS Link</t>
+  </si>
+  <si>
     <t>TC-Login-01</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
   </si>
   <si>
     <t>Verify user can log in with correct email and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User has a registered </t>
   </si>
   <si>
     <t>Email: user@example.com, Password: CorrectPass123</t>
@@ -102,6 +108,10 @@
     <t>User is on login page</t>
   </si>
   <si>
+    <t>Email: "userexample.com'',
+ Password: CorrectPass123</t>
+  </si>
+  <si>
     <t>1. Enter invalid email
 2. Enter valid password
 3. Click login</t>
@@ -122,6 +132,10 @@
     <t>Verify system prompts when email is blank</t>
   </si>
   <si>
+    <t>Email: '', 
+Password: CorrectPass123</t>
+  </si>
+  <si>
     <t>1. Leave email field blank
 2. Enter password
 3. Click login</t>
@@ -185,6 +199,14 @@
     <t>Verify system locks account after multiple failed attempts</t>
   </si>
   <si>
+    <t>User have a Registered Account
+User attempts to log in with
+ incorrect password 4 times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Attempt login 4 times with wrong password or wrong email </t>
+  </si>
+  <si>
     <t>System locks account for 10 minutes</t>
   </si>
   <si>
@@ -219,6 +241,10 @@
   </si>
   <si>
     <t>Verify password visibility toggle works correctly</t>
+  </si>
+  <si>
+    <t>Email: "user@example.com" , 
+Password: AnyPassword123</t>
   </si>
   <si>
     <t>1. Type password
@@ -238,6 +264,9 @@
   </si>
   <si>
     <t>Verify system prompts when password is blank</t>
+  </si>
+  <si>
+    <t>Email: user@example.com, Password: ''"</t>
   </si>
   <si>
     <t>1. Enter email
@@ -248,30 +277,6 @@
     <t>SRS-Login-11</t>
   </si>
   <si>
-    <t xml:space="preserve">User has a registered </t>
-  </si>
-  <si>
-    <t>SRS Link</t>
-  </si>
-  <si>
-    <t>Email: "userexample.com'',
- Password: CorrectPass123</t>
-  </si>
-  <si>
-    <t>Email: '', 
-Password: CorrectPass123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Attempt login 4 times with wrong password or wrong email </t>
-  </si>
-  <si>
-    <t>Email: "user@example.com" , 
-Password: AnyPassword123</t>
-  </si>
-  <si>
-    <t>Email: user@example.com, Password: ''"</t>
-  </si>
-  <si>
     <t>TC-Login-10</t>
   </si>
   <si>
@@ -312,16 +317,14 @@
     <t>TC-Login-12</t>
   </si>
   <si>
-    <t>TC-Login-13</t>
-  </si>
-  <si>
-    <t>TC-Login-14</t>
-  </si>
-  <si>
     <t>Account unlock after lock period</t>
   </si>
   <si>
     <t>Verify account unlocks after 10 minutes of lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user must have a locked account for 10 minutes
+</t>
   </si>
   <si>
     <t>Email: user@example.com, Password: CorrectPass123 (after lock)</t>
@@ -332,7 +335,10 @@
 3. Try login again</t>
   </si>
   <si>
-    <t>TC-Login-15</t>
+    <t xml:space="preserve">  should be redirection to home page as it's a successful login.</t>
+  </si>
+  <si>
+    <t>TC-Login-13</t>
   </si>
   <si>
     <t>Password is masked by default</t>
@@ -351,7 +357,7 @@
     <t>Password characters are not visible</t>
   </si>
   <si>
-    <t>TC-Login-16</t>
+    <t>TC-Login-14</t>
   </si>
   <si>
     <t>Placeholder disappears on focus</t>
@@ -366,13 +372,16 @@
     <t>Placeholder 'Enter your email' disappears</t>
   </si>
   <si>
+    <t>TC-Login-15</t>
+  </si>
+  <si>
     <t>Login with long email</t>
   </si>
   <si>
-    <t>Error or success depending on validation</t>
-  </si>
-  <si>
-    <t>SRS-Login-02</t>
+    <t>Verify system handles max length (60 character ) for email properly</t>
+  </si>
+  <si>
+    <t>Email: 60-character email, Password: CorrectPass123</t>
   </si>
   <si>
     <t>1. Go to login page
@@ -381,7 +390,19 @@
 4. Click login</t>
   </si>
   <si>
+    <t>Error or success depending on validation</t>
+  </si>
+  <si>
+    <t>SRS-Login-02</t>
+  </si>
+  <si>
+    <t>TC-Login-16</t>
+  </si>
+  <si>
     <t>Verify email input accepts valid special chars</t>
+  </si>
+  <si>
+    <t>Verify email input doesn’t accepts  special chars</t>
   </si>
   <si>
     <t>Email: user+test@example.com, Password: CorrectPass123</t>
@@ -393,6 +414,9 @@
 4. Click login</t>
   </si>
   <si>
+    <t>TC-REG-01</t>
+  </si>
+  <si>
     <t>Verify Registration Form Fields</t>
   </si>
   <si>
@@ -411,6 +435,12 @@
     <t>Only Username, Email, Password, Confirm Password, and Register button are present</t>
   </si>
   <si>
+    <t>SRS-REG-01</t>
+  </si>
+  <si>
+    <t>TC-REG-02</t>
+  </si>
+  <si>
     <t>Check Absence of Extra Fields</t>
   </si>
   <si>
@@ -423,190 +453,10 @@
     <t>No extra fields should be present</t>
   </si>
   <si>
-    <t>Verify error message when "Username" field is empty</t>
-  </si>
-  <si>
-    <t>Ensure the system displays an error if "Username" is not filled</t>
-  </si>
-  <si>
-    <t>Username: (leave blank)
-Email: testuser@example.com
-Password: Test1234!
-Confirm Password: Test1234!</t>
-  </si>
-  <si>
-    <t>Error message below Username: “This field is required.”</t>
-  </si>
-  <si>
-    <t>Verify error message when "Email" field is empty</t>
-  </si>
-  <si>
-    <t>Ensure the system displays an error if "Email" is not filled</t>
-  </si>
-  <si>
-    <t>Username:testUser
-Email:  (leave blank)
-Password: Test1234!
-Confirm Password: Test1234!</t>
-  </si>
-  <si>
-    <t>Verify error message when "Password" field is empty</t>
-  </si>
-  <si>
-    <t>Ensure the system displays an error if "Password" is not filled</t>
-  </si>
-  <si>
-    <t>Username: testUser
-Email: testuser@example.com
-Password: (leave blank)
-Confirm Password: Test1234!</t>
-  </si>
-  <si>
-    <t>Verify error when "Confirm Password" is empty</t>
-  </si>
-  <si>
-    <t>Ensure the system displays an error when the confirm password field is left blank.</t>
-  </si>
-  <si>
-    <t>Username: testUser
-Email: testuser@example.com
-Password: Test1234!
-Confirm Password: (leave blank)</t>
-  </si>
-  <si>
-    <t>Displays: “This field is required.”</t>
-  </si>
-  <si>
-    <t>Verify Placeholder Text</t>
-  </si>
-  <si>
-    <t>Ensure placeholder text exists for all fields</t>
-  </si>
-  <si>
-    <t>User on registration page</t>
-  </si>
-  <si>
-    <t>Check placeholder for each input field</t>
-  </si>
-  <si>
-    <t>Each field has correct placeholder (e.g., 'Enter your email')</t>
-  </si>
-  <si>
-    <t>Validate Username Format</t>
-  </si>
-  <si>
-    <t>Ensure username contains only letters</t>
-  </si>
-  <si>
-    <t>Username: user123!</t>
-  </si>
-  <si>
-    <t>Enter invalid username, click Register</t>
-  </si>
-  <si>
-    <t>Displays: 'Invalid username'</t>
-  </si>
-  <si>
-    <t>Validate Email Format</t>
-  </si>
-  <si>
-    <t>Ensure the system displays an error when the email is not in a valid format.</t>
-  </si>
-  <si>
-    <t>invalidemail.com</t>
-  </si>
-  <si>
-    <t>Displays: “Invalid email format.”</t>
-  </si>
-  <si>
-    <t>Password Security Check</t>
-  </si>
-  <si>
-    <t>Ensure password meets security criteria</t>
-  </si>
-  <si>
-    <t>Password: abc123</t>
-  </si>
-  <si>
-    <t>Enter weak password, click Register</t>
-  </si>
-  <si>
-    <t>Displays:  "Invalid password. 
-Your password must be at least 8 characters long and include at least one special character (e.g., ! @ # $ %)."</t>
-  </si>
-  <si>
-    <t>Password Validation Message</t>
-  </si>
-  <si>
-    <t>Password: short</t>
-  </si>
-  <si>
-    <t>Enter short password, click Register</t>
-  </si>
-  <si>
-    <t>Confirm Password Match</t>
-  </si>
-  <si>
-    <t>Ensure confirm password matches password</t>
-  </si>
-  <si>
-    <t>Click Register</t>
-  </si>
-  <si>
-    <t>Displays: 'Passwords do not match'</t>
-  </si>
-  <si>
-    <t>TC-REG-01</t>
-  </si>
-  <si>
-    <t>TC-REG-02</t>
+    <t>SRS-REG-02</t>
   </si>
   <si>
     <t>TC-REG-03</t>
-  </si>
-  <si>
-    <t>TC-REG-04</t>
-  </si>
-  <si>
-    <t>TC-REG-05</t>
-  </si>
-  <si>
-    <t>TC-REG-06</t>
-  </si>
-  <si>
-    <t>TC-REG-07</t>
-  </si>
-  <si>
-    <t>TC-REG-08</t>
-  </si>
-  <si>
-    <t>TC-REG-09</t>
-  </si>
-  <si>
-    <t>TC-REG-10</t>
-  </si>
-  <si>
-    <t>TC-REG-11</t>
-  </si>
-  <si>
-    <t>TC-REG-12</t>
-  </si>
-  <si>
-    <t>Navigate to the registration page</t>
-  </si>
-  <si>
-    <t>1.Fill in all fields except confirm password
-2.Click "Register"</t>
-  </si>
-  <si>
-    <t>1.Enter testUser in Username
-2.Enter invalidemail.com in Email
-3.Enter Test1234! in Password
-4.Click "Register"</t>
-  </si>
-  <si>
-    <t>Password: pass@123
- Confirm Password: pass@124</t>
   </si>
   <si>
     <t>Successful Registration and Redirect to Home Page</t>
@@ -629,6 +479,30 @@
 </t>
   </si>
   <si>
+    <t>User is redirected to the home page</t>
+  </si>
+  <si>
+    <t>SRS-REG-03</t>
+  </si>
+  <si>
+    <t>TC-REG-04</t>
+  </si>
+  <si>
+    <t>Verify error message when "Username" field is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Username" is not filled</t>
+  </si>
+  <si>
+    <t>Navigate to the registration page</t>
+  </si>
+  <si>
+    <t>Username: (leave blank)
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.Leave "Username" empty
 2.Enter testuser@example.com in the Email field
 3.Enter Test1234! in the Password field
@@ -637,6 +511,27 @@
 </t>
   </si>
   <si>
+    <t>Error message below Username: “This field is required.”</t>
+  </si>
+  <si>
+    <t>SRS-REG-04</t>
+  </si>
+  <si>
+    <t>TC-REG-05</t>
+  </si>
+  <si>
+    <t>Verify error message when "Email" field is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Email" is not filled</t>
+  </si>
+  <si>
+    <t>Username:testUser
+Email:  (leave blank)
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
     <t>1.Leave "email" empty
 2.Enter testUser in the Username field
 3.Enter Test1234! in the Password field
@@ -644,6 +539,24 @@
 5.Click the "Register" button</t>
   </si>
   <si>
+    <t>SRS-REG-05</t>
+  </si>
+  <si>
+    <t>TC-REG-06</t>
+  </si>
+  <si>
+    <t>Verify error message when "Password" field is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Password" is not filled</t>
+  </si>
+  <si>
+    <t>Username: testUser
+Email: testuser@example.com
+Password: (leave blank)
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
     <t>1.Leave "password" empty
 2.Enter testuser@example.com in the Email field
 3.Enter testUser in the Username field
@@ -651,111 +564,253 @@
 5.Click the "Register" button</t>
   </si>
   <si>
-    <t>User is redirected to the home page</t>
+    <t>SRS-REG-06</t>
+  </si>
+  <si>
+    <t>TC-REG-07</t>
+  </si>
+  <si>
+    <t>Verify error when "Confirm Password" is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error when the confirm password field is left blank.</t>
+  </si>
+  <si>
+    <t>Username: testUser
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: (leave blank)</t>
+  </si>
+  <si>
+    <t>1.Fill in all fields except confirm password
+2.Click "Register"</t>
+  </si>
+  <si>
+    <t>Displays: “This field is required.”</t>
+  </si>
+  <si>
+    <t>SRS-REG-07</t>
+  </si>
+  <si>
+    <t>TC-REG-08</t>
+  </si>
+  <si>
+    <t>Verify Placeholder Text</t>
+  </si>
+  <si>
+    <t>Ensure placeholder text exists for all fields</t>
+  </si>
+  <si>
+    <t>User on registration page</t>
+  </si>
+  <si>
+    <t>Check placeholder for each input field</t>
+  </si>
+  <si>
+    <t>Each field has correct placeholder (e.g., 'Enter your email')</t>
+  </si>
+  <si>
+    <t>SRS-REG-08</t>
+  </si>
+  <si>
+    <t>TC-REG-09</t>
+  </si>
+  <si>
+    <t>Validate Username Format</t>
+  </si>
+  <si>
+    <t>Ensure username contains only letters</t>
+  </si>
+  <si>
+    <t>Username: user123!</t>
+  </si>
+  <si>
+    <t>Enter invalid username, click Register</t>
+  </si>
+  <si>
+    <t>Displays: 'Invalid username'</t>
+  </si>
+  <si>
+    <t>SRS-REG-09</t>
+  </si>
+  <si>
+    <t>TC-REG-10</t>
+  </si>
+  <si>
+    <t>Validate Email Format</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error when the email is not in a valid format.</t>
+  </si>
+  <si>
+    <t>invalidemail.com</t>
+  </si>
+  <si>
+    <t>1.Enter testUser in Username
+2.Enter invalidemail.com in Email
+3.Enter Test1234! in Password
+4.Click "Register"</t>
+  </si>
+  <si>
+    <t>Displays: “Invalid email format.”</t>
+  </si>
+  <si>
+    <t>SRS-REG-10</t>
+  </si>
+  <si>
+    <t>TC-REG-11</t>
+  </si>
+  <si>
+    <t>Password Security Check</t>
+  </si>
+  <si>
+    <t>Ensure password meets security criteria</t>
+  </si>
+  <si>
+    <t>Password: abc123</t>
+  </si>
+  <si>
+    <t>Enter weak password, click Register</t>
+  </si>
+  <si>
+    <t>Displays:  "Invalid password. 
+Your password must be at least 8 characters long and include at least one special character (e.g., ! @ # $ %)."</t>
+  </si>
+  <si>
+    <t>SRS-REG-11</t>
+  </si>
+  <si>
+    <t>TC-REG-12</t>
+  </si>
+  <si>
+    <t>Password Validation Message</t>
+  </si>
+  <si>
+    <t>Error displayed for invalid password when user enter Short password</t>
+  </si>
+  <si>
+    <t>Password: short</t>
+  </si>
+  <si>
+    <t>Enter short password, click Register</t>
   </si>
   <si>
     <t>TC-REG-13</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Updated section</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Confirm Password Match</t>
+  </si>
+  <si>
+    <t>Ensure confirm password matches password</t>
+  </si>
+  <si>
+    <t>Password: pass@123
+ Confirm Password: pass@124</t>
+  </si>
+  <si>
+    <t>Click Register</t>
+  </si>
+  <si>
+    <t>Displays: 'Passwords do not match'</t>
+  </si>
+  <si>
+    <t>SRS-REG-12</t>
+  </si>
+  <si>
+    <t>TC-Rate-01</t>
+  </si>
+  <si>
+    <t>Validate 5-star rating system with comments</t>
+  </si>
+  <si>
+    <t>Ensure that users can rate using a 5-star system, leave optional comments, and that ratings are visible in their history.</t>
+  </si>
+  <si>
+    <t>User is logged into the application and has access to the rating feature.</t>
+  </si>
+  <si>
+    <t>Rating: 4 stars
+Comment: "Great experience!"</t>
+  </si>
+  <si>
+    <t>1. Navigate to the item to be rated.
+2. Select a 4-star rating.
+3. Enter the comment "Great experience!".
+4. Submit the rating.
+5. Navigate to the user history page.</t>
+  </si>
+  <si>
+    <t>The rating and comment are submitted successfully and are visible in the user's history.</t>
+  </si>
+  <si>
+    <t>SRS-Rate-01</t>
+  </si>
+  <si>
+    <t>TC-Booking-01</t>
+  </si>
+  <si>
+    <t>Verify booking request is sent to 3rd-party system</t>
+  </si>
+  <si>
+    <t>Ensure that the destination chosen by the user is sent correctly to the third-party service when clicking "Book Now".</t>
+  </si>
+  <si>
+    <t>User is on the booking screen.</t>
+  </si>
+  <si>
+    <t>Destination: LAX</t>
+  </si>
+  <si>
+    <t>1. Open the booking screen.
+2. Choose destination: LAX.
+3. Click the "Book Now" button.</t>
+  </si>
+  <si>
+    <t>The system sends the destination to the third-party booking service, and the user receives a response (e.g., confirmation or error message).</t>
+  </si>
+  <si>
+    <t>SRS-Booking-01</t>
   </si>
   <si>
     <t>Version 
 Number</t>
   </si>
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Updated section</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>V1.0</t>
   </si>
   <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Adding login Test case</t>
+  </si>
+  <si>
+    <t>24-4-2025</t>
+  </si>
+  <si>
     <t>V1.1</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>moaz</t>
   </si>
   <si>
-    <t>Adding login Test case</t>
-  </si>
-  <si>
-    <t>24-4-2025</t>
-  </si>
-  <si>
     <t>Adding Registration Test case</t>
-  </si>
-  <si>
-    <t>SRS-REG-01</t>
-  </si>
-  <si>
-    <t>SRS-REG-02</t>
-  </si>
-  <si>
-    <t>SRS-REG-03</t>
-  </si>
-  <si>
-    <t>SRS-REG-04</t>
-  </si>
-  <si>
-    <t>SRS-REG-05</t>
-  </si>
-  <si>
-    <t>SRS-REG-06</t>
-  </si>
-  <si>
-    <t>SRS-REG-07</t>
-  </si>
-  <si>
-    <t>SRS-REG-08</t>
-  </si>
-  <si>
-    <t>SRS-REG-09</t>
-  </si>
-  <si>
-    <t>SRS-REG-10</t>
-  </si>
-  <si>
-    <t>SRS-REG-11</t>
-  </si>
-  <si>
-    <t>SRS-REG-12</t>
-  </si>
-  <si>
-    <t>Error displayed for invalid password when user enter Short password</t>
-  </si>
-  <si>
-    <t>User have a Registered Account
-User attempts to log in with
- incorrect password 4 times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user must have a locked account for 10 minutes
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  should be redirection to home page as it's a successful login.</t>
-  </si>
-  <si>
-    <t>Email: 60-character email, Password: CorrectPass123</t>
-  </si>
-  <si>
-    <t>Verify system handles max length (60 character ) for email properly</t>
-  </si>
-  <si>
-    <t>Verify email input doesn’t accepts  special chars</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -790,20 +845,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -822,6 +863,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -857,7 +904,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -966,11 +1013,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -990,19 +1085,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1016,8 +1102,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1026,31 +1112,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1182,7 +1320,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J30" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J33" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
@@ -1400,27 +1538,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <pane ySplit="3" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1448,820 +1587,1035 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="52.9">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>65</v>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="39.6">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="7" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="39.6">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="7" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="39.6">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="39.6">
+      <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.15" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>45</v>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
+      <c r="J7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.15">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
+      <c r="J8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="26.45">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.6">
+      <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="39.6">
+      <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="J11" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="39.6">
+      <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="39.6">
       <c r="A13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="J13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="26.45">
       <c r="A14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.15">
+      <c r="A15" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J15" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="52.9">
       <c r="A16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="52.9">
       <c r="A17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.15">
+      <c r="A18" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.15">
+      <c r="A19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="79.150000000000006">
+      <c r="A20" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="79.150000000000006">
+      <c r="A21" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="66">
+      <c r="A22" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="55.15" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="66">
+      <c r="A24" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="17" t="s">
+      <c r="F24" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.15">
+      <c r="A25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.15">
+      <c r="A26" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="52.9">
+      <c r="A27" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="39.6">
+      <c r="A28" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="39.6">
+      <c r="A29" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="43" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="17" t="s">
+      <c r="G29" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A30" s="29" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="17" t="s">
+      <c r="B30" s="30" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="17" t="s">
+      <c r="C30" s="30" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="17" t="s">
+      <c r="D30" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="31" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="17" t="s">
+      <c r="F30" s="32" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="17" t="s">
+      <c r="G30" s="33" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="17" t="s">
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="17" t="s">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A31" s="36" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="17" t="s">
+      <c r="B31" s="36" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="17" t="s">
+      <c r="C31" s="37" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="D31" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="17" t="s">
-        <v>205</v>
-      </c>
+      <c r="F31" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A32" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2280,157 +2634,157 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+    <row r="4" spans="1:4" ht="34.9">
+      <c r="A4" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intake 45\QA\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7F3BD6-F005-4C6C-B2BD-A70B0CADC7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F5C83-AF0D-4C9F-880E-D56F1D82E003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="321">
   <si>
     <t>TC-ID</t>
   </si>
@@ -805,12 +805,508 @@
   <si>
     <t>Adding Registration Test case</t>
   </si>
+  <si>
+    <t>TC-User-01</t>
+  </si>
+  <si>
+    <t>TC-User-02</t>
+  </si>
+  <si>
+    <t>TC-User-03</t>
+  </si>
+  <si>
+    <t>TC-User-04</t>
+  </si>
+  <si>
+    <t>TC-User-05</t>
+  </si>
+  <si>
+    <t>TC-User-06</t>
+  </si>
+  <si>
+    <t>verify user's ability to register with valid data</t>
+  </si>
+  <si>
+    <t>system should show "registration successful" message and redirect the user to the login page</t>
+  </si>
+  <si>
+    <t>verify user's ability to login with valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Email: testuser@example.com
+Password: Test1234!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Enter Test data in the corresponding fields </t>
+  </si>
+  <si>
+    <t>system should redirect the user to the home page upon successful login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user's ablity of registration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user's ablity of login </t>
+  </si>
+  <si>
+    <t>user's ablity to make bookings</t>
+  </si>
+  <si>
+    <t>verify user's ability to make bookings</t>
+  </si>
+  <si>
+    <t>user's receives a response wether it's a successful booking or no availability.</t>
+  </si>
+  <si>
+    <t>user's ablity to cancel bookings</t>
+  </si>
+  <si>
+    <t>verify user's ability to cancel bookings</t>
+  </si>
+  <si>
+    <t>1- navigate to booking's page on user's profile
+2-click on "cancel booking" button</t>
+  </si>
+  <si>
+    <t>user's receives a response of "booking cancelled".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desired destination: x
+booking data: date 
+</t>
+  </si>
+  <si>
+    <t>1- navigate to destination's page
+2-enter booking data
+3-click on "book now" button</t>
+  </si>
+  <si>
+    <t>user's ablity to make ratings on made bookings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify user's ability to put rating out of 5 stars with comment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify user's ability to put rating out of 5 stars without comment </t>
+  </si>
+  <si>
+    <t>Rating: 5 stars
+Comment: "Great experience!"</t>
+  </si>
+  <si>
+    <t>Rating: 3 stars</t>
+  </si>
+  <si>
+    <t>1. Select 5-star rating.
+2. Enter the comment "Great experience!".
+3. Submit the rating.</t>
+  </si>
+  <si>
+    <t>rating is visible on the rated destination page.</t>
+  </si>
+  <si>
+    <t>1. Select 5-star rating.
+2. Submit the rating.</t>
+  </si>
+  <si>
+    <t>TC-User-07</t>
+  </si>
+  <si>
+    <t>user's unique ID</t>
+  </si>
+  <si>
+    <t>verify the system gives a unique ID incrementally for each user made.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">web browser to access registration page
+▪complete registration form available
+▪navigation to registration page </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">web browser to access login page
+▪complete login form available
+▪navigation to login page </t>
+    </r>
+  </si>
+  <si>
+    <t>1.navigate to admin panel
+2. click on add users
+3. add user A's data
+4.add user B's data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user A's data:
+Username:testUserA
+Email: testuserA@example.com
+Password: Test1234!
+Confirm Password: Test1234!
+user B's data:
+Username:testUserB
+Email: testuserB@example.com
+Password: Test1234!
+Confirm Password: Test1234!
+</t>
+  </si>
+  <si>
+    <t>user B's ID should be incremented by 1 of user A's ID</t>
+  </si>
+  <si>
+    <t>SRS-User-06</t>
+  </si>
+  <si>
+    <t>SRS-User-05</t>
+  </si>
+  <si>
+    <t>SRS-User-01</t>
+  </si>
+  <si>
+    <t>SRS-User-02</t>
+  </si>
+  <si>
+    <t>SRS-User-03</t>
+  </si>
+  <si>
+    <t>SRS-User-04</t>
+  </si>
+  <si>
+    <t>TC-Platform-01</t>
+  </si>
+  <si>
+    <t>application's platform</t>
+  </si>
+  <si>
+    <t>verify that the App is functional as a Web App Pc based</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+▪web browser to access rating page
+▪account with booking made and finished.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+▪rating functionality available
+▪navigation to rating page on the made booking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪web browser to access rating page
+▪account with booking made and finished.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+▪rating functionality available
+▪navigation to rating page on the made booking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪web browser to access booking's page
+▪account with booking made with enough time to cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+▪booking cancellation functionality available</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+▪web browser to access booking's page
+▪registerd user account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+▪booking functionality available</t>
+    </r>
+  </si>
+  <si>
+    <t>▪web browser on pc to access App's page</t>
+  </si>
+  <si>
+    <t>app page is loaded</t>
+  </si>
+  <si>
+    <t>TC-Platform-02</t>
+  </si>
+  <si>
+    <t>▪web browser on mobile to access App's page</t>
+  </si>
+  <si>
+    <t>navigate to App's Url on pc browser</t>
+  </si>
+  <si>
+    <t>navigate to App's Url on mobile browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">browser shows pc version of the app loaded </t>
+  </si>
+  <si>
+    <t>TC-Admin-01</t>
+  </si>
+  <si>
+    <t>TC-Admin-02</t>
+  </si>
+  <si>
+    <t>TC-Admin-03</t>
+  </si>
+  <si>
+    <t>TC-Admin-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin's ability to add users  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the system allows the admin to add new users </t>
+  </si>
+  <si>
+    <t>user A's data:
+Username:testUserA
+Email: testuserA@example.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t>1.navigate to admin panel
+2. click on add users
+3. add user A's data</t>
+  </si>
+  <si>
+    <t>userA's account created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin's ability to Delete users  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the system allows the admin to delete users </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪web browser to access Admin Panel page
+▪account logged in with Admin privileges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+▪user A data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪web browser to access Admin Panel page
+▪account logged in with Admin privileges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+▪user A and user B valid data for registration</t>
+    </r>
+  </si>
+  <si>
+    <t>user x ID</t>
+  </si>
+  <si>
+    <t>1.navigate to admin panel
+2. click on delete users
+3. add user x's ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user x's account deleted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin's abilities restrictions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the system doesn’t' allows the admin to edit user's data </t>
+  </si>
+  <si>
+    <t>navigate to admin panel</t>
+  </si>
+  <si>
+    <t>admin panel only show Add and Delete user's and no "Edit user" available</t>
+  </si>
+  <si>
+    <t>verify that the system doesn’t' allows the admin to edit user's comment's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigate to a rated distination page with comment's on it 
+</t>
+  </si>
+  <si>
+    <t>▪web browser to access Admin Panel page
+▪account logged in with Admin privileges
+▪rated distination page with comment's on it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪web browser to access Admin Panel page
+▪account logged in with Admin privileges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+▪registerd user x data</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">▪web browser to access Admin Panel page
+▪account logged in with Admin privileges </t>
+  </si>
+  <si>
+    <t>no option for the Admin to delete the existed comments</t>
+  </si>
+  <si>
+    <t>SRS-Platform-01</t>
+  </si>
+  <si>
+    <t>SRS-Admin-01</t>
+  </si>
+  <si>
+    <t>SRS-Admin-02</t>
+  </si>
+  <si>
+    <t>SRS-Admin-03</t>
+  </si>
+  <si>
+    <t>Abdulkarim</t>
+  </si>
+  <si>
+    <t>Adding Admin, User, Platform Test cases</t>
+  </si>
+  <si>
+    <t>V1.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -871,8 +1367,21 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,8 +1412,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1061,11 +1588,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1136,9 +1691,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1155,13 +1707,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1189,6 +1737,68 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1320,7 +1930,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J33" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J47" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
@@ -1538,28 +2148,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.45">
+    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +2201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="52.9">
+    <row r="2" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +2229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="39.6">
+    <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1647,7 +2257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="39.6">
+    <row r="4" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1675,7 +2285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="39.6">
+    <row r="5" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1703,7 +2313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39.6">
+    <row r="6" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1731,7 +2341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.15" customHeight="1">
+    <row r="7" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1759,7 +2369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.15">
+    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1787,7 +2397,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.45">
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1815,7 +2425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="39.6">
+    <row r="10" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -1843,7 +2453,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39.6">
+    <row r="11" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
@@ -1870,7 +2480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.6">
+    <row r="12" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -1898,7 +2508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39.6">
+    <row r="13" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -1926,7 +2536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.45">
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -1954,8 +2564,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.15">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1982,7 +2592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="52.9">
+    <row r="16" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>102</v>
       </c>
@@ -2010,7 +2620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="52.9">
+    <row r="17" spans="1:14" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -2038,7 +2648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.15">
+    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>114</v>
       </c>
@@ -2066,7 +2676,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="13.15">
+    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>122</v>
       </c>
@@ -2094,7 +2704,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="79.150000000000006">
+    <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>128</v>
       </c>
@@ -2122,7 +2732,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="79.150000000000006">
+    <row r="21" spans="1:14" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>135</v>
       </c>
@@ -2150,7 +2760,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="66">
+    <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>143</v>
       </c>
@@ -2178,7 +2788,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="55.15" customHeight="1">
+    <row r="23" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>149</v>
       </c>
@@ -2206,7 +2816,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="66">
+    <row r="24" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>155</v>
       </c>
@@ -2234,7 +2844,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13.15">
+    <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>162</v>
       </c>
@@ -2262,7 +2872,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="13.15">
+    <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>169</v>
       </c>
@@ -2290,7 +2900,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="52.9">
+    <row r="27" spans="1:14" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>176</v>
       </c>
@@ -2318,7 +2928,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="39.6">
+    <row r="28" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>183</v>
       </c>
@@ -2346,276 +2956,2831 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="39.6">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="47" t="s">
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="29" t="s">
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35" t="s">
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="38" t="s">
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="36" t="s">
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="38" t="s">
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+    </row>
+    <row r="34" spans="1:14" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+    </row>
+    <row r="35" spans="1:14" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+    </row>
+    <row r="36" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+    </row>
+    <row r="37" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+    </row>
+    <row r="38" spans="1:14" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+    </row>
+    <row r="39" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+    </row>
+    <row r="40" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+    </row>
+    <row r="41" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+    </row>
+    <row r="42" spans="1:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+    </row>
+    <row r="43" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="G43" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+    </row>
+    <row r="44" spans="1:14" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+    </row>
+    <row r="45" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+    </row>
+    <row r="46" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+    </row>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+    </row>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+    </row>
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+    </row>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+    </row>
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+    </row>
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+    </row>
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+    </row>
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+    </row>
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+    </row>
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+    </row>
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+    </row>
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+    </row>
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+    </row>
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+    </row>
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+    </row>
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+    </row>
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+    </row>
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+    </row>
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+    </row>
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+    </row>
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+    </row>
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+    </row>
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+    </row>
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+    </row>
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+    </row>
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+    </row>
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+    </row>
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+    </row>
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+    </row>
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+    </row>
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+    </row>
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+    </row>
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="11"/>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11"/>
+    </row>
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="11"/>
+    </row>
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+    </row>
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11"/>
+    </row>
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+    </row>
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+    </row>
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+    </row>
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+    </row>
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+    </row>
+    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11"/>
+      <c r="J225" s="11"/>
+    </row>
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="11"/>
+    </row>
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
+    </row>
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="11"/>
+    </row>
+    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+    </row>
+    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="11"/>
+    </row>
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="11"/>
+      <c r="J231" s="11"/>
+    </row>
+    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="11"/>
+    </row>
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="11"/>
+    </row>
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="11"/>
+    </row>
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
+    </row>
+    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2631,18 +5796,18 @@
   <dimension ref="A4:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="34.9">
+    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>218</v>
       </c>
@@ -2656,7 +5821,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>222</v>
       </c>
@@ -2670,7 +5835,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>226</v>
       </c>
@@ -2684,109 +5849,118 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4">
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intake 45\QA\Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F5C83-AF0D-4C9F-880E-D56F1D82E003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A89B24-82E9-42FF-9624-5F818A05A7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -1296,10 +1296,10 @@
     <t>Abdulkarim</t>
   </si>
   <si>
-    <t>Adding Admin, User, Platform Test cases</t>
-  </si>
-  <si>
     <t>V1.3</t>
+  </si>
+  <si>
+    <t>Adding Admin, User, Platform Test cases.</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1763,7 +1763,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2148,9 +2147,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
@@ -2397,7 +2396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>109</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>114</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>122</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>128</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>135</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>143</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>149</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>155</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>162</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>169</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>176</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>183</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>190</v>
       </c>
@@ -2983,12 +2982,8 @@
       <c r="J29" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>195</v>
       </c>
@@ -3012,15 +3007,11 @@
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>202</v>
       </c>
@@ -3044,15 +3035,11 @@
       </c>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
-      <c r="J31" s="58" t="s">
+      <c r="J31" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>210</v>
       </c>
@@ -3076,15 +3063,11 @@
       </c>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -3094,13 +3077,9 @@
       <c r="G33" s="45"/>
       <c r="H33" s="45"/>
       <c r="I33" s="45"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-    </row>
-    <row r="34" spans="1:14" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34" spans="1:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>229</v>
       </c>
@@ -3124,15 +3103,11 @@
       </c>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
-      <c r="J34" s="60" t="s">
+      <c r="J34" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-    </row>
-    <row r="35" spans="1:14" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>230</v>
       </c>
@@ -3156,15 +3131,11 @@
       </c>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="60" t="s">
+      <c r="J35" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-    </row>
-    <row r="36" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>231</v>
       </c>
@@ -3188,15 +3159,11 @@
       </c>
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
-      <c r="J36" s="60" t="s">
+      <c r="J36" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-    </row>
-    <row r="37" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>232</v>
       </c>
@@ -3218,15 +3185,11 @@
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-    </row>
-    <row r="38" spans="1:14" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>233</v>
       </c>
@@ -3250,15 +3213,11 @@
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
-      <c r="J38" s="60" t="s">
+      <c r="J38" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-    </row>
-    <row r="39" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
         <v>234</v>
       </c>
@@ -3282,15 +3241,11 @@
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="60" t="s">
+      <c r="J39" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-    </row>
-    <row r="40" spans="1:14" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>260</v>
       </c>
@@ -3314,16 +3269,12 @@
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
-      <c r="J40" s="60" t="s">
+      <c r="J40" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-    </row>
-    <row r="41" spans="1:14" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+    </row>
+    <row r="41" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
         <v>274</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -3347,13 +3298,9 @@
       <c r="J41" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-    </row>
-    <row r="42" spans="1:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="60" t="s">
         <v>283</v>
       </c>
       <c r="B42" s="52" t="s">
@@ -3377,16 +3324,12 @@
       <c r="J42" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-    </row>
-    <row r="43" spans="1:14" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
+    </row>
+    <row r="43" spans="1:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="62" t="s">
         <v>292</v>
       </c>
       <c r="C43" s="52" t="s">
@@ -3395,30 +3338,26 @@
       <c r="D43" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="E43" s="64" t="s">
+      <c r="E43" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="F43" s="64" t="s">
+      <c r="F43" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="62" t="s">
         <v>296</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="69" t="s">
+      <c r="J43" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-    </row>
-    <row r="44" spans="1:14" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62" t="s">
+    </row>
+    <row r="44" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="62" t="s">
         <v>297</v>
       </c>
       <c r="C44" s="52" t="s">
@@ -3430,10 +3369,10 @@
       <c r="E44" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="G44" s="63" t="s">
+      <c r="G44" s="62" t="s">
         <v>303</v>
       </c>
       <c r="H44" s="16"/>
@@ -3441,26 +3380,22 @@
       <c r="J44" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-    </row>
-    <row r="45" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+    </row>
+    <row r="45" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="62" t="s">
         <v>304</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="64" t="s">
         <v>312</v>
       </c>
       <c r="E45" s="16"/>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="63" t="s">
         <v>306</v>
       </c>
       <c r="G45" s="20" t="s">
@@ -3471,26 +3406,22 @@
       <c r="J45" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-    </row>
-    <row r="46" spans="1:14" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
+    </row>
+    <row r="46" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="62" t="s">
         <v>304</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="64" t="s">
         <v>310</v>
       </c>
       <c r="E46" s="16"/>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="65" t="s">
         <v>309</v>
       </c>
       <c r="G46" s="20" t="s">
@@ -3502,9 +3433,9 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -3514,9 +3445,9 @@
       <c r="I47" s="16"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -3527,8 +3458,8 @@
       <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -5795,8 +5726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9365B4-989A-4710-8762-08F1179BCA67}">
   <dimension ref="A4:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5851,13 +5782,13 @@
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="66" t="s">
-        <v>319</v>
+      <c r="C7" s="65" t="s">
+        <v>320</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>225</v>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A89B24-82E9-42FF-9624-5F818A05A7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC85C19-470C-4B5F-A67E-FCBACAEA033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="367">
   <si>
     <t>TC-ID</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Verify Registration Form Fields</t>
   </si>
   <si>
-    <t>Ensure only the required fields are present in the form</t>
-  </si>
-  <si>
     <t>User navigates to registration page</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
   </si>
   <si>
     <t>Check available input fields and buttons</t>
-  </si>
-  <si>
-    <t>Only Username, Email, Password, Confirm Password, and Register button are present</t>
   </si>
   <si>
     <t>SRS-REG-01</t>
@@ -491,9 +485,6 @@
     <t>Verify error message when "Username" field is empty</t>
   </si>
   <si>
-    <t>Ensure the system displays an error if "Username" is not filled</t>
-  </si>
-  <si>
     <t>Navigate to the registration page</t>
   </si>
   <si>
@@ -523,9 +514,6 @@
     <t>Verify error message when "Email" field is empty</t>
   </si>
   <si>
-    <t>Ensure the system displays an error if "Email" is not filled</t>
-  </si>
-  <si>
     <t>Username:testUser
 Email:  (leave blank)
 Password: Test1234!
@@ -548,9 +536,6 @@
     <t>Verify error message when "Password" field is empty</t>
   </si>
   <si>
-    <t>Ensure the system displays an error if "Password" is not filled</t>
-  </si>
-  <si>
     <t>Username: testUser
 Email: testuser@example.com
 Password: (leave blank)
@@ -616,18 +601,6 @@
     <t>TC-REG-09</t>
   </si>
   <si>
-    <t>Validate Username Format</t>
-  </si>
-  <si>
-    <t>Ensure username contains only letters</t>
-  </si>
-  <si>
-    <t>Username: user123!</t>
-  </si>
-  <si>
-    <t>Enter invalid username, click Register</t>
-  </si>
-  <si>
     <t>Displays: 'Invalid username'</t>
   </si>
   <si>
@@ -640,34 +613,7 @@
     <t>Validate Email Format</t>
   </si>
   <si>
-    <t>Ensure the system displays an error when the email is not in a valid format.</t>
-  </si>
-  <si>
-    <t>invalidemail.com</t>
-  </si>
-  <si>
-    <t>1.Enter testUser in Username
-2.Enter invalidemail.com in Email
-3.Enter Test1234! in Password
-4.Click "Register"</t>
-  </si>
-  <si>
-    <t>Displays: “Invalid email format.”</t>
-  </si>
-  <si>
-    <t>SRS-REG-10</t>
-  </si>
-  <si>
     <t>TC-REG-11</t>
-  </si>
-  <si>
-    <t>Password Security Check</t>
-  </si>
-  <si>
-    <t>Ensure password meets security criteria</t>
-  </si>
-  <si>
-    <t>Password: abc123</t>
   </si>
   <si>
     <t>Enter weak password, click Register</t>
@@ -681,12 +627,6 @@
   </si>
   <si>
     <t>TC-REG-12</t>
-  </si>
-  <si>
-    <t>Password Validation Message</t>
-  </si>
-  <si>
-    <t>Error displayed for invalid password when user enter Short password</t>
   </si>
   <si>
     <t>Password: short</t>
@@ -1301,16 +1241,284 @@
   <si>
     <t>Adding Admin, User, Platform Test cases.</t>
   </si>
+  <si>
+    <t>Ensure the required fields are present in the form</t>
+  </si>
+  <si>
+    <t>Username, Email, Password, Confirm Password, and Register button are present</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Username" is not empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Email" is not fempty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Password" is not empty</t>
+  </si>
+  <si>
+    <t>TC-REG-14</t>
+  </si>
+  <si>
+    <t>TC-REG-15</t>
+  </si>
+  <si>
+    <t>TC-REG-16</t>
+  </si>
+  <si>
+    <t>TC-REG-17</t>
+  </si>
+  <si>
+    <t>TC-REG-18</t>
+  </si>
+  <si>
+    <t>TC-REG-19</t>
+  </si>
+  <si>
+    <t>TC-REG-20</t>
+  </si>
+  <si>
+    <t>TC-REG-21</t>
+  </si>
+  <si>
+    <t>TC-REG-22</t>
+  </si>
+  <si>
+    <t>Username With Special Characters</t>
+  </si>
+  <si>
+    <t>Verify error for invalid characters in username</t>
+  </si>
+  <si>
+    <t>Username: testUser@
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter a invalid username
+2.Enter a valid email 
+3.Enter a valid Password 
+4.Enter a valid confirm Password 
+5.Click the "Register" button
+</t>
+  </si>
+  <si>
+    <t>Username With Spaces</t>
+  </si>
+  <si>
+    <t>Verify system rejects usernames with spaces</t>
+  </si>
+  <si>
+    <t>Username: te st
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t>Username Less Than 3 Characters</t>
+  </si>
+  <si>
+    <t>Verify error when username is too short</t>
+  </si>
+  <si>
+    <t>Username: te 
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t>Username equal to 3 Characters</t>
+  </si>
+  <si>
+    <t>Verify the minimum username length</t>
+  </si>
+  <si>
+    <t>Username: tes 
+Email: testuser@example.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter a valid username
+2.Enter a valid email 
+3.Enter a valid Password 
+4.Enter a valid confirm Password 
+5.Click the "Register" button
+</t>
+  </si>
+  <si>
+    <t>Password Without Special Characters</t>
+  </si>
+  <si>
+    <t>Username: testuser@
+Email: invalidmail.com
+Password: Test1234!
+Confirm Password: Test1234!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username with a capital letter </t>
+  </si>
+  <si>
+    <t>Verify that a username with a capital letter is accepted</t>
+  </si>
+  <si>
+    <t>Username: TESTUSER 
+Email: testuser@example.com
+Password: Test12345
+Confirm Password: Test12345</t>
+  </si>
+  <si>
+    <t>Password Minimum Length</t>
+  </si>
+  <si>
+    <t>Verify error if password is less than 8 characters</t>
+  </si>
+  <si>
+    <t>Verify error when password has no special characters</t>
+  </si>
+  <si>
+    <t>TC-REG-23</t>
+  </si>
+  <si>
+    <t>Password With Leading Space</t>
+  </si>
+  <si>
+    <t>Verify system handles leading spaces in password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter a valid username
+2.Enter a valid email 
+3.Enter a valid Password  
+4.Enter a valid confirm Password 
+5.Click the "Register" button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system trim the spaces, password accepted 
+User is redirected to the home page
+</t>
+  </si>
+  <si>
+    <t>Password With Trailing Space</t>
+  </si>
+  <si>
+    <t>Verify system handles trailing spaces in password</t>
+  </si>
+  <si>
+    <t>Password With Capital Letters</t>
+  </si>
+  <si>
+    <t>Verify system accepts capital letters in password</t>
+  </si>
+  <si>
+    <t>Username: testuser 
+Email: testuser@example.com
+Password:'test1234@    '
+Confirm Password: 'test1234@   '</t>
+  </si>
+  <si>
+    <t>Username: testuser 
+Email: testuser@example.com
+Password: TEST1234@
+Confirm Password:  TEST1234@</t>
+  </si>
+  <si>
+    <t>Username: testuser 
+Email: testuser@example.com
+Password: test1234@
+Confirm Password:  test1234@</t>
+  </si>
+  <si>
+    <t>Username: testuser 
+Email: testuser@example.com
+Password: test12345
+Confirm Password: test12345</t>
+  </si>
+  <si>
+    <t>Password With Spaces Between Characters</t>
+  </si>
+  <si>
+    <t>Verify error if spaces are inside password</t>
+  </si>
+  <si>
+    <t>Username: testuser 
+Email: testuser@example.com
+Password: test  1234@
+Confirm Password:  test  1234@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter a valid username
+2.Enter a valid email 
+3.Enter a invalid Password  
+4.Enter a invalid confirm Password 
+5.Click the "Register" button
+</t>
+  </si>
+  <si>
+    <t>Verify error when '@' is missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter a valid username
+2.Enter an invalid email 
+3.Enter a valid Password  
+4.Enter a valid confirm Password 
+5.Click the "Register" button
+</t>
+  </si>
+  <si>
+    <t>Email With Capital Letters</t>
+  </si>
+  <si>
+    <t>Verify email is not a case-insensitive</t>
+  </si>
+  <si>
+    <t>Username: testuser 
+Email:TESTUSER@example.com
+Password: test12345
+Confirm Password: test12345</t>
+  </si>
+  <si>
+    <t>Email Without '.'</t>
+  </si>
+  <si>
+    <t>Verify error when ' . ' is missing</t>
+  </si>
+  <si>
+    <t>Username: testuser 
+Email: testuser@examplecom
+Password: test12345
+Confirm Password: test12345</t>
+  </si>
+  <si>
+    <t>Error displays: “Invalid email”</t>
+  </si>
+  <si>
+    <t>V1.4</t>
+  </si>
+  <si>
+    <t>Updating the Registration Test case</t>
+  </si>
+  <si>
+    <t>25-4-2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1365,6 +1573,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1431,7 +1640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1616,38 +1825,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1657,8 +1893,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1667,57 +1903,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1726,83 +1943,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BF83FAB1-248A-43DF-A1E0-EC7F563E7864}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1929,7 +2155,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J47" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J57" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
@@ -2147,11 +2373,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2385,7 @@
     <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="72.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
@@ -2396,7 +2621,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -2564,7 +2789,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="39" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2655,907 +2880,1067 @@
         <v>115</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="G18" s="11" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="26"/>
       <c r="J18" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="D19" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="27"/>
       <c r="J19" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="C20" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="D20" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="G20" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="27"/>
       <c r="J20" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="C21" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="F21" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="G21" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="26"/>
       <c r="J21" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="G22" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="27"/>
       <c r="J22" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="26"/>
       <c r="J23" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="G24" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="26"/>
       <c r="J24" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="17" t="s">
+    </row>
+    <row r="26" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="B26" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="11" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="14" t="s">
+      <c r="B27" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="C40" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B41" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C41" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="D41" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="E41" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="F41" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="14" t="s">
+      <c r="G41" s="62" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="37" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="B42" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="39" t="s">
+      <c r="C42" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="D42" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="E42" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="F42" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="G42" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="30" t="s">
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="57" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+    </row>
+    <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="48"/>
+    </row>
+    <row r="44" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B44" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="49" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="B45" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="B46" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="B47" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="B48" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="G32" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="57" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="58"/>
-    </row>
-    <row r="34" spans="1:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="51" t="s">
+      <c r="B49" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="D34" s="55" t="s">
+      <c r="B50" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="59" t="s">
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="58" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="51" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="D37" s="55" t="s">
+      <c r="B54" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="59" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>255</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="59" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="59" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="G41" s="52" t="s">
+      <c r="D54" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="F54" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="D42" s="53" t="s">
+      <c r="G54" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="F43" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="G43" s="62" t="s">
-        <v>296</v>
-      </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="68" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="G44" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="D46" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
+      <c r="J54" s="7" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>293</v>
+      </c>
       <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="F55" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>288</v>
+      </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
+      <c r="J55" s="7" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>291</v>
+      </c>
       <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="F56" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="H56" s="16"/>
       <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
+      <c r="J56" s="7" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
@@ -3563,11 +3948,11 @@
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -3578,8 +3963,8 @@
       <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
@@ -3854,124 +4239,124 @@
       <c r="J81" s="16"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
@@ -5713,8 +6098,128 @@
       <c r="I236" s="11"/>
       <c r="J236" s="11"/>
     </row>
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+    </row>
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="11"/>
+    </row>
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="11"/>
+    </row>
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="11"/>
+      <c r="J240" s="11"/>
+    </row>
+    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="11"/>
+      <c r="J241" s="11"/>
+    </row>
+    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+    </row>
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="11"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="11"/>
+    </row>
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="11"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="11"/>
+      <c r="J244" s="11"/>
+    </row>
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="11"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+    </row>
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="11"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11"/>
+      <c r="J246" s="11"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5727,78 +6232,86 @@
   <dimension ref="A4:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>320</v>
+        <v>299</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>301</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -5891,7 +6404,7 @@
       <c r="D23" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC85C19-470C-4B5F-A67E-FCBACAEA033B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F7C32-36E3-449F-9EF4-E960D897370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="368">
   <si>
     <t>TC-ID</t>
   </si>
@@ -1248,15 +1248,6 @@
     <t>Username, Email, Password, Confirm Password, and Register button are present</t>
   </si>
   <si>
-    <t>Ensure the system displays an error if "Username" is not empty</t>
-  </si>
-  <si>
-    <t>Ensure the system displays an error if "Email" is not fempty</t>
-  </si>
-  <si>
-    <t>Ensure the system displays an error if "Password" is not empty</t>
-  </si>
-  <si>
     <t>TC-REG-14</t>
   </si>
   <si>
@@ -1501,6 +1492,18 @@
   </si>
   <si>
     <t>25-4-2025</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Username" is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Email" is empty</t>
+  </si>
+  <si>
+    <t>Ensure the system displays an error if "Password" is empty</t>
+  </si>
+  <si>
+    <t>V1.5</t>
   </si>
 </sst>
 </file>
@@ -2375,14 +2378,14 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
@@ -2964,7 +2967,7 @@
         <v>134</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>135</v>
@@ -2992,7 +2995,7 @@
         <v>141</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>135</v>
@@ -3020,7 +3023,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>135</v>
@@ -3101,19 +3104,19 @@
         <v>164</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>165</v>
@@ -3129,19 +3132,19 @@
         <v>167</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>165</v>
@@ -3157,19 +3160,19 @@
         <v>169</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C28" s="65" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>165</v>
@@ -3185,19 +3188,19 @@
         <v>173</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D29" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>131</v>
@@ -3213,19 +3216,19 @@
         <v>176</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D30" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>131</v>
@@ -3238,19 +3241,19 @@
     </row>
     <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>170</v>
@@ -3266,13 +3269,13 @@
     </row>
     <row r="32" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>160</v>
@@ -3294,7 +3297,7 @@
     </row>
     <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>177</v>
@@ -3322,25 +3325,25 @@
     </row>
     <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C34" s="65" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3350,25 +3353,25 @@
     </row>
     <row r="35" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3378,22 +3381,22 @@
     </row>
     <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>131</v>
@@ -3406,22 +3409,22 @@
     </row>
     <row r="37" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>171</v>
@@ -3434,22 +3437,22 @@
     </row>
     <row r="38" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C38" s="65" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>131</v>
@@ -3462,25 +3465,25 @@
     </row>
     <row r="39" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C39" s="65" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3490,25 +3493,25 @@
     </row>
     <row r="40" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>168</v>
       </c>
       <c r="C40" s="65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H40" s="64"/>
       <c r="I40" s="64"/>
@@ -6231,8 +6234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9365B4-989A-4710-8762-08F1179BCA67}">
   <dimension ref="A4:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6301,23 +6304,31 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>208</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F7C32-36E3-449F-9EF4-E960D897370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9D521-4212-4FF2-A807-07837E00F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="406">
   <si>
     <t>TC-ID</t>
   </si>
@@ -623,9 +623,6 @@
 Your password must be at least 8 characters long and include at least one special character (e.g., ! @ # $ %)."</t>
   </si>
   <si>
-    <t>SRS-REG-11</t>
-  </si>
-  <si>
     <t>TC-REG-12</t>
   </si>
   <si>
@@ -654,33 +651,7 @@
     <t>Displays: 'Passwords do not match'</t>
   </si>
   <si>
-    <t>SRS-REG-12</t>
-  </si>
-  <si>
     <t>TC-Rate-01</t>
-  </si>
-  <si>
-    <t>Validate 5-star rating system with comments</t>
-  </si>
-  <si>
-    <t>Ensure that users can rate using a 5-star system, leave optional comments, and that ratings are visible in their history.</t>
-  </si>
-  <si>
-    <t>User is logged into the application and has access to the rating feature.</t>
-  </si>
-  <si>
-    <t>Rating: 4 stars
-Comment: "Great experience!"</t>
-  </si>
-  <si>
-    <t>1. Navigate to the item to be rated.
-2. Select a 4-star rating.
-3. Enter the comment "Great experience!".
-4. Submit the rating.
-5. Navigate to the user history page.</t>
-  </si>
-  <si>
-    <t>The rating and comment are submitted successfully and are visible in the user's history.</t>
   </si>
   <si>
     <t>SRS-Rate-01</t>
@@ -1504,6 +1475,155 @@
   </si>
   <si>
     <t>V1.5</t>
+  </si>
+  <si>
+    <t>Display interactive stars</t>
+  </si>
+  <si>
+    <t>Verify that the system displays 5 interactive stars for rating.</t>
+  </si>
+  <si>
+    <t>User is on the rating screen</t>
+  </si>
+  <si>
+    <t>Rating: 1 to 5 stars</t>
+  </si>
+  <si>
+    <t>1. Navigate to the destination page
+2. Observe star display</t>
+  </si>
+  <si>
+    <t>Five interactive stars are visible and selectable</t>
+  </si>
+  <si>
+    <t>TC-Rate-02</t>
+  </si>
+  <si>
+    <t>Optional comment box</t>
+  </si>
+  <si>
+    <t>Verify that the user can optionally enter a comment.</t>
+  </si>
+  <si>
+    <t>Comment: 'Great service!' (optional)</t>
+  </si>
+  <si>
+    <t>1. Navigate to the destination page
+2. Enter comment in box</t>
+  </si>
+  <si>
+    <t>Comment box is visible and allows text input</t>
+  </si>
+  <si>
+    <t>SRS-Rate-02</t>
+  </si>
+  <si>
+    <t>TC-Rate-03</t>
+  </si>
+  <si>
+    <t>Validate star selection</t>
+  </si>
+  <si>
+    <t>Verify that submission is blocked if no star is selected.</t>
+  </si>
+  <si>
+    <t>No star selected</t>
+  </si>
+  <si>
+    <t>1. Navigate to the destination page
+2. Leave stars unselected
+3. Click submit</t>
+  </si>
+  <si>
+    <t>system display an error message (e.g., "Please select at least one star to submit your rating.")</t>
+  </si>
+  <si>
+    <t>SRS-Rate-03</t>
+  </si>
+  <si>
+    <t>TC-Rate-04</t>
+  </si>
+  <si>
+    <t>Display past ratings/comments</t>
+  </si>
+  <si>
+    <t>Verify past ratings and comments are shown in the history page.</t>
+  </si>
+  <si>
+    <t>User has submitted past ratings/comments</t>
+  </si>
+  <si>
+    <t>User history available</t>
+  </si>
+  <si>
+    <t>1. Go to user profile/history
+2. Check ratings/comments section</t>
+  </si>
+  <si>
+    <t>Past ratings and comments are displayed correctly</t>
+  </si>
+  <si>
+    <t>SRS-Rate-04</t>
+  </si>
+  <si>
+    <t>TC-Rate-05</t>
+  </si>
+  <si>
+    <t>Authenticated user submission</t>
+  </si>
+  <si>
+    <t>Verify only authenticated users can submit ratings/comments.</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>1. Log in
+2. Navigate to the destination page
+3. Submit rating/comment</t>
+  </si>
+  <si>
+    <t>Only authenticated users can submit ratings/comments</t>
+  </si>
+  <si>
+    <t>SRS-Rate-05</t>
+  </si>
+  <si>
+    <t>TC-Rate-06</t>
+  </si>
+  <si>
+    <t>Unauthorized rating attempt</t>
+  </si>
+  <si>
+    <t>Verify that an unauthorized user cannot submit ratings/comments</t>
+  </si>
+  <si>
+    <t>User is not logged in</t>
+  </si>
+  <si>
+    <t>1. Do not log in
+2. Navigate to the destination page
+3. Try submitting a rating/comment</t>
+  </si>
+  <si>
+    <t>System prevents submission and displays 'Unauthorized: Please log in to rate/comment.'</t>
+  </si>
+  <si>
+    <t>Valid user credentials
+Email: user@example.com, Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>Rating: 4 stars
+Comment: 'Nice service'</t>
+  </si>
+  <si>
+    <t>V1.6</t>
+  </si>
+  <si>
+    <t>Adding the rate feature test cas</t>
+  </si>
+  <si>
+    <t>SRS-REG-10</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1639,6 +1759,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,7 +1985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1934,9 +2060,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1977,9 +2100,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2018,15 +2138,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2158,7 +2281,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J57" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J62" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
@@ -2376,10 +2499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J246"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2513,7 @@
     <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="14.109375" customWidth="1"/>
@@ -2792,7 +2915,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2883,7 +3006,7 @@
         <v>115</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>116</v>
@@ -2895,7 +3018,7 @@
         <v>118</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="26"/>
@@ -2967,7 +3090,7 @@
         <v>134</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>135</v>
@@ -2995,7 +3118,7 @@
         <v>141</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>135</v>
@@ -3023,7 +3146,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>135</v>
@@ -3075,27 +3198,27 @@
       <c r="A25" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36" t="s">
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3104,25 +3227,25 @@
         <v>164</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>314</v>
+        <v>305</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>306</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="14" t="s">
         <v>166</v>
       </c>
@@ -3131,26 +3254,26 @@
       <c r="A27" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="D27" s="65" t="s">
+      <c r="B27" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="62" t="s">
         <v>160</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="14" t="s">
         <v>156</v>
       </c>
@@ -3159,101 +3282,101 @@
       <c r="A28" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="65" t="s">
-        <v>320</v>
-      </c>
-      <c r="C28" s="65" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" s="65" t="s">
+      <c r="B28" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="62" t="s">
         <v>160</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="65" t="s">
-        <v>324</v>
-      </c>
-      <c r="D29" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="62" t="s">
         <v>160</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" s="62" t="s">
         <v>160</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>334</v>
+        <v>296</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>326</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>170</v>
@@ -3261,89 +3384,89 @@
       <c r="G31" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="C32" s="65" t="s">
-        <v>333</v>
+        <v>297</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>325</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B33" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E33" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="G33" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="14" t="s">
-        <v>182</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>337</v>
+        <v>299</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>329</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3353,25 +3476,25 @@
     </row>
     <row r="35" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>341</v>
+        <v>300</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>333</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3381,22 +3504,22 @@
     </row>
     <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>342</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>343</v>
+        <v>301</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>335</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>131</v>
@@ -3409,22 +3532,22 @@
     </row>
     <row r="37" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>349</v>
+        <v>302</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>341</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>171</v>
@@ -3437,22 +3560,22 @@
     </row>
     <row r="38" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>355</v>
+        <v>303</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>347</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>131</v>
@@ -3465,25 +3588,25 @@
     </row>
     <row r="39" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>358</v>
+        <v>304</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>350</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3493,517 +3616,597 @@
     </row>
     <row r="40" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="65" t="s">
-        <v>352</v>
+      <c r="C40" s="62" t="s">
+        <v>344</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
+        <v>352</v>
+      </c>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
       <c r="J40" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B47" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C47" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="D41" s="61" t="s">
+      <c r="D47" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="61" t="s">
+      <c r="E47" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="62" t="s">
+      <c r="F47" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="62" t="s">
+      <c r="G47" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="63" t="s">
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="60" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="48"/>
-    </row>
-    <row r="44" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="46"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="49" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="D50" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="F50" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="49" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="G50" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="E49" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="G49" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="49" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="44" t="s">
-        <v>248</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="49" t="s">
+      <c r="J50" s="47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="43" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
+      <c r="D56" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G56" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="B57" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="56" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="G52" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" s="44" t="s">
+      <c r="B59" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="D53" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="E53" s="53" t="s">
+      <c r="F59" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="G59" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="G53" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="58" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>278</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F54" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="D56" s="54" t="s">
-        <v>291</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="3"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
+      <c r="J59" s="7" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>285</v>
+      </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
+      <c r="F60" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>280</v>
+      </c>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
+      <c r="J60" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>283</v>
+      </c>
       <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
+      <c r="F61" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>286</v>
+      </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
+      <c r="J61" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -4011,11 +4214,11 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
@@ -4026,8 +4229,8 @@
       <c r="J63" s="16"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
@@ -4362,64 +4565,64 @@
       <c r="J91" s="16"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
@@ -6220,6 +6423,66 @@
       <c r="H246" s="11"/>
       <c r="I246" s="11"/>
       <c r="J246" s="11"/>
+    </row>
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11"/>
+      <c r="J247" s="11"/>
+    </row>
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="11"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
+      <c r="J248" s="11"/>
+    </row>
+    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="11"/>
+      <c r="J249" s="11"/>
+    </row>
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="11"/>
+      <c r="J250" s="11"/>
+    </row>
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="11"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="11"/>
+      <c r="J251" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6235,7 +6498,7 @@
   <dimension ref="A4:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6248,93 +6511,101 @@
   <sheetData>
     <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>301</v>
+        <v>291</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>293</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9D521-4212-4FF2-A807-07837E00F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F7C32-36E3-449F-9EF4-E960D897370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="368">
   <si>
     <t>TC-ID</t>
   </si>
@@ -623,6 +623,9 @@
 Your password must be at least 8 characters long and include at least one special character (e.g., ! @ # $ %)."</t>
   </si>
   <si>
+    <t>SRS-REG-11</t>
+  </si>
+  <si>
     <t>TC-REG-12</t>
   </si>
   <si>
@@ -651,7 +654,33 @@
     <t>Displays: 'Passwords do not match'</t>
   </si>
   <si>
+    <t>SRS-REG-12</t>
+  </si>
+  <si>
     <t>TC-Rate-01</t>
+  </si>
+  <si>
+    <t>Validate 5-star rating system with comments</t>
+  </si>
+  <si>
+    <t>Ensure that users can rate using a 5-star system, leave optional comments, and that ratings are visible in their history.</t>
+  </si>
+  <si>
+    <t>User is logged into the application and has access to the rating feature.</t>
+  </si>
+  <si>
+    <t>Rating: 4 stars
+Comment: "Great experience!"</t>
+  </si>
+  <si>
+    <t>1. Navigate to the item to be rated.
+2. Select a 4-star rating.
+3. Enter the comment "Great experience!".
+4. Submit the rating.
+5. Navigate to the user history page.</t>
+  </si>
+  <si>
+    <t>The rating and comment are submitted successfully and are visible in the user's history.</t>
   </si>
   <si>
     <t>SRS-Rate-01</t>
@@ -1475,155 +1504,6 @@
   </si>
   <si>
     <t>V1.5</t>
-  </si>
-  <si>
-    <t>Display interactive stars</t>
-  </si>
-  <si>
-    <t>Verify that the system displays 5 interactive stars for rating.</t>
-  </si>
-  <si>
-    <t>User is on the rating screen</t>
-  </si>
-  <si>
-    <t>Rating: 1 to 5 stars</t>
-  </si>
-  <si>
-    <t>1. Navigate to the destination page
-2. Observe star display</t>
-  </si>
-  <si>
-    <t>Five interactive stars are visible and selectable</t>
-  </si>
-  <si>
-    <t>TC-Rate-02</t>
-  </si>
-  <si>
-    <t>Optional comment box</t>
-  </si>
-  <si>
-    <t>Verify that the user can optionally enter a comment.</t>
-  </si>
-  <si>
-    <t>Comment: 'Great service!' (optional)</t>
-  </si>
-  <si>
-    <t>1. Navigate to the destination page
-2. Enter comment in box</t>
-  </si>
-  <si>
-    <t>Comment box is visible and allows text input</t>
-  </si>
-  <si>
-    <t>SRS-Rate-02</t>
-  </si>
-  <si>
-    <t>TC-Rate-03</t>
-  </si>
-  <si>
-    <t>Validate star selection</t>
-  </si>
-  <si>
-    <t>Verify that submission is blocked if no star is selected.</t>
-  </si>
-  <si>
-    <t>No star selected</t>
-  </si>
-  <si>
-    <t>1. Navigate to the destination page
-2. Leave stars unselected
-3. Click submit</t>
-  </si>
-  <si>
-    <t>system display an error message (e.g., "Please select at least one star to submit your rating.")</t>
-  </si>
-  <si>
-    <t>SRS-Rate-03</t>
-  </si>
-  <si>
-    <t>TC-Rate-04</t>
-  </si>
-  <si>
-    <t>Display past ratings/comments</t>
-  </si>
-  <si>
-    <t>Verify past ratings and comments are shown in the history page.</t>
-  </si>
-  <si>
-    <t>User has submitted past ratings/comments</t>
-  </si>
-  <si>
-    <t>User history available</t>
-  </si>
-  <si>
-    <t>1. Go to user profile/history
-2. Check ratings/comments section</t>
-  </si>
-  <si>
-    <t>Past ratings and comments are displayed correctly</t>
-  </si>
-  <si>
-    <t>SRS-Rate-04</t>
-  </si>
-  <si>
-    <t>TC-Rate-05</t>
-  </si>
-  <si>
-    <t>Authenticated user submission</t>
-  </si>
-  <si>
-    <t>Verify only authenticated users can submit ratings/comments.</t>
-  </si>
-  <si>
-    <t>User is logged in</t>
-  </si>
-  <si>
-    <t>1. Log in
-2. Navigate to the destination page
-3. Submit rating/comment</t>
-  </si>
-  <si>
-    <t>Only authenticated users can submit ratings/comments</t>
-  </si>
-  <si>
-    <t>SRS-Rate-05</t>
-  </si>
-  <si>
-    <t>TC-Rate-06</t>
-  </si>
-  <si>
-    <t>Unauthorized rating attempt</t>
-  </si>
-  <si>
-    <t>Verify that an unauthorized user cannot submit ratings/comments</t>
-  </si>
-  <si>
-    <t>User is not logged in</t>
-  </si>
-  <si>
-    <t>1. Do not log in
-2. Navigate to the destination page
-3. Try submitting a rating/comment</t>
-  </si>
-  <si>
-    <t>System prevents submission and displays 'Unauthorized: Please log in to rate/comment.'</t>
-  </si>
-  <si>
-    <t>Valid user credentials
-Email: user@example.com, Password: CorrectPass123</t>
-  </si>
-  <si>
-    <t>Rating: 4 stars
-Comment: 'Nice service'</t>
-  </si>
-  <si>
-    <t>V1.6</t>
-  </si>
-  <si>
-    <t>Adding the rate feature test cas</t>
-  </si>
-  <si>
-    <t>SRS-REG-10</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1759,12 +1639,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,7 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2060,6 +1934,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2100,6 +1977,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2138,18 +2018,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2281,7 +2158,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J62" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J57" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
@@ -2499,10 +2376,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2513,7 +2390,7 @@
     <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="14.109375" customWidth="1"/>
@@ -2915,7 +2792,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3006,7 +2883,7 @@
         <v>115</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>116</v>
@@ -3018,7 +2895,7 @@
         <v>118</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="26"/>
@@ -3090,7 +2967,7 @@
         <v>134</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>135</v>
@@ -3118,7 +2995,7 @@
         <v>141</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>135</v>
@@ -3146,7 +3023,7 @@
         <v>146</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>135</v>
@@ -3198,27 +3075,27 @@
       <c r="A25" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35" t="s">
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3227,25 +3104,25 @@
         <v>164</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>306</v>
+        <v>313</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>314</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="14" t="s">
         <v>166</v>
       </c>
@@ -3254,26 +3131,26 @@
       <c r="A27" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="D27" s="62" t="s">
+      <c r="B27" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="14" t="s">
         <v>156</v>
       </c>
@@ -3282,101 +3159,101 @@
       <c r="A28" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="62" t="s">
+      <c r="B28" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>322</v>
-      </c>
-      <c r="D30" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="65" t="s">
         <v>160</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
       <c r="J30" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>334</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>170</v>
@@ -3384,89 +3261,89 @@
       <c r="G31" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
       <c r="J31" s="14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>324</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>325</v>
+        <v>305</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
+        <v>181</v>
+      </c>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="14" t="s">
-        <v>405</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>329</v>
+        <v>307</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>337</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E34" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>330</v>
-      </c>
       <c r="G34" s="18" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3476,25 +3353,25 @@
     </row>
     <row r="35" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>333</v>
+        <v>308</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>341</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3504,22 +3381,22 @@
     </row>
     <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>335</v>
+        <v>309</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>343</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>131</v>
@@ -3532,22 +3409,22 @@
     </row>
     <row r="37" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>341</v>
+        <v>310</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>349</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>171</v>
@@ -3560,22 +3437,22 @@
     </row>
     <row r="38" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>347</v>
+        <v>311</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>355</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>131</v>
@@ -3588,25 +3465,25 @@
     </row>
     <row r="39" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>350</v>
+        <v>312</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>358</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3616,597 +3493,517 @@
     </row>
     <row r="40" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="62" t="s">
-        <v>344</v>
+      <c r="C40" s="65" t="s">
+        <v>352</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
+        <v>360</v>
+      </c>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
       <c r="J40" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="63" t="s">
-        <v>380</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
-        <v>388</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="E45" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
+    <row r="41" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B41" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C41" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D41" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E41" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="59" t="s">
+      <c r="F41" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="G47" s="59" t="s">
+      <c r="G41" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="60" t="s">
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="63" t="s">
         <v>190</v>
       </c>
     </row>
+    <row r="42" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="48"/>
+    </row>
+    <row r="44" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="49" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="49" t="s">
+        <v>254</v>
+      </c>
+    </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="46"/>
+      <c r="A48" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="49" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="47" t="s">
+      <c r="A49" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="44" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>213</v>
+      <c r="D50" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>248</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="47" t="s">
-        <v>244</v>
+      <c r="J50" s="49" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>217</v>
+      <c r="A51" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>257</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>223</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="E51" s="28"/>
       <c r="F51" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="47" t="s">
-        <v>245</v>
+        <v>266</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>220</v>
+      <c r="A52" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>257</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="E52" s="28"/>
+        <v>265</v>
+      </c>
+      <c r="E52" s="40"/>
       <c r="F52" s="44" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="G52" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="47" t="s">
-        <v>246</v>
+        <v>268</v>
+      </c>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="7" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="47" t="s">
-        <v>242</v>
+      <c r="A53" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="58" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="F54" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="G54" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="47" t="s">
-        <v>242</v>
+      <c r="A54" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="47" t="s">
-        <v>241</v>
+      <c r="A55" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="A56" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
       <c r="J56" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="G57" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="7" t="s">
-        <v>287</v>
-      </c>
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B58" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="G58" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="56" t="s">
-        <v>288</v>
-      </c>
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="F59" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="G59" s="50" t="s">
-        <v>276</v>
-      </c>
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
-      <c r="J59" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="J59" s="16"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="B60" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>285</v>
-      </c>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="16"/>
-      <c r="F60" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>280</v>
-      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>283</v>
-      </c>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>286</v>
-      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
-      <c r="J61" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="J61" s="16"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="55"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -4214,11 +4011,11 @@
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
@@ -4229,8 +4026,8 @@
       <c r="J63" s="16"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
@@ -4565,64 +4362,64 @@
       <c r="J91" s="16"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
@@ -6423,66 +6220,6 @@
       <c r="H246" s="11"/>
       <c r="I246" s="11"/>
       <c r="J246" s="11"/>
-    </row>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
-      <c r="H247" s="11"/>
-      <c r="I247" s="11"/>
-      <c r="J247" s="11"/>
-    </row>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
-      <c r="F248" s="11"/>
-      <c r="G248" s="11"/>
-      <c r="H248" s="11"/>
-      <c r="I248" s="11"/>
-      <c r="J248" s="11"/>
-    </row>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
-      <c r="H249" s="11"/>
-      <c r="I249" s="11"/>
-      <c r="J249" s="11"/>
-    </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
-      <c r="H250" s="11"/>
-      <c r="I250" s="11"/>
-      <c r="J250" s="11"/>
-    </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
-      <c r="H251" s="11"/>
-      <c r="I251" s="11"/>
-      <c r="J251" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -6498,7 +6235,7 @@
   <dimension ref="A4:D23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6511,101 +6248,93 @@
   <sheetData>
     <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>293</v>
+        <v>299</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>301</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>355</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E9D521-4212-4FF2-A807-07837E00F778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5467766A-61C5-4C9E-B676-11BF31DEA815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="439">
   <si>
     <t>TC-ID</t>
   </si>
@@ -1624,6 +1624,111 @@
   </si>
   <si>
     <t>SRS-REG-10</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-01</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-02</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-03</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-04</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-05</t>
+  </si>
+  <si>
+    <t>TC-Gallery-03</t>
+  </si>
+  <si>
+    <t>gallery on home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the gallery exists on home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.implemented gallery functionality 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.navigate to home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user shall see gallery on home page </t>
+  </si>
+  <si>
+    <t>TC-Gallery-01</t>
+  </si>
+  <si>
+    <t>TC-Gallery-02</t>
+  </si>
+  <si>
+    <t>TC-Gallery-04</t>
+  </si>
+  <si>
+    <t>TC-Gallery-05</t>
+  </si>
+  <si>
+    <t>TC-Gallery-06</t>
+  </si>
+  <si>
+    <t>gallery images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user shall see gallery on home page with images of the top 3 travel destinations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the gallery shows the top 3 travel destinations images on home page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallery images labels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the gallery shows the top 3 travel destinations images and include a label with the destination name. </t>
+  </si>
+  <si>
+    <t>user shall see gallery on home page with images of the top 3 travel destinations that include a label with the destination name.</t>
+  </si>
+  <si>
+    <t>gallery images alt text</t>
+  </si>
+  <si>
+    <t>verify that the gallery images has alt text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.implemented gallery functionality 
+2.browser with inspect functionality </t>
+  </si>
+  <si>
+    <t>1.navigate to home page 
+2.right click on the page then inspect
+3. check that images has alt attribute in the img tag</t>
+  </si>
+  <si>
+    <t>user shall see the same text on the alt attribute when he hover over the image on the gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallery responsivness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the gallery adjust images sizes on mutiple screen sizes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigate to gallery page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user shall see images adapt to screen resolution without overlapping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen resolution set at 720p
+gallery functionality implemented </t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen resolution set at 1080p
+gallery functionality implemented </t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2386,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J62" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J68" headerRowDxfId="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title"/>
@@ -2499,10 +2604,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3850,7 +3955,7 @@
       <c r="I48" s="36"/>
       <c r="J48" s="46"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>202</v>
       </c>
@@ -4216,77 +4321,161 @@
       <c r="I62" s="16"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
+    <row r="63" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="31"/>
+      <c r="F63" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="56" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="B64" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>414</v>
+      </c>
       <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
+      <c r="F64" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>423</v>
+      </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="J64" s="56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="B65" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>414</v>
+      </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+      <c r="F65" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="G65" s="51" t="s">
+        <v>427</v>
+      </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="J65" s="56" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>430</v>
+      </c>
       <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="F66" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>432</v>
+      </c>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
+      <c r="J66" s="56" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+      <c r="A67" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>437</v>
+      </c>
       <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
+      <c r="F67" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
+      <c r="J67" s="56" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
+      <c r="A68" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>438</v>
+      </c>
       <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
+      <c r="F68" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>436</v>
+      </c>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
+      <c r="J68" s="56" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
@@ -4601,28 +4790,28 @@
       <c r="J94" s="16"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
@@ -6459,30 +6648,6 @@
       <c r="H249" s="11"/>
       <c r="I249" s="11"/>
       <c r="J249" s="11"/>
-    </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
-      <c r="H250" s="11"/>
-      <c r="I250" s="11"/>
-      <c r="J250" s="11"/>
-    </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
-      <c r="H251" s="11"/>
-      <c r="I251" s="11"/>
-      <c r="J251" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5467766A-61C5-4C9E-B676-11BF31DEA815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DE7612-CBED-48DC-A78A-65EF6272B901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="442">
   <si>
     <t>TC-ID</t>
   </si>
@@ -1489,10 +1489,6 @@
     <t>Rating: 1 to 5 stars</t>
   </si>
   <si>
-    <t>1. Navigate to the destination page
-2. Observe star display</t>
-  </si>
-  <si>
     <t>Five interactive stars are visible and selectable</t>
   </si>
   <si>
@@ -1508,10 +1504,6 @@
     <t>Comment: 'Great service!' (optional)</t>
   </si>
   <si>
-    <t>1. Navigate to the destination page
-2. Enter comment in box</t>
-  </si>
-  <si>
     <t>Comment box is visible and allows text input</t>
   </si>
   <si>
@@ -1530,14 +1522,6 @@
     <t>No star selected</t>
   </si>
   <si>
-    <t>1. Navigate to the destination page
-2. Leave stars unselected
-3. Click submit</t>
-  </si>
-  <si>
-    <t>system display an error message (e.g., "Please select at least one star to submit your rating.")</t>
-  </si>
-  <si>
     <t>SRS-Rate-03</t>
   </si>
   <si>
@@ -1545,9 +1529,6 @@
   </si>
   <si>
     <t>Display past ratings/comments</t>
-  </si>
-  <si>
-    <t>Verify past ratings and comments are shown in the history page.</t>
   </si>
   <si>
     <t>User has submitted past ratings/comments</t>
@@ -1729,6 +1710,34 @@
   <si>
     <t xml:space="preserve">screen resolution set at 1080p
 gallery functionality implemented </t>
+  </si>
+  <si>
+    <t>1. Navigate to the Rate page
+2. Observe star display</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Rate page
+2. Enter comment in box</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Rate page
+2. Leave stars unselected
+3. Click submit</t>
+  </si>
+  <si>
+    <t>Submit button is disable</t>
+  </si>
+  <si>
+    <t>Verify past ratings and comments are shown in the Gallery page.</t>
+  </si>
+  <si>
+    <t>User mange to submit the rate</t>
+  </si>
+  <si>
+    <t>User redirect to Login page</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1827,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1870,6 +1879,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2090,7 +2105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2255,6 +2270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2606,8 +2624,8 @@
   </sheetPr>
   <dimension ref="A1:J249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:I67"/>
+    <sheetView tabSelected="1" topLeftCell="D39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3548,7 +3566,7 @@
       <c r="H33" s="61"/>
       <c r="I33" s="61"/>
       <c r="J33" s="14" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
@@ -3764,155 +3782,179 @@
         <v>363</v>
       </c>
       <c r="F41" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I41" s="65" t="s">
+        <v>435</v>
+      </c>
       <c r="J41" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>362</v>
       </c>
       <c r="E42" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G42" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="H42" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I42" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>373</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>375</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>362</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+        <v>438</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I43" s="65" t="s">
+        <v>435</v>
+      </c>
       <c r="J43" s="11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="G44" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="H44" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="I44" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="H45" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="I45" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="E45" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I46" s="65" t="s">
+        <v>435</v>
+      </c>
       <c r="J46" s="11" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -4323,158 +4365,158 @@
     </row>
     <row r="63" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="50" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G63" s="50" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
       <c r="J63" s="56" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="50" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G64" s="50" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
       <c r="J64" s="56" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B65" s="55" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="50" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G65" s="51" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
       <c r="J65" s="56" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="51" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="56" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="51" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="56" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B68" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="D68" s="53" t="s">
         <v>433</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>434</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>438</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="51" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
       <c r="J68" s="56" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6760,13 +6802,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>355</v>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053C0F4-9D5C-484C-8FEA-DAECCE07EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E6EEB4-9297-4D7A-9627-840EA27C3425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="599">
   <si>
     <t>Title</t>
   </si>
@@ -1535,9 +1535,6 @@
     <t xml:space="preserve">
 Email: testuser@example.com
 Password: Test1234!</t>
-  </si>
-  <si>
-    <t>system should redirect the user to the home page upon successful login</t>
   </si>
   <si>
     <t>SRS-User-02</t>
@@ -1681,12 +1678,6 @@
     <t>TC-User-07</t>
   </si>
   <si>
-    <t>user's unique ID</t>
-  </si>
-  <si>
-    <t>verify the system gives a unique ID incrementally for each user made.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1729,9 +1720,6 @@
 4.add user B's data</t>
   </si>
   <si>
-    <t>user B's ID should be incremented by 1 of user A's ID</t>
-  </si>
-  <si>
     <t>SRS-User-06</t>
   </si>
   <si>
@@ -2222,6 +2210,33 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>system should show "registration successful" message and redirect the user to the login  page</t>
+  </si>
+  <si>
+    <t>system should redirect the user to the gallery page upon successful login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user's receives a response wether it's a successful booking </t>
+  </si>
+  <si>
+    <t>The user is logged out and redirected to the login page. The session is cleared.</t>
+  </si>
+  <si>
+    <t>app page successfully loaded</t>
+  </si>
+  <si>
+    <t>Unique Hash ID Generation for Different Users</t>
+  </si>
+  <si>
+    <t>Ensure unique hash IDs are generated for different users</t>
+  </si>
+  <si>
+    <t>The hash ID for User B must not equal the hash ID for User A</t>
+  </si>
+  <si>
+    <t>The hash ID for User B is not equal the hash ID for User A</t>
   </si>
 </sst>
 </file>
@@ -2332,18 +2347,12 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2354,12 +2363,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2377,20 +2380,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2457,6 +2448,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2707,15 +2710,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2724,381 +2727,349 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3452,9 +3423,9 @@
   </sheetPr>
   <dimension ref="A1:EE265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3474,7 +3445,7 @@
   <sheetData>
     <row r="1" spans="1:135" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3503,3090 +3474,3168 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:135" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="53" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="I4" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>588</v>
+      </c>
+      <c r="I5" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>576</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="I8" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>578</v>
       </c>
-      <c r="F2" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="78" t="s">
+      <c r="G9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="138" t="s">
+      <c r="I9" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="78" t="s">
+      <c r="J9" s="53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="78" t="s">
+      <c r="E10" s="53" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>579</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:135" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>582</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:135" s="12" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="115" t="s">
+        <v>587</v>
+      </c>
+      <c r="F13" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>577</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>584</v>
+      </c>
+      <c r="I13" s="134" t="s">
+        <v>225</v>
+      </c>
+      <c r="J13" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="135"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="136"/>
+      <c r="T13" s="136"/>
+      <c r="U13" s="136"/>
+      <c r="V13" s="136"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="136"/>
+      <c r="AC13" s="136"/>
+      <c r="AD13" s="136"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="136"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="136"/>
+      <c r="AJ13" s="136"/>
+      <c r="AK13" s="136"/>
+      <c r="AL13" s="136"/>
+      <c r="AM13" s="136"/>
+      <c r="AN13" s="136"/>
+      <c r="AO13" s="136"/>
+      <c r="AP13" s="136"/>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="136"/>
+      <c r="AT13" s="136"/>
+      <c r="AU13" s="136"/>
+      <c r="AV13" s="136"/>
+      <c r="AW13" s="136"/>
+      <c r="AX13" s="136"/>
+      <c r="AY13" s="136"/>
+      <c r="AZ13" s="136"/>
+      <c r="BA13" s="136"/>
+      <c r="BB13" s="136"/>
+      <c r="BC13" s="136"/>
+      <c r="BD13" s="136"/>
+      <c r="BE13" s="136"/>
+      <c r="BF13" s="136"/>
+      <c r="BG13" s="136"/>
+      <c r="BH13" s="136"/>
+      <c r="BI13" s="136"/>
+      <c r="BJ13" s="136"/>
+      <c r="BK13" s="136"/>
+      <c r="BL13" s="136"/>
+      <c r="BM13" s="136"/>
+      <c r="BN13" s="136"/>
+      <c r="BO13" s="136"/>
+      <c r="BP13" s="136"/>
+      <c r="BQ13" s="136"/>
+      <c r="BR13" s="136"/>
+      <c r="BS13" s="136"/>
+      <c r="BT13" s="136"/>
+      <c r="BU13" s="136"/>
+      <c r="BV13" s="136"/>
+      <c r="BW13" s="136"/>
+      <c r="BX13" s="136"/>
+      <c r="BY13" s="136"/>
+      <c r="BZ13" s="136"/>
+      <c r="CA13" s="136"/>
+      <c r="CB13" s="136"/>
+      <c r="CC13" s="136"/>
+      <c r="CD13" s="136"/>
+      <c r="CE13" s="136"/>
+      <c r="CF13" s="136"/>
+      <c r="CG13" s="136"/>
+      <c r="CH13" s="136"/>
+      <c r="CI13" s="136"/>
+      <c r="CJ13" s="136"/>
+      <c r="CK13" s="136"/>
+      <c r="CL13" s="136"/>
+      <c r="CM13" s="136"/>
+      <c r="CN13" s="136"/>
+      <c r="CO13" s="136"/>
+      <c r="CP13" s="136"/>
+      <c r="CQ13" s="136"/>
+      <c r="CR13" s="136"/>
+      <c r="CS13" s="136"/>
+      <c r="CT13" s="136"/>
+      <c r="CU13" s="136"/>
+      <c r="CV13" s="136"/>
+      <c r="CW13" s="136"/>
+      <c r="CX13" s="136"/>
+      <c r="CY13" s="136"/>
+      <c r="CZ13" s="136"/>
+      <c r="DA13" s="136"/>
+      <c r="DB13" s="136"/>
+      <c r="DC13" s="136"/>
+      <c r="DD13" s="136"/>
+      <c r="DE13" s="136"/>
+      <c r="DF13" s="136"/>
+      <c r="DG13" s="136"/>
+      <c r="DH13" s="136"/>
+      <c r="DI13" s="136"/>
+      <c r="DJ13" s="136"/>
+      <c r="DK13" s="136"/>
+      <c r="DL13" s="136"/>
+      <c r="DM13" s="136"/>
+      <c r="DN13" s="136"/>
+      <c r="DO13" s="136"/>
+      <c r="DP13" s="136"/>
+      <c r="DQ13" s="136"/>
+      <c r="DR13" s="136"/>
+      <c r="DS13" s="136"/>
+      <c r="DT13" s="136"/>
+      <c r="DU13" s="136"/>
+      <c r="DV13" s="136"/>
+      <c r="DW13" s="136"/>
+      <c r="DX13" s="136"/>
+      <c r="DY13" s="136"/>
+      <c r="DZ13" s="136"/>
+      <c r="EA13" s="136"/>
+      <c r="EB13" s="136"/>
+      <c r="EC13" s="136"/>
+      <c r="ED13" s="136"/>
+      <c r="EE13" s="136"/>
+    </row>
+    <row r="14" spans="1:135" s="12" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="117"/>
+      <c r="F14" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="135"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
+      <c r="X14" s="136"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="136"/>
+      <c r="AA14" s="136"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="136"/>
+      <c r="AD14" s="136"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="136"/>
+      <c r="AJ14" s="136"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="136"/>
+      <c r="AM14" s="136"/>
+      <c r="AN14" s="136"/>
+      <c r="AO14" s="136"/>
+      <c r="AP14" s="136"/>
+      <c r="AQ14" s="136"/>
+      <c r="AR14" s="136"/>
+      <c r="AS14" s="136"/>
+      <c r="AT14" s="136"/>
+      <c r="AU14" s="136"/>
+      <c r="AV14" s="136"/>
+      <c r="AW14" s="136"/>
+      <c r="AX14" s="136"/>
+      <c r="AY14" s="136"/>
+      <c r="AZ14" s="136"/>
+      <c r="BA14" s="136"/>
+      <c r="BB14" s="136"/>
+      <c r="BC14" s="136"/>
+      <c r="BD14" s="136"/>
+      <c r="BE14" s="136"/>
+      <c r="BF14" s="136"/>
+      <c r="BG14" s="136"/>
+      <c r="BH14" s="136"/>
+      <c r="BI14" s="136"/>
+      <c r="BJ14" s="136"/>
+      <c r="BK14" s="136"/>
+      <c r="BL14" s="136"/>
+      <c r="BM14" s="136"/>
+      <c r="BN14" s="136"/>
+      <c r="BO14" s="136"/>
+      <c r="BP14" s="136"/>
+      <c r="BQ14" s="136"/>
+      <c r="BR14" s="136"/>
+      <c r="BS14" s="136"/>
+      <c r="BT14" s="136"/>
+      <c r="BU14" s="136"/>
+      <c r="BV14" s="136"/>
+      <c r="BW14" s="136"/>
+      <c r="BX14" s="136"/>
+      <c r="BY14" s="136"/>
+      <c r="BZ14" s="136"/>
+      <c r="CA14" s="136"/>
+      <c r="CB14" s="136"/>
+      <c r="CC14" s="136"/>
+      <c r="CD14" s="136"/>
+      <c r="CE14" s="136"/>
+      <c r="CF14" s="136"/>
+      <c r="CG14" s="136"/>
+      <c r="CH14" s="136"/>
+      <c r="CI14" s="136"/>
+      <c r="CJ14" s="136"/>
+      <c r="CK14" s="136"/>
+      <c r="CL14" s="136"/>
+      <c r="CM14" s="136"/>
+      <c r="CN14" s="136"/>
+      <c r="CO14" s="136"/>
+      <c r="CP14" s="136"/>
+      <c r="CQ14" s="136"/>
+      <c r="CR14" s="136"/>
+      <c r="CS14" s="136"/>
+      <c r="CT14" s="136"/>
+      <c r="CU14" s="136"/>
+      <c r="CV14" s="136"/>
+      <c r="CW14" s="136"/>
+      <c r="CX14" s="136"/>
+      <c r="CY14" s="136"/>
+      <c r="CZ14" s="136"/>
+      <c r="DA14" s="136"/>
+      <c r="DB14" s="136"/>
+      <c r="DC14" s="136"/>
+      <c r="DD14" s="136"/>
+      <c r="DE14" s="136"/>
+      <c r="DF14" s="136"/>
+      <c r="DG14" s="136"/>
+      <c r="DH14" s="136"/>
+      <c r="DI14" s="136"/>
+      <c r="DJ14" s="136"/>
+      <c r="DK14" s="136"/>
+      <c r="DL14" s="136"/>
+      <c r="DM14" s="136"/>
+      <c r="DN14" s="136"/>
+      <c r="DO14" s="136"/>
+      <c r="DP14" s="136"/>
+      <c r="DQ14" s="136"/>
+      <c r="DR14" s="136"/>
+      <c r="DS14" s="136"/>
+      <c r="DT14" s="136"/>
+      <c r="DU14" s="136"/>
+      <c r="DV14" s="136"/>
+      <c r="DW14" s="136"/>
+      <c r="DX14" s="136"/>
+      <c r="DY14" s="136"/>
+      <c r="DZ14" s="136"/>
+      <c r="EA14" s="136"/>
+      <c r="EB14" s="136"/>
+      <c r="EC14" s="136"/>
+      <c r="ED14" s="136"/>
+      <c r="EE14" s="136"/>
+    </row>
+    <row r="15" spans="1:135" s="12" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="117"/>
+      <c r="F15" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="135"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="136"/>
+      <c r="X15" s="136"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+      <c r="AD15" s="136"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="136"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="136"/>
+      <c r="AJ15" s="136"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="136"/>
+      <c r="AM15" s="136"/>
+      <c r="AN15" s="136"/>
+      <c r="AO15" s="136"/>
+      <c r="AP15" s="136"/>
+      <c r="AQ15" s="136"/>
+      <c r="AR15" s="136"/>
+      <c r="AS15" s="136"/>
+      <c r="AT15" s="136"/>
+      <c r="AU15" s="136"/>
+      <c r="AV15" s="136"/>
+      <c r="AW15" s="136"/>
+      <c r="AX15" s="136"/>
+      <c r="AY15" s="136"/>
+      <c r="AZ15" s="136"/>
+      <c r="BA15" s="136"/>
+      <c r="BB15" s="136"/>
+      <c r="BC15" s="136"/>
+      <c r="BD15" s="136"/>
+      <c r="BE15" s="136"/>
+      <c r="BF15" s="136"/>
+      <c r="BG15" s="136"/>
+      <c r="BH15" s="136"/>
+      <c r="BI15" s="136"/>
+      <c r="BJ15" s="136"/>
+      <c r="BK15" s="136"/>
+      <c r="BL15" s="136"/>
+      <c r="BM15" s="136"/>
+      <c r="BN15" s="136"/>
+      <c r="BO15" s="136"/>
+      <c r="BP15" s="136"/>
+      <c r="BQ15" s="136"/>
+      <c r="BR15" s="136"/>
+      <c r="BS15" s="136"/>
+      <c r="BT15" s="136"/>
+      <c r="BU15" s="136"/>
+      <c r="BV15" s="136"/>
+      <c r="BW15" s="136"/>
+      <c r="BX15" s="136"/>
+      <c r="BY15" s="136"/>
+      <c r="BZ15" s="136"/>
+      <c r="CA15" s="136"/>
+      <c r="CB15" s="136"/>
+      <c r="CC15" s="136"/>
+      <c r="CD15" s="136"/>
+      <c r="CE15" s="136"/>
+      <c r="CF15" s="136"/>
+      <c r="CG15" s="136"/>
+      <c r="CH15" s="136"/>
+      <c r="CI15" s="136"/>
+      <c r="CJ15" s="136"/>
+      <c r="CK15" s="136"/>
+      <c r="CL15" s="136"/>
+      <c r="CM15" s="136"/>
+      <c r="CN15" s="136"/>
+      <c r="CO15" s="136"/>
+      <c r="CP15" s="136"/>
+      <c r="CQ15" s="136"/>
+      <c r="CR15" s="136"/>
+      <c r="CS15" s="136"/>
+      <c r="CT15" s="136"/>
+      <c r="CU15" s="136"/>
+      <c r="CV15" s="136"/>
+      <c r="CW15" s="136"/>
+      <c r="CX15" s="136"/>
+      <c r="CY15" s="136"/>
+      <c r="CZ15" s="136"/>
+      <c r="DA15" s="136"/>
+      <c r="DB15" s="136"/>
+      <c r="DC15" s="136"/>
+      <c r="DD15" s="136"/>
+      <c r="DE15" s="136"/>
+      <c r="DF15" s="136"/>
+      <c r="DG15" s="136"/>
+      <c r="DH15" s="136"/>
+      <c r="DI15" s="136"/>
+      <c r="DJ15" s="136"/>
+      <c r="DK15" s="136"/>
+      <c r="DL15" s="136"/>
+      <c r="DM15" s="136"/>
+      <c r="DN15" s="136"/>
+      <c r="DO15" s="136"/>
+      <c r="DP15" s="136"/>
+      <c r="DQ15" s="136"/>
+      <c r="DR15" s="136"/>
+      <c r="DS15" s="136"/>
+      <c r="DT15" s="136"/>
+      <c r="DU15" s="136"/>
+      <c r="DV15" s="136"/>
+      <c r="DW15" s="136"/>
+      <c r="DX15" s="136"/>
+      <c r="DY15" s="136"/>
+      <c r="DZ15" s="136"/>
+      <c r="EA15" s="136"/>
+      <c r="EB15" s="136"/>
+      <c r="EC15" s="136"/>
+      <c r="ED15" s="136"/>
+      <c r="EE15" s="136"/>
+    </row>
+    <row r="16" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="122" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="127" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="109" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="130" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="H25" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="109" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="106" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="I34" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="J35" s="55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="109" t="s">
+        <v>237</v>
+      </c>
+      <c r="I38" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="J39" s="74" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="I40" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" s="78" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="76" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="I41" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="I42" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="G43" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="I43" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="F44" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="G44" s="79" t="s">
+        <v>289</v>
+      </c>
+      <c r="H44" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="I44" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="D45" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="G45" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="H45" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="I45" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" s="82" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="81" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="H46" s="111" t="s">
+        <v>305</v>
+      </c>
+      <c r="I46" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" s="82" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="I50" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" s="40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="H51" s="99" t="s">
+        <v>341</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="I53" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D54" s="94" t="s">
+        <v>318</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" s="44" t="s">
+        <v>359</v>
+      </c>
+      <c r="H54" s="95" t="s">
+        <v>360</v>
+      </c>
+      <c r="I54" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="J54" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>318</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="H55" s="96" t="s">
+        <v>366</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="J55" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="B56" s="93" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="H56" s="110" t="s">
+        <v>372</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="J56" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="I57" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G58" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="I58" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="J58" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="94" t="s">
+        <v>385</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="I59" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="J59" s="88" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="94" t="s">
+        <v>390</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G60" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="H60" s="99" t="s">
+        <v>394</v>
+      </c>
+      <c r="I60" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="J60" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="94" t="s">
+        <v>390</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="H61" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="J61" s="88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="140" t="s">
+        <v>398</v>
+      </c>
+      <c r="B62" s="139" t="s">
+        <v>399</v>
+      </c>
+      <c r="C62" s="140" t="s">
+        <v>400</v>
+      </c>
+      <c r="D62" s="141" t="s">
+        <v>401</v>
+      </c>
+      <c r="E62" s="142" t="s">
+        <v>112</v>
+      </c>
+      <c r="F62" s="139" t="s">
+        <v>402</v>
+      </c>
+      <c r="G62" s="143" t="s">
+        <v>403</v>
+      </c>
+      <c r="H62" s="144" t="s">
+        <v>590</v>
+      </c>
+      <c r="I62" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="J62" s="150" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="140" t="s">
+        <v>405</v>
+      </c>
+      <c r="B63" s="145" t="s">
+        <v>406</v>
+      </c>
+      <c r="C63" s="139" t="s">
+        <v>407</v>
+      </c>
+      <c r="D63" s="141" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63" s="142" t="s">
+        <v>409</v>
+      </c>
+      <c r="F63" s="139" t="s">
+        <v>402</v>
+      </c>
+      <c r="G63" s="143" t="s">
+        <v>591</v>
+      </c>
+      <c r="H63" s="146" t="s">
+        <v>591</v>
+      </c>
+      <c r="I63" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="J63" s="150" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="140" t="s">
+        <v>411</v>
+      </c>
+      <c r="B64" s="145" t="s">
+        <v>412</v>
+      </c>
+      <c r="C64" s="139" t="s">
+        <v>413</v>
+      </c>
+      <c r="D64" s="141" t="s">
+        <v>414</v>
+      </c>
+      <c r="E64" s="147" t="s">
+        <v>415</v>
+      </c>
+      <c r="F64" s="147" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" s="147" t="s">
+        <v>417</v>
+      </c>
+      <c r="H64" s="146" t="s">
         <v>592</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I64" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="J64" s="150" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" s="136"/>
+      <c r="L64" s="136"/>
+      <c r="M64" s="136"/>
+      <c r="N64" s="136"/>
+      <c r="O64" s="136"/>
+      <c r="P64" s="136"/>
+      <c r="Q64" s="136"/>
+      <c r="R64" s="136"/>
+    </row>
+    <row r="65" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="140" t="s">
+        <v>419</v>
+      </c>
+      <c r="B65" s="145" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" s="139" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" s="141" t="s">
+        <v>422</v>
+      </c>
+      <c r="E65" s="147" t="s">
+        <v>423</v>
+      </c>
+      <c r="F65" s="147" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" s="147" t="s">
+        <v>425</v>
+      </c>
+      <c r="H65" s="146" t="s">
+        <v>425</v>
+      </c>
+      <c r="I65" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" s="150" t="s">
+        <v>426</v>
+      </c>
+      <c r="K65" s="136"/>
+      <c r="L65" s="136"/>
+      <c r="M65" s="136"/>
+      <c r="N65" s="136"/>
+      <c r="O65" s="136"/>
+      <c r="P65" s="136"/>
+      <c r="Q65" s="136"/>
+      <c r="R65" s="136"/>
+    </row>
+    <row r="66" spans="1:18" s="11" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="140" t="s">
+        <v>427</v>
+      </c>
+      <c r="B66" s="145" t="s">
+        <v>420</v>
+      </c>
+      <c r="C66" s="139" t="s">
+        <v>428</v>
+      </c>
+      <c r="D66" s="141" t="s">
+        <v>429</v>
+      </c>
+      <c r="E66" s="147" t="s">
+        <v>430</v>
+      </c>
+      <c r="F66" s="147" t="s">
+        <v>431</v>
+      </c>
+      <c r="G66" s="147" t="s">
+        <v>425</v>
+      </c>
+      <c r="H66" s="146" t="s">
+        <v>425</v>
+      </c>
+      <c r="I66" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="J66" s="150" t="s">
+        <v>426</v>
+      </c>
+      <c r="K66" s="136"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="136"/>
+      <c r="N66" s="136"/>
+      <c r="O66" s="136"/>
+      <c r="P66" s="136"/>
+      <c r="Q66" s="136"/>
+      <c r="R66" s="136"/>
+    </row>
+    <row r="67" spans="1:18" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="140" t="s">
+        <v>432</v>
+      </c>
+      <c r="B67" s="145" t="s">
+        <v>595</v>
+      </c>
+      <c r="C67" s="145" t="s">
+        <v>596</v>
+      </c>
+      <c r="D67" s="141" t="s">
+        <v>433</v>
+      </c>
+      <c r="E67" s="147" t="s">
+        <v>434</v>
+      </c>
+      <c r="F67" s="147" t="s">
+        <v>435</v>
+      </c>
+      <c r="G67" s="147" t="s">
+        <v>597</v>
+      </c>
+      <c r="H67" s="146" t="s">
+        <v>598</v>
+      </c>
+      <c r="I67" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="J67" s="150" t="s">
+        <v>436</v>
+      </c>
+      <c r="K67" s="136"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="136"/>
+      <c r="N67" s="136"/>
+      <c r="O67" s="136"/>
+      <c r="P67" s="136"/>
+      <c r="Q67" s="136"/>
+      <c r="R67" s="136"/>
+    </row>
+    <row r="68" spans="1:18" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="140" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" s="147" t="s">
+        <v>438</v>
+      </c>
+      <c r="C68" s="148" t="s">
+        <v>439</v>
+      </c>
+      <c r="D68" s="148" t="s">
+        <v>440</v>
+      </c>
+      <c r="E68" s="149" t="s">
+        <v>441</v>
+      </c>
+      <c r="F68" s="147" t="s">
+        <v>442</v>
+      </c>
+      <c r="G68" s="147" t="s">
+        <v>443</v>
+      </c>
+      <c r="H68" s="146" t="s">
+        <v>593</v>
+      </c>
+      <c r="I68" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="J68" s="149" t="s">
+        <v>444</v>
+      </c>
+      <c r="K68" s="136"/>
+      <c r="L68" s="136"/>
+      <c r="M68" s="136"/>
+      <c r="N68" s="136"/>
+      <c r="O68" s="136"/>
+      <c r="P68" s="136"/>
+      <c r="Q68" s="136"/>
+      <c r="R68" s="136"/>
+    </row>
+    <row r="69" spans="1:18" s="12" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="E69" s="50"/>
+      <c r="F69" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>594</v>
+      </c>
+      <c r="I69" s="152" t="s">
+        <v>100</v>
+      </c>
+      <c r="J69" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K69" s="136"/>
+      <c r="L69" s="136"/>
+      <c r="M69" s="136"/>
+      <c r="N69" s="136"/>
+      <c r="O69" s="136"/>
+      <c r="P69" s="136"/>
+      <c r="Q69" s="136"/>
+      <c r="R69" s="136"/>
+    </row>
+    <row r="70" spans="1:18" s="14" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="E70" s="52"/>
+      <c r="F70" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="G70" s="137" t="s">
+        <v>455</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="I70" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="J70" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" s="136"/>
+      <c r="L70" s="136"/>
+      <c r="M70" s="136"/>
+      <c r="N70" s="136"/>
+      <c r="O70" s="136"/>
+      <c r="P70" s="136"/>
+      <c r="Q70" s="136"/>
+      <c r="R70" s="136"/>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="H71" s="92" t="s">
+        <v>463</v>
+      </c>
+      <c r="I71" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="K71" s="136"/>
+      <c r="L71" s="136"/>
+      <c r="M71" s="136"/>
+      <c r="N71" s="136"/>
+      <c r="O71" s="136"/>
+      <c r="P71" s="136"/>
+      <c r="Q71" s="136"/>
+      <c r="R71" s="136"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="H72" s="92" t="s">
+        <v>471</v>
+      </c>
+      <c r="I72" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="K72" s="136"/>
+      <c r="L72" s="136"/>
+      <c r="M72" s="136"/>
+      <c r="N72" s="136"/>
+      <c r="O72" s="136"/>
+      <c r="P72" s="136"/>
+      <c r="Q72" s="136"/>
+      <c r="R72" s="136"/>
+    </row>
+    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="I73" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="K73" s="136"/>
+      <c r="L73" s="136"/>
+      <c r="M73" s="136"/>
+      <c r="N73" s="136"/>
+      <c r="O73" s="136"/>
+      <c r="P73" s="136"/>
+      <c r="Q73" s="136"/>
+      <c r="R73" s="136"/>
+    </row>
+    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="H74" s="92" t="s">
+        <v>483</v>
+      </c>
+      <c r="I74" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="J74" s="108" t="s">
+        <v>479</v>
+      </c>
+      <c r="K74" s="136"/>
+      <c r="L74" s="136"/>
+      <c r="M74" s="136"/>
+      <c r="N74" s="136"/>
+      <c r="O74" s="136"/>
+      <c r="P74" s="136"/>
+      <c r="Q74" s="136"/>
+      <c r="R74" s="136"/>
+    </row>
+    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="H75" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="I75" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>579</v>
-      </c>
-      <c r="I4" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="78" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="I5" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="138" t="s">
+      <c r="J75" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="K75" s="136"/>
+      <c r="L75" s="136"/>
+      <c r="M75" s="136"/>
+      <c r="N75" s="136"/>
+      <c r="O75" s="136"/>
+      <c r="P75" s="136"/>
+      <c r="Q75" s="136"/>
+      <c r="R75" s="136"/>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D76" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="H76" s="92" t="s">
+        <v>483</v>
+      </c>
+      <c r="I76" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
-        <v>589</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="138" t="s">
+      <c r="J76" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="K76" s="136"/>
+      <c r="L76" s="136"/>
+      <c r="M76" s="136"/>
+      <c r="N76" s="136"/>
+      <c r="O76" s="136"/>
+      <c r="P76" s="136"/>
+      <c r="Q76" s="136"/>
+      <c r="R76" s="136"/>
+    </row>
+    <row r="77" spans="1:18" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="H77" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="I77" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="78" t="s">
-        <v>580</v>
-      </c>
-      <c r="H8" s="78" t="s">
-        <v>579</v>
-      </c>
-      <c r="I8" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="J8" s="78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>585</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>582</v>
-      </c>
-      <c r="G9" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="138" t="s">
+      <c r="J77" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="K77" s="136"/>
+      <c r="L77" s="136"/>
+      <c r="M77" s="136"/>
+      <c r="N77" s="136"/>
+      <c r="O77" s="136"/>
+      <c r="P77" s="136"/>
+      <c r="Q77" s="136"/>
+      <c r="R77" s="136"/>
+    </row>
+    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="F78" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="H78" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="I78" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="78" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>584</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>583</v>
-      </c>
-      <c r="G10" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="138" t="s">
+      <c r="J78" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="K78" s="136"/>
+      <c r="L78" s="136"/>
+      <c r="M78" s="136"/>
+      <c r="N78" s="136"/>
+      <c r="O78" s="136"/>
+      <c r="P78" s="136"/>
+      <c r="Q78" s="136"/>
+      <c r="R78" s="136"/>
+    </row>
+    <row r="79" spans="1:18" s="12" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="I79" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="78" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="138" t="s">
+      <c r="J79" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="K79" s="136"/>
+      <c r="L79" s="136"/>
+      <c r="M79" s="136"/>
+      <c r="N79" s="136"/>
+      <c r="O79" s="136"/>
+      <c r="P79" s="136"/>
+      <c r="Q79" s="136"/>
+      <c r="R79" s="136"/>
+    </row>
+    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="I80" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:135" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>586</v>
-      </c>
-      <c r="G12" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="138" t="s">
+      <c r="J80" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="K80" s="136"/>
+      <c r="L80" s="136"/>
+      <c r="M80" s="136"/>
+      <c r="N80" s="136"/>
+      <c r="O80" s="136"/>
+      <c r="P80" s="136"/>
+      <c r="Q80" s="136"/>
+      <c r="R80" s="136"/>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="E81" s="25"/>
+      <c r="F81" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>531</v>
+      </c>
+      <c r="I81" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="78" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:135" s="23" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>590</v>
-      </c>
-      <c r="B13" s="140" t="s">
-        <v>587</v>
-      </c>
-      <c r="C13" s="141" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="140" t="s">
-        <v>591</v>
-      </c>
-      <c r="F13" s="150" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="142" t="s">
-        <v>581</v>
-      </c>
-      <c r="H13" s="142" t="s">
-        <v>588</v>
-      </c>
-      <c r="I13" s="160" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" s="140" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="161"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="162"/>
-      <c r="AL13" s="162"/>
-      <c r="AM13" s="162"/>
-      <c r="AN13" s="162"/>
-      <c r="AO13" s="162"/>
-      <c r="AP13" s="162"/>
-      <c r="AQ13" s="162"/>
-      <c r="AR13" s="162"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="162"/>
-      <c r="AU13" s="162"/>
-      <c r="AV13" s="162"/>
-      <c r="AW13" s="162"/>
-      <c r="AX13" s="162"/>
-      <c r="AY13" s="162"/>
-      <c r="AZ13" s="162"/>
-      <c r="BA13" s="162"/>
-      <c r="BB13" s="162"/>
-      <c r="BC13" s="162"/>
-      <c r="BD13" s="162"/>
-      <c r="BE13" s="162"/>
-      <c r="BF13" s="162"/>
-      <c r="BG13" s="162"/>
-      <c r="BH13" s="162"/>
-      <c r="BI13" s="162"/>
-      <c r="BJ13" s="162"/>
-      <c r="BK13" s="162"/>
-      <c r="BL13" s="162"/>
-      <c r="BM13" s="162"/>
-      <c r="BN13" s="162"/>
-      <c r="BO13" s="162"/>
-      <c r="BP13" s="162"/>
-      <c r="BQ13" s="162"/>
-      <c r="BR13" s="162"/>
-      <c r="BS13" s="162"/>
-      <c r="BT13" s="162"/>
-      <c r="BU13" s="162"/>
-      <c r="BV13" s="162"/>
-      <c r="BW13" s="162"/>
-      <c r="BX13" s="162"/>
-      <c r="BY13" s="162"/>
-      <c r="BZ13" s="162"/>
-      <c r="CA13" s="162"/>
-      <c r="CB13" s="162"/>
-      <c r="CC13" s="162"/>
-      <c r="CD13" s="162"/>
-      <c r="CE13" s="162"/>
-      <c r="CF13" s="162"/>
-      <c r="CG13" s="162"/>
-      <c r="CH13" s="162"/>
-      <c r="CI13" s="162"/>
-      <c r="CJ13" s="162"/>
-      <c r="CK13" s="162"/>
-      <c r="CL13" s="162"/>
-      <c r="CM13" s="162"/>
-      <c r="CN13" s="162"/>
-      <c r="CO13" s="162"/>
-      <c r="CP13" s="162"/>
-      <c r="CQ13" s="162"/>
-      <c r="CR13" s="162"/>
-      <c r="CS13" s="162"/>
-      <c r="CT13" s="162"/>
-      <c r="CU13" s="162"/>
-      <c r="CV13" s="162"/>
-      <c r="CW13" s="162"/>
-      <c r="CX13" s="162"/>
-      <c r="CY13" s="162"/>
-      <c r="CZ13" s="162"/>
-      <c r="DA13" s="162"/>
-      <c r="DB13" s="162"/>
-      <c r="DC13" s="162"/>
-      <c r="DD13" s="162"/>
-      <c r="DE13" s="162"/>
-      <c r="DF13" s="162"/>
-      <c r="DG13" s="162"/>
-      <c r="DH13" s="162"/>
-      <c r="DI13" s="162"/>
-      <c r="DJ13" s="162"/>
-      <c r="DK13" s="162"/>
-      <c r="DL13" s="162"/>
-      <c r="DM13" s="162"/>
-      <c r="DN13" s="162"/>
-      <c r="DO13" s="162"/>
-      <c r="DP13" s="162"/>
-      <c r="DQ13" s="162"/>
-      <c r="DR13" s="162"/>
-      <c r="DS13" s="162"/>
-      <c r="DT13" s="162"/>
-      <c r="DU13" s="162"/>
-      <c r="DV13" s="162"/>
-      <c r="DW13" s="162"/>
-      <c r="DX13" s="162"/>
-      <c r="DY13" s="162"/>
-      <c r="DZ13" s="162"/>
-      <c r="EA13" s="162"/>
-      <c r="EB13" s="162"/>
-      <c r="EC13" s="162"/>
-      <c r="ED13" s="162"/>
-      <c r="EE13" s="162"/>
-    </row>
-    <row r="14" spans="1:135" s="23" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="151" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="159" t="s">
+      <c r="J81" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="K81" s="136"/>
+      <c r="L81" s="136"/>
+      <c r="M81" s="136"/>
+      <c r="N81" s="136"/>
+      <c r="O81" s="136"/>
+      <c r="P81" s="136"/>
+      <c r="Q81" s="136"/>
+      <c r="R81" s="136"/>
+    </row>
+    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="I82" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="161"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="162"/>
-      <c r="AJ14" s="162"/>
-      <c r="AK14" s="162"/>
-      <c r="AL14" s="162"/>
-      <c r="AM14" s="162"/>
-      <c r="AN14" s="162"/>
-      <c r="AO14" s="162"/>
-      <c r="AP14" s="162"/>
-      <c r="AQ14" s="162"/>
-      <c r="AR14" s="162"/>
-      <c r="AS14" s="162"/>
-      <c r="AT14" s="162"/>
-      <c r="AU14" s="162"/>
-      <c r="AV14" s="162"/>
-      <c r="AW14" s="162"/>
-      <c r="AX14" s="162"/>
-      <c r="AY14" s="162"/>
-      <c r="AZ14" s="162"/>
-      <c r="BA14" s="162"/>
-      <c r="BB14" s="162"/>
-      <c r="BC14" s="162"/>
-      <c r="BD14" s="162"/>
-      <c r="BE14" s="162"/>
-      <c r="BF14" s="162"/>
-      <c r="BG14" s="162"/>
-      <c r="BH14" s="162"/>
-      <c r="BI14" s="162"/>
-      <c r="BJ14" s="162"/>
-      <c r="BK14" s="162"/>
-      <c r="BL14" s="162"/>
-      <c r="BM14" s="162"/>
-      <c r="BN14" s="162"/>
-      <c r="BO14" s="162"/>
-      <c r="BP14" s="162"/>
-      <c r="BQ14" s="162"/>
-      <c r="BR14" s="162"/>
-      <c r="BS14" s="162"/>
-      <c r="BT14" s="162"/>
-      <c r="BU14" s="162"/>
-      <c r="BV14" s="162"/>
-      <c r="BW14" s="162"/>
-      <c r="BX14" s="162"/>
-      <c r="BY14" s="162"/>
-      <c r="BZ14" s="162"/>
-      <c r="CA14" s="162"/>
-      <c r="CB14" s="162"/>
-      <c r="CC14" s="162"/>
-      <c r="CD14" s="162"/>
-      <c r="CE14" s="162"/>
-      <c r="CF14" s="162"/>
-      <c r="CG14" s="162"/>
-      <c r="CH14" s="162"/>
-      <c r="CI14" s="162"/>
-      <c r="CJ14" s="162"/>
-      <c r="CK14" s="162"/>
-      <c r="CL14" s="162"/>
-      <c r="CM14" s="162"/>
-      <c r="CN14" s="162"/>
-      <c r="CO14" s="162"/>
-      <c r="CP14" s="162"/>
-      <c r="CQ14" s="162"/>
-      <c r="CR14" s="162"/>
-      <c r="CS14" s="162"/>
-      <c r="CT14" s="162"/>
-      <c r="CU14" s="162"/>
-      <c r="CV14" s="162"/>
-      <c r="CW14" s="162"/>
-      <c r="CX14" s="162"/>
-      <c r="CY14" s="162"/>
-      <c r="CZ14" s="162"/>
-      <c r="DA14" s="162"/>
-      <c r="DB14" s="162"/>
-      <c r="DC14" s="162"/>
-      <c r="DD14" s="162"/>
-      <c r="DE14" s="162"/>
-      <c r="DF14" s="162"/>
-      <c r="DG14" s="162"/>
-      <c r="DH14" s="162"/>
-      <c r="DI14" s="162"/>
-      <c r="DJ14" s="162"/>
-      <c r="DK14" s="162"/>
-      <c r="DL14" s="162"/>
-      <c r="DM14" s="162"/>
-      <c r="DN14" s="162"/>
-      <c r="DO14" s="162"/>
-      <c r="DP14" s="162"/>
-      <c r="DQ14" s="162"/>
-      <c r="DR14" s="162"/>
-      <c r="DS14" s="162"/>
-      <c r="DT14" s="162"/>
-      <c r="DU14" s="162"/>
-      <c r="DV14" s="162"/>
-      <c r="DW14" s="162"/>
-      <c r="DX14" s="162"/>
-      <c r="DY14" s="162"/>
-      <c r="DZ14" s="162"/>
-      <c r="EA14" s="162"/>
-      <c r="EB14" s="162"/>
-      <c r="EC14" s="162"/>
-      <c r="ED14" s="162"/>
-      <c r="EE14" s="162"/>
-    </row>
-    <row r="15" spans="1:135" s="23" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="143" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="151" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="159" t="s">
+      <c r="J82" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="K82" s="136"/>
+      <c r="L82" s="136"/>
+      <c r="M82" s="136"/>
+      <c r="N82" s="136"/>
+      <c r="O82" s="136"/>
+      <c r="P82" s="136"/>
+      <c r="Q82" s="136"/>
+      <c r="R82" s="136"/>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="H83" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="I83" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="143" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="161"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="162"/>
-      <c r="AL15" s="162"/>
-      <c r="AM15" s="162"/>
-      <c r="AN15" s="162"/>
-      <c r="AO15" s="162"/>
-      <c r="AP15" s="162"/>
-      <c r="AQ15" s="162"/>
-      <c r="AR15" s="162"/>
-      <c r="AS15" s="162"/>
-      <c r="AT15" s="162"/>
-      <c r="AU15" s="162"/>
-      <c r="AV15" s="162"/>
-      <c r="AW15" s="162"/>
-      <c r="AX15" s="162"/>
-      <c r="AY15" s="162"/>
-      <c r="AZ15" s="162"/>
-      <c r="BA15" s="162"/>
-      <c r="BB15" s="162"/>
-      <c r="BC15" s="162"/>
-      <c r="BD15" s="162"/>
-      <c r="BE15" s="162"/>
-      <c r="BF15" s="162"/>
-      <c r="BG15" s="162"/>
-      <c r="BH15" s="162"/>
-      <c r="BI15" s="162"/>
-      <c r="BJ15" s="162"/>
-      <c r="BK15" s="162"/>
-      <c r="BL15" s="162"/>
-      <c r="BM15" s="162"/>
-      <c r="BN15" s="162"/>
-      <c r="BO15" s="162"/>
-      <c r="BP15" s="162"/>
-      <c r="BQ15" s="162"/>
-      <c r="BR15" s="162"/>
-      <c r="BS15" s="162"/>
-      <c r="BT15" s="162"/>
-      <c r="BU15" s="162"/>
-      <c r="BV15" s="162"/>
-      <c r="BW15" s="162"/>
-      <c r="BX15" s="162"/>
-      <c r="BY15" s="162"/>
-      <c r="BZ15" s="162"/>
-      <c r="CA15" s="162"/>
-      <c r="CB15" s="162"/>
-      <c r="CC15" s="162"/>
-      <c r="CD15" s="162"/>
-      <c r="CE15" s="162"/>
-      <c r="CF15" s="162"/>
-      <c r="CG15" s="162"/>
-      <c r="CH15" s="162"/>
-      <c r="CI15" s="162"/>
-      <c r="CJ15" s="162"/>
-      <c r="CK15" s="162"/>
-      <c r="CL15" s="162"/>
-      <c r="CM15" s="162"/>
-      <c r="CN15" s="162"/>
-      <c r="CO15" s="162"/>
-      <c r="CP15" s="162"/>
-      <c r="CQ15" s="162"/>
-      <c r="CR15" s="162"/>
-      <c r="CS15" s="162"/>
-      <c r="CT15" s="162"/>
-      <c r="CU15" s="162"/>
-      <c r="CV15" s="162"/>
-      <c r="CW15" s="162"/>
-      <c r="CX15" s="162"/>
-      <c r="CY15" s="162"/>
-      <c r="CZ15" s="162"/>
-      <c r="DA15" s="162"/>
-      <c r="DB15" s="162"/>
-      <c r="DC15" s="162"/>
-      <c r="DD15" s="162"/>
-      <c r="DE15" s="162"/>
-      <c r="DF15" s="162"/>
-      <c r="DG15" s="162"/>
-      <c r="DH15" s="162"/>
-      <c r="DI15" s="162"/>
-      <c r="DJ15" s="162"/>
-      <c r="DK15" s="162"/>
-      <c r="DL15" s="162"/>
-      <c r="DM15" s="162"/>
-      <c r="DN15" s="162"/>
-      <c r="DO15" s="162"/>
-      <c r="DP15" s="162"/>
-      <c r="DQ15" s="162"/>
-      <c r="DR15" s="162"/>
-      <c r="DS15" s="162"/>
-      <c r="DT15" s="162"/>
-      <c r="DU15" s="162"/>
-      <c r="DV15" s="162"/>
-      <c r="DW15" s="162"/>
-      <c r="DX15" s="162"/>
-      <c r="DY15" s="162"/>
-      <c r="DZ15" s="162"/>
-      <c r="EA15" s="162"/>
-      <c r="EB15" s="162"/>
-      <c r="EC15" s="162"/>
-      <c r="ED15" s="162"/>
-      <c r="EE15" s="162"/>
-    </row>
-    <row r="16" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="152" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="147" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="148" t="s">
+      <c r="J83" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="K83" s="136"/>
+      <c r="L83" s="136"/>
+      <c r="M83" s="136"/>
+      <c r="N83" s="136"/>
+      <c r="O83" s="136"/>
+      <c r="P83" s="136"/>
+      <c r="Q83" s="136"/>
+      <c r="R83" s="136"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="E84" s="25"/>
+      <c r="F84" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="H84" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="I84" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="149" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="152" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="158" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="154" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="153" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="158" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="155" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="153" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="146" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="80" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="127" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="93" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="94" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="85" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="H29" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="134" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="80" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" s="131" t="s">
-        <v>207</v>
-      </c>
-      <c r="I32" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="F33" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" s="84" t="s">
-        <v>212</v>
-      </c>
-      <c r="H33" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="I33" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="G34" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="131" t="s">
-        <v>218</v>
-      </c>
-      <c r="I34" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" s="96" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="131" t="s">
-        <v>224</v>
-      </c>
-      <c r="I35" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="J35" s="80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="B36" s="94" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="G36" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="I36" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="C37" s="94" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="84" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="H37" s="131" t="s">
-        <v>237</v>
-      </c>
-      <c r="I37" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J37" s="80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="H38" s="134" t="s">
-        <v>237</v>
-      </c>
-      <c r="I38" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J38" s="80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="B39" s="97" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" s="98" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" s="98" t="s">
-        <v>247</v>
-      </c>
-      <c r="G39" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="H39" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="I39" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="J39" s="99" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="D40" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="E40" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="F40" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="G40" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="H40" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="I40" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="103" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>260</v>
-      </c>
-      <c r="C41" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41" s="101" t="s">
-        <v>262</v>
-      </c>
-      <c r="F41" s="102" t="s">
-        <v>263</v>
-      </c>
-      <c r="G41" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="H41" s="103" t="s">
-        <v>264</v>
-      </c>
-      <c r="I41" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J41" s="103" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="B42" s="100" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="F42" s="102" t="s">
-        <v>270</v>
-      </c>
-      <c r="G42" s="100" t="s">
-        <v>271</v>
-      </c>
-      <c r="H42" s="103" t="s">
-        <v>272</v>
-      </c>
-      <c r="I42" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J42" s="103" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" s="100" t="s">
-        <v>275</v>
-      </c>
-      <c r="C43" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="D43" s="100" t="s">
-        <v>277</v>
-      </c>
-      <c r="E43" s="105" t="s">
-        <v>278</v>
-      </c>
-      <c r="F43" s="102" t="s">
-        <v>279</v>
-      </c>
-      <c r="G43" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="H43" s="103" t="s">
-        <v>281</v>
-      </c>
-      <c r="I43" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" s="103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="100" t="s">
-        <v>283</v>
-      </c>
-      <c r="B44" s="100" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="100" t="s">
-        <v>285</v>
-      </c>
-      <c r="D44" s="100" t="s">
-        <v>286</v>
-      </c>
-      <c r="E44" s="105" t="s">
-        <v>287</v>
-      </c>
-      <c r="F44" s="102" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="104" t="s">
-        <v>289</v>
-      </c>
-      <c r="H44" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="I44" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J44" s="103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="B45" s="107" t="s">
-        <v>292</v>
-      </c>
-      <c r="C45" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D45" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108" t="s">
-        <v>295</v>
-      </c>
-      <c r="G45" s="107" t="s">
-        <v>296</v>
-      </c>
-      <c r="H45" s="109" t="s">
-        <v>297</v>
-      </c>
-      <c r="I45" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J45" s="107" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="106" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="C46" s="108" t="s">
-        <v>301</v>
-      </c>
-      <c r="D46" s="107" t="s">
-        <v>302</v>
-      </c>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108" t="s">
-        <v>303</v>
-      </c>
-      <c r="G46" s="107" t="s">
-        <v>304</v>
-      </c>
-      <c r="H46" s="136" t="s">
-        <v>305</v>
-      </c>
-      <c r="I46" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J46" s="107" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>308</v>
-      </c>
-      <c r="C47" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="G47" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="H47" s="66" t="s">
-        <v>313</v>
-      </c>
-      <c r="I47" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J47" s="65" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E48" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G48" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="H48" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J48" s="65" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="63" t="s">
-        <v>323</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="D49" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="G49" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="H49" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="I49" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" s="65" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>330</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="D50" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="E50" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G50" s="68" t="s">
-        <v>333</v>
-      </c>
-      <c r="H50" s="67" t="s">
-        <v>334</v>
-      </c>
-      <c r="I50" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J50" s="65" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="D51" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E51" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="F51" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G51" s="65" t="s">
-        <v>340</v>
-      </c>
-      <c r="H51" s="124" t="s">
-        <v>341</v>
-      </c>
-      <c r="I51" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="J51" s="65" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="F52" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="65" t="s">
-        <v>346</v>
-      </c>
-      <c r="H52" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="I52" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J52" s="65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="D53" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>352</v>
-      </c>
-      <c r="F53" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G53" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="H53" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="I53" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J53" s="65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="63" t="s">
-        <v>355</v>
-      </c>
-      <c r="B54" s="118" t="s">
-        <v>356</v>
-      </c>
-      <c r="C54" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="D54" s="119" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F54" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G54" s="69" t="s">
-        <v>359</v>
-      </c>
-      <c r="H54" s="120" t="s">
-        <v>360</v>
-      </c>
-      <c r="I54" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="J54" s="113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63" t="s">
-        <v>361</v>
-      </c>
-      <c r="B55" s="118" t="s">
-        <v>362</v>
-      </c>
-      <c r="C55" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="D55" s="119" t="s">
-        <v>318</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="F55" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G55" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="H55" s="121" t="s">
-        <v>366</v>
-      </c>
-      <c r="I55" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="J55" s="113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="B56" s="118" t="s">
-        <v>368</v>
-      </c>
-      <c r="C56" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="D56" s="122" t="s">
-        <v>318</v>
-      </c>
-      <c r="E56" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="F56" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G56" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="H56" s="135" t="s">
-        <v>372</v>
-      </c>
-      <c r="I56" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="J56" s="113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>375</v>
-      </c>
-      <c r="D57" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E57" s="65"/>
-      <c r="F57" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="G57" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="H57" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="I57" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="J57" s="113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="B58" s="67" t="s">
-        <v>380</v>
-      </c>
-      <c r="C58" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="F58" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G58" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="H58" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="I58" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="J58" s="113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="119" t="s">
-        <v>385</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>388</v>
-      </c>
-      <c r="E59" s="65"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="H59" s="66" t="s">
-        <v>334</v>
-      </c>
-      <c r="I59" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="J59" s="113" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="119" t="s">
-        <v>390</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="C60" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E60" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="F60" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G60" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="H60" s="124" t="s">
-        <v>394</v>
-      </c>
-      <c r="I60" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="J60" s="113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="119" t="s">
-        <v>390</v>
-      </c>
-      <c r="B61" s="67" t="s">
-        <v>356</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>395</v>
-      </c>
-      <c r="D61" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E61" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="F61" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="G61" s="69" t="s">
-        <v>397</v>
-      </c>
-      <c r="H61" s="124" t="s">
-        <v>372</v>
-      </c>
-      <c r="I61" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="J61" s="113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="K64" s="162"/>
-      <c r="L64" s="162"/>
-      <c r="M64" s="162"/>
-      <c r="N64" s="162"/>
-      <c r="O64" s="162"/>
-      <c r="P64" s="162"/>
-    </row>
-    <row r="65" spans="1:16" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="F65" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="K65" s="162"/>
-      <c r="L65" s="162"/>
-      <c r="M65" s="162"/>
-      <c r="N65" s="162"/>
-      <c r="O65" s="162"/>
-      <c r="P65" s="162"/>
-    </row>
-    <row r="66" spans="1:16" s="22" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="K66" s="162"/>
-      <c r="L66" s="162"/>
-      <c r="M66" s="162"/>
-      <c r="N66" s="162"/>
-      <c r="O66" s="162"/>
-      <c r="P66" s="162"/>
-    </row>
-    <row r="67" spans="1:16" s="23" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="E67" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="F67" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="G67" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="K67" s="162"/>
-      <c r="L67" s="162"/>
-      <c r="M67" s="162"/>
-      <c r="N67" s="162"/>
-      <c r="O67" s="162"/>
-      <c r="P67" s="162"/>
-    </row>
-    <row r="68" spans="1:16" s="23" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="D68" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="E68" t="s">
-        <v>445</v>
-      </c>
-      <c r="F68" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G68" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" t="s">
-        <v>448</v>
-      </c>
-      <c r="K68" s="162"/>
-      <c r="L68" s="162"/>
-      <c r="M68" s="162"/>
-      <c r="N68" s="162"/>
-      <c r="O68" s="162"/>
-      <c r="P68" s="162"/>
-    </row>
-    <row r="69" spans="1:16" s="23" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="72" t="s">
-        <v>449</v>
-      </c>
-      <c r="B69" s="73" t="s">
-        <v>450</v>
-      </c>
-      <c r="C69" s="73" t="s">
-        <v>451</v>
-      </c>
-      <c r="D69" s="74" t="s">
-        <v>452</v>
-      </c>
-      <c r="E69" s="75"/>
-      <c r="F69" s="73" t="s">
-        <v>453</v>
-      </c>
-      <c r="G69" s="74" t="s">
-        <v>454</v>
-      </c>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="76" t="s">
-        <v>455</v>
-      </c>
-      <c r="K69" s="162"/>
-      <c r="L69" s="162"/>
-      <c r="M69" s="162"/>
-      <c r="N69" s="162"/>
-      <c r="O69" s="162"/>
-      <c r="P69" s="162"/>
-    </row>
-    <row r="70" spans="1:16" s="25" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="72" t="s">
-        <v>456</v>
-      </c>
-      <c r="B70" s="73" t="s">
-        <v>450</v>
-      </c>
-      <c r="C70" s="73" t="s">
-        <v>451</v>
-      </c>
-      <c r="D70" s="74" t="s">
-        <v>457</v>
-      </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="73" t="s">
-        <v>458</v>
-      </c>
-      <c r="G70" s="163" t="s">
-        <v>459</v>
-      </c>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="76" t="s">
-        <v>455</v>
-      </c>
-      <c r="K70" s="162"/>
-      <c r="L70" s="162"/>
-      <c r="M70" s="162"/>
-      <c r="N70" s="162"/>
-      <c r="O70" s="162"/>
-      <c r="P70" s="162"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>462</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>465</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>466</v>
-      </c>
-      <c r="H71" s="117" t="s">
-        <v>467</v>
-      </c>
-      <c r="I71" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="J71" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="K71" s="162"/>
-      <c r="L71" s="162"/>
-      <c r="M71" s="162"/>
-      <c r="N71" s="162"/>
-      <c r="O71" s="162"/>
-      <c r="P71" s="162"/>
-    </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="C72" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="G72" s="43" t="s">
-        <v>474</v>
-      </c>
-      <c r="H72" s="117" t="s">
-        <v>475</v>
-      </c>
-      <c r="I72" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="J72" s="39" t="s">
-        <v>476</v>
-      </c>
-      <c r="K72" s="162"/>
-      <c r="L72" s="162"/>
-      <c r="M72" s="162"/>
-      <c r="N72" s="162"/>
-      <c r="O72" s="162"/>
-      <c r="P72" s="162"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D73" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="G73" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="H73" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="I73" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="J73" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="K73" s="162"/>
-      <c r="L73" s="162"/>
-      <c r="M73" s="162"/>
-      <c r="N73" s="162"/>
-      <c r="O73" s="162"/>
-      <c r="P73" s="162"/>
-    </row>
-    <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="G74" s="41" t="s">
-        <v>486</v>
-      </c>
-      <c r="H74" s="117" t="s">
-        <v>487</v>
-      </c>
-      <c r="I74" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="J74" s="133" t="s">
-        <v>483</v>
-      </c>
-      <c r="K74" s="162"/>
-      <c r="L74" s="162"/>
-      <c r="M74" s="162"/>
-      <c r="N74" s="162"/>
-      <c r="O74" s="162"/>
-      <c r="P74" s="162"/>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="39" t="s">
-        <v>488</v>
-      </c>
-      <c r="B75" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="E75" s="40"/>
-      <c r="F75" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="G75" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="H75" s="117" t="s">
-        <v>493</v>
-      </c>
-      <c r="I75" s="137" t="s">
-        <v>225</v>
-      </c>
-      <c r="J75" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="K75" s="162"/>
-      <c r="L75" s="162"/>
-      <c r="M75" s="162"/>
-      <c r="N75" s="162"/>
-      <c r="O75" s="162"/>
-      <c r="P75" s="162"/>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>496</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="D76" s="132" t="s">
-        <v>472</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>498</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>499</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="H76" s="117" t="s">
-        <v>487</v>
-      </c>
-      <c r="I76" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="J76" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="K76" s="162"/>
-      <c r="L76" s="162"/>
-      <c r="M76" s="162"/>
-      <c r="N76" s="162"/>
-      <c r="O76" s="162"/>
-      <c r="P76" s="162"/>
-    </row>
-    <row r="77" spans="1:16" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="47" t="s">
-        <v>501</v>
-      </c>
-      <c r="B77" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>503</v>
-      </c>
-      <c r="D77" s="56" t="s">
-        <v>504</v>
-      </c>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="G77" s="47" t="s">
-        <v>506</v>
-      </c>
-      <c r="H77" s="62" t="s">
-        <v>507</v>
-      </c>
-      <c r="I77" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="J77" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="K77" s="162"/>
-      <c r="L77" s="162"/>
-      <c r="M77" s="162"/>
-      <c r="N77" s="162"/>
-      <c r="O77" s="162"/>
-      <c r="P77" s="162"/>
-    </row>
-    <row r="78" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="47" t="s">
-        <v>509</v>
-      </c>
-      <c r="B78" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>511</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="E78" s="49"/>
-      <c r="F78" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="G78" s="47" t="s">
-        <v>513</v>
-      </c>
-      <c r="H78" s="61" t="s">
-        <v>514</v>
-      </c>
-      <c r="I78" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="J78" s="50" t="s">
-        <v>515</v>
-      </c>
-      <c r="K78" s="162"/>
-      <c r="L78" s="162"/>
-      <c r="M78" s="162"/>
-      <c r="N78" s="162"/>
-      <c r="O78" s="162"/>
-      <c r="P78" s="162"/>
-    </row>
-    <row r="79" spans="1:16" s="23" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47" t="s">
-        <v>516</v>
-      </c>
-      <c r="B79" s="47" t="s">
-        <v>517</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="E79" s="49"/>
-      <c r="F79" s="47" t="s">
-        <v>519</v>
-      </c>
-      <c r="G79" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="H79" s="49" t="s">
-        <v>521</v>
-      </c>
-      <c r="I79" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="J79" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="K79" s="162"/>
-      <c r="L79" s="162"/>
-      <c r="M79" s="162"/>
-      <c r="N79" s="162"/>
-      <c r="O79" s="162"/>
-      <c r="P79" s="162"/>
-    </row>
-    <row r="80" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="47" t="s">
-        <v>523</v>
-      </c>
-      <c r="B80" s="47" t="s">
-        <v>524</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="E80" s="49"/>
-      <c r="F80" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="G80" s="51" t="s">
-        <v>527</v>
-      </c>
-      <c r="H80" s="49" t="s">
-        <v>528</v>
-      </c>
-      <c r="I80" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="J80" s="50" t="s">
-        <v>529</v>
-      </c>
-      <c r="K80" s="162"/>
-      <c r="L80" s="162"/>
-      <c r="M80" s="162"/>
-      <c r="N80" s="162"/>
-      <c r="O80" s="162"/>
-      <c r="P80" s="162"/>
-    </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="52" t="s">
-        <v>530</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>531</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="D81" s="52" t="s">
-        <v>504</v>
-      </c>
-      <c r="E81" s="49"/>
-      <c r="F81" s="53" t="s">
-        <v>533</v>
-      </c>
-      <c r="G81" s="53" t="s">
-        <v>534</v>
-      </c>
-      <c r="H81" s="61" t="s">
-        <v>535</v>
-      </c>
-      <c r="I81" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="J81" s="52" t="s">
-        <v>536</v>
-      </c>
-      <c r="K81" s="162"/>
-      <c r="L81" s="162"/>
-      <c r="M81" s="162"/>
-      <c r="N81" s="162"/>
-      <c r="O81" s="162"/>
-      <c r="P81" s="162"/>
-    </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="52" t="s">
-        <v>537</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>538</v>
-      </c>
-      <c r="C82" s="53" t="s">
-        <v>539</v>
-      </c>
-      <c r="D82" s="52" t="s">
-        <v>504</v>
-      </c>
-      <c r="E82" s="49"/>
-      <c r="F82" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="G82" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="H82" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="I82" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="J82" s="52" t="s">
-        <v>543</v>
-      </c>
-      <c r="K82" s="162"/>
-      <c r="L82" s="162"/>
-      <c r="M82" s="162"/>
-      <c r="N82" s="162"/>
-      <c r="O82" s="162"/>
-      <c r="P82" s="162"/>
-    </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="B83" s="52" t="s">
-        <v>545</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>504</v>
-      </c>
-      <c r="E83" s="49"/>
-      <c r="F83" s="53" t="s">
-        <v>547</v>
-      </c>
-      <c r="G83" s="53" t="s">
-        <v>548</v>
-      </c>
-      <c r="H83" s="61" t="s">
-        <v>549</v>
-      </c>
-      <c r="I83" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="J83" s="52" t="s">
-        <v>550</v>
-      </c>
-      <c r="K83" s="162"/>
-      <c r="L83" s="162"/>
-      <c r="M83" s="162"/>
-      <c r="N83" s="162"/>
-      <c r="O83" s="162"/>
-      <c r="P83" s="162"/>
-    </row>
-    <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="52" t="s">
-        <v>551</v>
-      </c>
-      <c r="B84" s="52" t="s">
-        <v>552</v>
-      </c>
-      <c r="C84" s="52" t="s">
+      <c r="J84" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="D84" s="52" t="s">
-        <v>504</v>
-      </c>
-      <c r="E84" s="49"/>
-      <c r="F84" s="53" t="s">
-        <v>554</v>
-      </c>
-      <c r="G84" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="H84" s="61" t="s">
-        <v>556</v>
-      </c>
-      <c r="I84" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="J84" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="K84" s="162"/>
-      <c r="L84" s="162"/>
-      <c r="M84" s="162"/>
-      <c r="N84" s="162"/>
-      <c r="O84" s="162"/>
-      <c r="P84" s="162"/>
-    </row>
-    <row r="85" spans="1:16" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="136"/>
+      <c r="L84" s="136"/>
+      <c r="M84" s="136"/>
+      <c r="N84" s="136"/>
+      <c r="O84" s="136"/>
+      <c r="P84" s="136"/>
+      <c r="Q84" s="136"/>
+      <c r="R84" s="136"/>
+    </row>
+    <row r="85" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -6597,14 +6646,16 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="162"/>
-      <c r="L85" s="162"/>
-      <c r="M85" s="162"/>
-      <c r="N85" s="162"/>
-      <c r="O85" s="162"/>
-      <c r="P85" s="162"/>
-    </row>
-    <row r="86" spans="1:16" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="136"/>
+      <c r="L85" s="136"/>
+      <c r="M85" s="136"/>
+      <c r="N85" s="136"/>
+      <c r="O85" s="136"/>
+      <c r="P85" s="136"/>
+      <c r="Q85" s="136"/>
+      <c r="R85" s="136"/>
+    </row>
+    <row r="86" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -6615,14 +6666,16 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="162"/>
-      <c r="L86" s="162"/>
-      <c r="M86" s="162"/>
-      <c r="N86" s="162"/>
-      <c r="O86" s="162"/>
-      <c r="P86" s="162"/>
-    </row>
-    <row r="87" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K86" s="136"/>
+      <c r="L86" s="136"/>
+      <c r="M86" s="136"/>
+      <c r="N86" s="136"/>
+      <c r="O86" s="136"/>
+      <c r="P86" s="136"/>
+      <c r="Q86" s="136"/>
+      <c r="R86" s="136"/>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -6633,14 +6686,16 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="162"/>
-      <c r="L87" s="162"/>
-      <c r="M87" s="162"/>
-      <c r="N87" s="162"/>
-      <c r="O87" s="162"/>
-      <c r="P87" s="162"/>
-    </row>
-    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="136"/>
+      <c r="L87" s="136"/>
+      <c r="M87" s="136"/>
+      <c r="N87" s="136"/>
+      <c r="O87" s="136"/>
+      <c r="P87" s="136"/>
+      <c r="Q87" s="136"/>
+      <c r="R87" s="136"/>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -6651,8 +6706,10 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q88" s="136"/>
+      <c r="R88" s="136"/>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -6663,8 +6720,10 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-    </row>
-    <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q89" s="136"/>
+      <c r="R89" s="136"/>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6675,8 +6734,10 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-    </row>
-    <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q90" s="136"/>
+      <c r="R90" s="136"/>
+    </row>
+    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -6687,8 +6748,10 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-    </row>
-    <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q91" s="136"/>
+      <c r="R91" s="136"/>
+    </row>
+    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -6699,8 +6762,10 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-    </row>
-    <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q92" s="136"/>
+      <c r="R92" s="136"/>
+    </row>
+    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -6711,8 +6776,10 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-    </row>
-    <row r="94" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q93" s="136"/>
+      <c r="R93" s="136"/>
+    </row>
+    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -6724,7 +6791,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -6736,7 +6803,7 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -8802,101 +8869,101 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>561</v>
+      <c r="A4" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>565</v>
+      <c r="D7" s="7" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E6EEB4-9297-4D7A-9627-840EA27C3425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3262EAD1-BA45-4675-8FA2-0B437AC4D786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="598">
   <si>
     <t>Title</t>
   </si>
@@ -105,16 +105,9 @@
     <t>User is on login page</t>
   </si>
   <si>
-    <t>Email: "userexample.com'',
- Password: CorrectPass123</t>
-  </si>
-  <si>
     <t>1. Enter invalid email
 2. Enter valid password
 3. Click login</t>
-  </si>
-  <si>
-    <t>System displays red 'Invalid email address.'</t>
   </si>
   <si>
     <t>SRS-Login-02, SRS-Login-05</t>
@@ -2169,9 +2162,6 @@
     <t>System displays 'This field is required.' in red</t>
   </si>
   <si>
-    <t>System displays red 'Invalid email address.' in red</t>
-  </si>
-  <si>
     <t>1. Enter TESTEMAIL10@GMAIL.COM in email
 2. Enter zxcvbnm@ in password
 3. Click login</t>
@@ -2194,9 +2184,6 @@
     <t>Verify email input doesn’t  accepts special chars except @</t>
   </si>
   <si>
-    <t>error says please input email with @</t>
-  </si>
-  <si>
     <t>TC-Login-06</t>
   </si>
   <si>
@@ -2237,6 +2224,16 @@
   </si>
   <si>
     <t>The hash ID for User B is not equal the hash ID for User A</t>
+  </si>
+  <si>
+    <t>System displays "please enter a part followed by @"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System displays "please include an @ in the email adress"</t>
+  </si>
+  <si>
+    <t>Email: "@gmail.com'',
+ Password: CorrectPass123</t>
   </si>
 </sst>
 </file>
@@ -2463,7 +2460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2684,17 +2681,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2710,7 +2696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3022,10 +3008,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3423,29 +3406,29 @@
   </sheetPr>
   <dimension ref="A1:EE265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="67.109375" customWidth="1"/>
-    <col min="6" max="6" width="74.5546875" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="67.140625" customWidth="1"/>
+    <col min="6" max="6" width="74.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
     <col min="8" max="8" width="52" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:135" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3478,7 +3461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:135" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
@@ -3492,7 +3475,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F2" s="53" t="s">
         <v>14</v>
@@ -3504,13 +3487,13 @@
         <v>15</v>
       </c>
       <c r="I2" s="113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J2" s="53" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
         <v>17</v>
       </c>
@@ -3524,202 +3507,202 @@
         <v>20</v>
       </c>
       <c r="E3" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="G3" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>595</v>
+      </c>
+      <c r="I3" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="53" t="s">
+    </row>
+    <row r="4" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="53" t="s">
-        <v>588</v>
-      </c>
-      <c r="I3" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="53" t="s">
+      <c r="B4" s="53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="H4" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="I4" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="53" t="s">
+    </row>
+    <row r="5" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="I4" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>32</v>
-      </c>
       <c r="B5" s="53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="H5" s="53" t="s">
+        <v>584</v>
+      </c>
+      <c r="I5" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>588</v>
-      </c>
-      <c r="I5" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="53" t="s">
+    </row>
+    <row r="6" spans="1:135" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>42</v>
-      </c>
       <c r="C6" s="54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="H6" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="53" t="s">
+    </row>
+    <row r="7" spans="1:135" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
+        <v>581</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>585</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>49</v>
-      </c>
       <c r="C7" s="54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="H7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="53" t="s">
+    </row>
+    <row r="8" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>56</v>
-      </c>
       <c r="C8" s="54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>574</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="I8" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>576</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="I8" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="J8" s="53" t="s">
+    </row>
+    <row r="9" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>62</v>
-      </c>
       <c r="C9" s="54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G9" s="53" t="s">
         <v>15</v>
@@ -3728,30 +3711,30 @@
         <v>15</v>
       </c>
       <c r="I9" s="113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J9" s="53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="53" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>66</v>
-      </c>
       <c r="C10" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G10" s="53" t="s">
         <v>15</v>
@@ -3760,2882 +3743,2882 @@
         <v>15</v>
       </c>
       <c r="I10" s="113" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:135" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="53" t="s">
+      <c r="H11" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:135" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:135" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>75</v>
-      </c>
       <c r="C12" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="53" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="53" t="s">
+        <v>579</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:135" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="s">
         <v>582</v>
       </c>
-      <c r="G12" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:135" s="12" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>586</v>
-      </c>
       <c r="B13" s="115" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="115" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="115" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F13" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>596</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>596</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="134"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="135"/>
+      <c r="AK13" s="135"/>
+      <c r="AL13" s="135"/>
+      <c r="AM13" s="135"/>
+      <c r="AN13" s="135"/>
+      <c r="AO13" s="135"/>
+      <c r="AP13" s="135"/>
+      <c r="AQ13" s="135"/>
+      <c r="AR13" s="135"/>
+      <c r="AS13" s="135"/>
+      <c r="AT13" s="135"/>
+      <c r="AU13" s="135"/>
+      <c r="AV13" s="135"/>
+      <c r="AW13" s="135"/>
+      <c r="AX13" s="135"/>
+      <c r="AY13" s="135"/>
+      <c r="AZ13" s="135"/>
+      <c r="BA13" s="135"/>
+      <c r="BB13" s="135"/>
+      <c r="BC13" s="135"/>
+      <c r="BD13" s="135"/>
+      <c r="BE13" s="135"/>
+      <c r="BF13" s="135"/>
+      <c r="BG13" s="135"/>
+      <c r="BH13" s="135"/>
+      <c r="BI13" s="135"/>
+      <c r="BJ13" s="135"/>
+      <c r="BK13" s="135"/>
+      <c r="BL13" s="135"/>
+      <c r="BM13" s="135"/>
+      <c r="BN13" s="135"/>
+      <c r="BO13" s="135"/>
+      <c r="BP13" s="135"/>
+      <c r="BQ13" s="135"/>
+      <c r="BR13" s="135"/>
+      <c r="BS13" s="135"/>
+      <c r="BT13" s="135"/>
+      <c r="BU13" s="135"/>
+      <c r="BV13" s="135"/>
+      <c r="BW13" s="135"/>
+      <c r="BX13" s="135"/>
+      <c r="BY13" s="135"/>
+      <c r="BZ13" s="135"/>
+      <c r="CA13" s="135"/>
+      <c r="CB13" s="135"/>
+      <c r="CC13" s="135"/>
+      <c r="CD13" s="135"/>
+      <c r="CE13" s="135"/>
+      <c r="CF13" s="135"/>
+      <c r="CG13" s="135"/>
+      <c r="CH13" s="135"/>
+      <c r="CI13" s="135"/>
+      <c r="CJ13" s="135"/>
+      <c r="CK13" s="135"/>
+      <c r="CL13" s="135"/>
+      <c r="CM13" s="135"/>
+      <c r="CN13" s="135"/>
+      <c r="CO13" s="135"/>
+      <c r="CP13" s="135"/>
+      <c r="CQ13" s="135"/>
+      <c r="CR13" s="135"/>
+      <c r="CS13" s="135"/>
+      <c r="CT13" s="135"/>
+      <c r="CU13" s="135"/>
+      <c r="CV13" s="135"/>
+      <c r="CW13" s="135"/>
+      <c r="CX13" s="135"/>
+      <c r="CY13" s="135"/>
+      <c r="CZ13" s="135"/>
+      <c r="DA13" s="135"/>
+      <c r="DB13" s="135"/>
+      <c r="DC13" s="135"/>
+      <c r="DD13" s="135"/>
+      <c r="DE13" s="135"/>
+      <c r="DF13" s="135"/>
+      <c r="DG13" s="135"/>
+      <c r="DH13" s="135"/>
+      <c r="DI13" s="135"/>
+      <c r="DJ13" s="135"/>
+      <c r="DK13" s="135"/>
+      <c r="DL13" s="135"/>
+      <c r="DM13" s="135"/>
+      <c r="DN13" s="135"/>
+      <c r="DO13" s="135"/>
+      <c r="DP13" s="135"/>
+      <c r="DQ13" s="135"/>
+      <c r="DR13" s="135"/>
+      <c r="DS13" s="135"/>
+      <c r="DT13" s="135"/>
+      <c r="DU13" s="135"/>
+      <c r="DV13" s="135"/>
+      <c r="DW13" s="135"/>
+      <c r="DX13" s="135"/>
+      <c r="DY13" s="135"/>
+      <c r="DZ13" s="135"/>
+      <c r="EA13" s="135"/>
+      <c r="EB13" s="135"/>
+      <c r="EC13" s="135"/>
+      <c r="ED13" s="135"/>
+      <c r="EE13" s="135"/>
+    </row>
+    <row r="14" spans="1:135" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="117" t="s">
-        <v>577</v>
-      </c>
-      <c r="H13" s="117" t="s">
-        <v>584</v>
-      </c>
-      <c r="I13" s="134" t="s">
-        <v>225</v>
-      </c>
-      <c r="J13" s="115" t="s">
+      <c r="C14" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="135"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="136"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="136"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="136"/>
-      <c r="Z13" s="136"/>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="136"/>
-      <c r="AC13" s="136"/>
-      <c r="AD13" s="136"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="136"/>
-      <c r="AG13" s="136"/>
-      <c r="AH13" s="136"/>
-      <c r="AI13" s="136"/>
-      <c r="AJ13" s="136"/>
-      <c r="AK13" s="136"/>
-      <c r="AL13" s="136"/>
-      <c r="AM13" s="136"/>
-      <c r="AN13" s="136"/>
-      <c r="AO13" s="136"/>
-      <c r="AP13" s="136"/>
-      <c r="AQ13" s="136"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="136"/>
-      <c r="AT13" s="136"/>
-      <c r="AU13" s="136"/>
-      <c r="AV13" s="136"/>
-      <c r="AW13" s="136"/>
-      <c r="AX13" s="136"/>
-      <c r="AY13" s="136"/>
-      <c r="AZ13" s="136"/>
-      <c r="BA13" s="136"/>
-      <c r="BB13" s="136"/>
-      <c r="BC13" s="136"/>
-      <c r="BD13" s="136"/>
-      <c r="BE13" s="136"/>
-      <c r="BF13" s="136"/>
-      <c r="BG13" s="136"/>
-      <c r="BH13" s="136"/>
-      <c r="BI13" s="136"/>
-      <c r="BJ13" s="136"/>
-      <c r="BK13" s="136"/>
-      <c r="BL13" s="136"/>
-      <c r="BM13" s="136"/>
-      <c r="BN13" s="136"/>
-      <c r="BO13" s="136"/>
-      <c r="BP13" s="136"/>
-      <c r="BQ13" s="136"/>
-      <c r="BR13" s="136"/>
-      <c r="BS13" s="136"/>
-      <c r="BT13" s="136"/>
-      <c r="BU13" s="136"/>
-      <c r="BV13" s="136"/>
-      <c r="BW13" s="136"/>
-      <c r="BX13" s="136"/>
-      <c r="BY13" s="136"/>
-      <c r="BZ13" s="136"/>
-      <c r="CA13" s="136"/>
-      <c r="CB13" s="136"/>
-      <c r="CC13" s="136"/>
-      <c r="CD13" s="136"/>
-      <c r="CE13" s="136"/>
-      <c r="CF13" s="136"/>
-      <c r="CG13" s="136"/>
-      <c r="CH13" s="136"/>
-      <c r="CI13" s="136"/>
-      <c r="CJ13" s="136"/>
-      <c r="CK13" s="136"/>
-      <c r="CL13" s="136"/>
-      <c r="CM13" s="136"/>
-      <c r="CN13" s="136"/>
-      <c r="CO13" s="136"/>
-      <c r="CP13" s="136"/>
-      <c r="CQ13" s="136"/>
-      <c r="CR13" s="136"/>
-      <c r="CS13" s="136"/>
-      <c r="CT13" s="136"/>
-      <c r="CU13" s="136"/>
-      <c r="CV13" s="136"/>
-      <c r="CW13" s="136"/>
-      <c r="CX13" s="136"/>
-      <c r="CY13" s="136"/>
-      <c r="CZ13" s="136"/>
-      <c r="DA13" s="136"/>
-      <c r="DB13" s="136"/>
-      <c r="DC13" s="136"/>
-      <c r="DD13" s="136"/>
-      <c r="DE13" s="136"/>
-      <c r="DF13" s="136"/>
-      <c r="DG13" s="136"/>
-      <c r="DH13" s="136"/>
-      <c r="DI13" s="136"/>
-      <c r="DJ13" s="136"/>
-      <c r="DK13" s="136"/>
-      <c r="DL13" s="136"/>
-      <c r="DM13" s="136"/>
-      <c r="DN13" s="136"/>
-      <c r="DO13" s="136"/>
-      <c r="DP13" s="136"/>
-      <c r="DQ13" s="136"/>
-      <c r="DR13" s="136"/>
-      <c r="DS13" s="136"/>
-      <c r="DT13" s="136"/>
-      <c r="DU13" s="136"/>
-      <c r="DV13" s="136"/>
-      <c r="DW13" s="136"/>
-      <c r="DX13" s="136"/>
-      <c r="DY13" s="136"/>
-      <c r="DZ13" s="136"/>
-      <c r="EA13" s="136"/>
-      <c r="EB13" s="136"/>
-      <c r="EC13" s="136"/>
-      <c r="ED13" s="136"/>
-      <c r="EE13" s="136"/>
-    </row>
-    <row r="14" spans="1:135" s="12" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="118" t="s">
+      <c r="D14" s="118" t="s">
         <v>81</v>
-      </c>
-      <c r="C14" s="120" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>83</v>
       </c>
       <c r="E14" s="117"/>
       <c r="F14" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="K14" s="134"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="135"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="135"/>
+      <c r="AJ14" s="135"/>
+      <c r="AK14" s="135"/>
+      <c r="AL14" s="135"/>
+      <c r="AM14" s="135"/>
+      <c r="AN14" s="135"/>
+      <c r="AO14" s="135"/>
+      <c r="AP14" s="135"/>
+      <c r="AQ14" s="135"/>
+      <c r="AR14" s="135"/>
+      <c r="AS14" s="135"/>
+      <c r="AT14" s="135"/>
+      <c r="AU14" s="135"/>
+      <c r="AV14" s="135"/>
+      <c r="AW14" s="135"/>
+      <c r="AX14" s="135"/>
+      <c r="AY14" s="135"/>
+      <c r="AZ14" s="135"/>
+      <c r="BA14" s="135"/>
+      <c r="BB14" s="135"/>
+      <c r="BC14" s="135"/>
+      <c r="BD14" s="135"/>
+      <c r="BE14" s="135"/>
+      <c r="BF14" s="135"/>
+      <c r="BG14" s="135"/>
+      <c r="BH14" s="135"/>
+      <c r="BI14" s="135"/>
+      <c r="BJ14" s="135"/>
+      <c r="BK14" s="135"/>
+      <c r="BL14" s="135"/>
+      <c r="BM14" s="135"/>
+      <c r="BN14" s="135"/>
+      <c r="BO14" s="135"/>
+      <c r="BP14" s="135"/>
+      <c r="BQ14" s="135"/>
+      <c r="BR14" s="135"/>
+      <c r="BS14" s="135"/>
+      <c r="BT14" s="135"/>
+      <c r="BU14" s="135"/>
+      <c r="BV14" s="135"/>
+      <c r="BW14" s="135"/>
+      <c r="BX14" s="135"/>
+      <c r="BY14" s="135"/>
+      <c r="BZ14" s="135"/>
+      <c r="CA14" s="135"/>
+      <c r="CB14" s="135"/>
+      <c r="CC14" s="135"/>
+      <c r="CD14" s="135"/>
+      <c r="CE14" s="135"/>
+      <c r="CF14" s="135"/>
+      <c r="CG14" s="135"/>
+      <c r="CH14" s="135"/>
+      <c r="CI14" s="135"/>
+      <c r="CJ14" s="135"/>
+      <c r="CK14" s="135"/>
+      <c r="CL14" s="135"/>
+      <c r="CM14" s="135"/>
+      <c r="CN14" s="135"/>
+      <c r="CO14" s="135"/>
+      <c r="CP14" s="135"/>
+      <c r="CQ14" s="135"/>
+      <c r="CR14" s="135"/>
+      <c r="CS14" s="135"/>
+      <c r="CT14" s="135"/>
+      <c r="CU14" s="135"/>
+      <c r="CV14" s="135"/>
+      <c r="CW14" s="135"/>
+      <c r="CX14" s="135"/>
+      <c r="CY14" s="135"/>
+      <c r="CZ14" s="135"/>
+      <c r="DA14" s="135"/>
+      <c r="DB14" s="135"/>
+      <c r="DC14" s="135"/>
+      <c r="DD14" s="135"/>
+      <c r="DE14" s="135"/>
+      <c r="DF14" s="135"/>
+      <c r="DG14" s="135"/>
+      <c r="DH14" s="135"/>
+      <c r="DI14" s="135"/>
+      <c r="DJ14" s="135"/>
+      <c r="DK14" s="135"/>
+      <c r="DL14" s="135"/>
+      <c r="DM14" s="135"/>
+      <c r="DN14" s="135"/>
+      <c r="DO14" s="135"/>
+      <c r="DP14" s="135"/>
+      <c r="DQ14" s="135"/>
+      <c r="DR14" s="135"/>
+      <c r="DS14" s="135"/>
+      <c r="DT14" s="135"/>
+      <c r="DU14" s="135"/>
+      <c r="DV14" s="135"/>
+      <c r="DW14" s="135"/>
+      <c r="DX14" s="135"/>
+      <c r="DY14" s="135"/>
+      <c r="DZ14" s="135"/>
+      <c r="EA14" s="135"/>
+      <c r="EB14" s="135"/>
+      <c r="EC14" s="135"/>
+      <c r="ED14" s="135"/>
+      <c r="EE14" s="135"/>
+    </row>
+    <row r="15" spans="1:135" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="119" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="133" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="118" t="s">
+      <c r="C15" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="135"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="136"/>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="136"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="136"/>
-      <c r="AI14" s="136"/>
-      <c r="AJ14" s="136"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="136"/>
-      <c r="AM14" s="136"/>
-      <c r="AN14" s="136"/>
-      <c r="AO14" s="136"/>
-      <c r="AP14" s="136"/>
-      <c r="AQ14" s="136"/>
-      <c r="AR14" s="136"/>
-      <c r="AS14" s="136"/>
-      <c r="AT14" s="136"/>
-      <c r="AU14" s="136"/>
-      <c r="AV14" s="136"/>
-      <c r="AW14" s="136"/>
-      <c r="AX14" s="136"/>
-      <c r="AY14" s="136"/>
-      <c r="AZ14" s="136"/>
-      <c r="BA14" s="136"/>
-      <c r="BB14" s="136"/>
-      <c r="BC14" s="136"/>
-      <c r="BD14" s="136"/>
-      <c r="BE14" s="136"/>
-      <c r="BF14" s="136"/>
-      <c r="BG14" s="136"/>
-      <c r="BH14" s="136"/>
-      <c r="BI14" s="136"/>
-      <c r="BJ14" s="136"/>
-      <c r="BK14" s="136"/>
-      <c r="BL14" s="136"/>
-      <c r="BM14" s="136"/>
-      <c r="BN14" s="136"/>
-      <c r="BO14" s="136"/>
-      <c r="BP14" s="136"/>
-      <c r="BQ14" s="136"/>
-      <c r="BR14" s="136"/>
-      <c r="BS14" s="136"/>
-      <c r="BT14" s="136"/>
-      <c r="BU14" s="136"/>
-      <c r="BV14" s="136"/>
-      <c r="BW14" s="136"/>
-      <c r="BX14" s="136"/>
-      <c r="BY14" s="136"/>
-      <c r="BZ14" s="136"/>
-      <c r="CA14" s="136"/>
-      <c r="CB14" s="136"/>
-      <c r="CC14" s="136"/>
-      <c r="CD14" s="136"/>
-      <c r="CE14" s="136"/>
-      <c r="CF14" s="136"/>
-      <c r="CG14" s="136"/>
-      <c r="CH14" s="136"/>
-      <c r="CI14" s="136"/>
-      <c r="CJ14" s="136"/>
-      <c r="CK14" s="136"/>
-      <c r="CL14" s="136"/>
-      <c r="CM14" s="136"/>
-      <c r="CN14" s="136"/>
-      <c r="CO14" s="136"/>
-      <c r="CP14" s="136"/>
-      <c r="CQ14" s="136"/>
-      <c r="CR14" s="136"/>
-      <c r="CS14" s="136"/>
-      <c r="CT14" s="136"/>
-      <c r="CU14" s="136"/>
-      <c r="CV14" s="136"/>
-      <c r="CW14" s="136"/>
-      <c r="CX14" s="136"/>
-      <c r="CY14" s="136"/>
-      <c r="CZ14" s="136"/>
-      <c r="DA14" s="136"/>
-      <c r="DB14" s="136"/>
-      <c r="DC14" s="136"/>
-      <c r="DD14" s="136"/>
-      <c r="DE14" s="136"/>
-      <c r="DF14" s="136"/>
-      <c r="DG14" s="136"/>
-      <c r="DH14" s="136"/>
-      <c r="DI14" s="136"/>
-      <c r="DJ14" s="136"/>
-      <c r="DK14" s="136"/>
-      <c r="DL14" s="136"/>
-      <c r="DM14" s="136"/>
-      <c r="DN14" s="136"/>
-      <c r="DO14" s="136"/>
-      <c r="DP14" s="136"/>
-      <c r="DQ14" s="136"/>
-      <c r="DR14" s="136"/>
-      <c r="DS14" s="136"/>
-      <c r="DT14" s="136"/>
-      <c r="DU14" s="136"/>
-      <c r="DV14" s="136"/>
-      <c r="DW14" s="136"/>
-      <c r="DX14" s="136"/>
-      <c r="DY14" s="136"/>
-      <c r="DZ14" s="136"/>
-      <c r="EA14" s="136"/>
-      <c r="EB14" s="136"/>
-      <c r="EC14" s="136"/>
-      <c r="ED14" s="136"/>
-      <c r="EE14" s="136"/>
-    </row>
-    <row r="15" spans="1:135" s="12" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="117"/>
       <c r="F15" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="K15" s="134"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="135"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="135"/>
+      <c r="AJ15" s="135"/>
+      <c r="AK15" s="135"/>
+      <c r="AL15" s="135"/>
+      <c r="AM15" s="135"/>
+      <c r="AN15" s="135"/>
+      <c r="AO15" s="135"/>
+      <c r="AP15" s="135"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="135"/>
+      <c r="AS15" s="135"/>
+      <c r="AT15" s="135"/>
+      <c r="AU15" s="135"/>
+      <c r="AV15" s="135"/>
+      <c r="AW15" s="135"/>
+      <c r="AX15" s="135"/>
+      <c r="AY15" s="135"/>
+      <c r="AZ15" s="135"/>
+      <c r="BA15" s="135"/>
+      <c r="BB15" s="135"/>
+      <c r="BC15" s="135"/>
+      <c r="BD15" s="135"/>
+      <c r="BE15" s="135"/>
+      <c r="BF15" s="135"/>
+      <c r="BG15" s="135"/>
+      <c r="BH15" s="135"/>
+      <c r="BI15" s="135"/>
+      <c r="BJ15" s="135"/>
+      <c r="BK15" s="135"/>
+      <c r="BL15" s="135"/>
+      <c r="BM15" s="135"/>
+      <c r="BN15" s="135"/>
+      <c r="BO15" s="135"/>
+      <c r="BP15" s="135"/>
+      <c r="BQ15" s="135"/>
+      <c r="BR15" s="135"/>
+      <c r="BS15" s="135"/>
+      <c r="BT15" s="135"/>
+      <c r="BU15" s="135"/>
+      <c r="BV15" s="135"/>
+      <c r="BW15" s="135"/>
+      <c r="BX15" s="135"/>
+      <c r="BY15" s="135"/>
+      <c r="BZ15" s="135"/>
+      <c r="CA15" s="135"/>
+      <c r="CB15" s="135"/>
+      <c r="CC15" s="135"/>
+      <c r="CD15" s="135"/>
+      <c r="CE15" s="135"/>
+      <c r="CF15" s="135"/>
+      <c r="CG15" s="135"/>
+      <c r="CH15" s="135"/>
+      <c r="CI15" s="135"/>
+      <c r="CJ15" s="135"/>
+      <c r="CK15" s="135"/>
+      <c r="CL15" s="135"/>
+      <c r="CM15" s="135"/>
+      <c r="CN15" s="135"/>
+      <c r="CO15" s="135"/>
+      <c r="CP15" s="135"/>
+      <c r="CQ15" s="135"/>
+      <c r="CR15" s="135"/>
+      <c r="CS15" s="135"/>
+      <c r="CT15" s="135"/>
+      <c r="CU15" s="135"/>
+      <c r="CV15" s="135"/>
+      <c r="CW15" s="135"/>
+      <c r="CX15" s="135"/>
+      <c r="CY15" s="135"/>
+      <c r="CZ15" s="135"/>
+      <c r="DA15" s="135"/>
+      <c r="DB15" s="135"/>
+      <c r="DC15" s="135"/>
+      <c r="DD15" s="135"/>
+      <c r="DE15" s="135"/>
+      <c r="DF15" s="135"/>
+      <c r="DG15" s="135"/>
+      <c r="DH15" s="135"/>
+      <c r="DI15" s="135"/>
+      <c r="DJ15" s="135"/>
+      <c r="DK15" s="135"/>
+      <c r="DL15" s="135"/>
+      <c r="DM15" s="135"/>
+      <c r="DN15" s="135"/>
+      <c r="DO15" s="135"/>
+      <c r="DP15" s="135"/>
+      <c r="DQ15" s="135"/>
+      <c r="DR15" s="135"/>
+      <c r="DS15" s="135"/>
+      <c r="DT15" s="135"/>
+      <c r="DU15" s="135"/>
+      <c r="DV15" s="135"/>
+      <c r="DW15" s="135"/>
+      <c r="DX15" s="135"/>
+      <c r="DY15" s="135"/>
+      <c r="DZ15" s="135"/>
+      <c r="EA15" s="135"/>
+      <c r="EB15" s="135"/>
+      <c r="EC15" s="135"/>
+      <c r="ED15" s="135"/>
+      <c r="EE15" s="135"/>
+    </row>
+    <row r="16" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="133" t="s">
+      <c r="B16" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="123" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="135"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="136"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="136"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="136"/>
-      <c r="AG15" s="136"/>
-      <c r="AH15" s="136"/>
-      <c r="AI15" s="136"/>
-      <c r="AJ15" s="136"/>
-      <c r="AK15" s="136"/>
-      <c r="AL15" s="136"/>
-      <c r="AM15" s="136"/>
-      <c r="AN15" s="136"/>
-      <c r="AO15" s="136"/>
-      <c r="AP15" s="136"/>
-      <c r="AQ15" s="136"/>
-      <c r="AR15" s="136"/>
-      <c r="AS15" s="136"/>
-      <c r="AT15" s="136"/>
-      <c r="AU15" s="136"/>
-      <c r="AV15" s="136"/>
-      <c r="AW15" s="136"/>
-      <c r="AX15" s="136"/>
-      <c r="AY15" s="136"/>
-      <c r="AZ15" s="136"/>
-      <c r="BA15" s="136"/>
-      <c r="BB15" s="136"/>
-      <c r="BC15" s="136"/>
-      <c r="BD15" s="136"/>
-      <c r="BE15" s="136"/>
-      <c r="BF15" s="136"/>
-      <c r="BG15" s="136"/>
-      <c r="BH15" s="136"/>
-      <c r="BI15" s="136"/>
-      <c r="BJ15" s="136"/>
-      <c r="BK15" s="136"/>
-      <c r="BL15" s="136"/>
-      <c r="BM15" s="136"/>
-      <c r="BN15" s="136"/>
-      <c r="BO15" s="136"/>
-      <c r="BP15" s="136"/>
-      <c r="BQ15" s="136"/>
-      <c r="BR15" s="136"/>
-      <c r="BS15" s="136"/>
-      <c r="BT15" s="136"/>
-      <c r="BU15" s="136"/>
-      <c r="BV15" s="136"/>
-      <c r="BW15" s="136"/>
-      <c r="BX15" s="136"/>
-      <c r="BY15" s="136"/>
-      <c r="BZ15" s="136"/>
-      <c r="CA15" s="136"/>
-      <c r="CB15" s="136"/>
-      <c r="CC15" s="136"/>
-      <c r="CD15" s="136"/>
-      <c r="CE15" s="136"/>
-      <c r="CF15" s="136"/>
-      <c r="CG15" s="136"/>
-      <c r="CH15" s="136"/>
-      <c r="CI15" s="136"/>
-      <c r="CJ15" s="136"/>
-      <c r="CK15" s="136"/>
-      <c r="CL15" s="136"/>
-      <c r="CM15" s="136"/>
-      <c r="CN15" s="136"/>
-      <c r="CO15" s="136"/>
-      <c r="CP15" s="136"/>
-      <c r="CQ15" s="136"/>
-      <c r="CR15" s="136"/>
-      <c r="CS15" s="136"/>
-      <c r="CT15" s="136"/>
-      <c r="CU15" s="136"/>
-      <c r="CV15" s="136"/>
-      <c r="CW15" s="136"/>
-      <c r="CX15" s="136"/>
-      <c r="CY15" s="136"/>
-      <c r="CZ15" s="136"/>
-      <c r="DA15" s="136"/>
-      <c r="DB15" s="136"/>
-      <c r="DC15" s="136"/>
-      <c r="DD15" s="136"/>
-      <c r="DE15" s="136"/>
-      <c r="DF15" s="136"/>
-      <c r="DG15" s="136"/>
-      <c r="DH15" s="136"/>
-      <c r="DI15" s="136"/>
-      <c r="DJ15" s="136"/>
-      <c r="DK15" s="136"/>
-      <c r="DL15" s="136"/>
-      <c r="DM15" s="136"/>
-      <c r="DN15" s="136"/>
-      <c r="DO15" s="136"/>
-      <c r="DP15" s="136"/>
-      <c r="DQ15" s="136"/>
-      <c r="DR15" s="136"/>
-      <c r="DS15" s="136"/>
-      <c r="DT15" s="136"/>
-      <c r="DU15" s="136"/>
-      <c r="DV15" s="136"/>
-      <c r="DW15" s="136"/>
-      <c r="DX15" s="136"/>
-      <c r="DY15" s="136"/>
-      <c r="DZ15" s="136"/>
-      <c r="EA15" s="136"/>
-      <c r="EB15" s="136"/>
-      <c r="EC15" s="136"/>
-      <c r="ED15" s="136"/>
-      <c r="EE15" s="136"/>
-    </row>
-    <row r="16" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="56" t="s">
+      <c r="B17" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="E17" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="106" t="s">
+      <c r="F17" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="122" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="123" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="56" t="s">
+      <c r="J17" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="132" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="55" t="s">
+      <c r="B18" s="57" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="C18" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="D18" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="F18" s="127" t="s">
         <v>111</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="127" t="s">
-        <v>113</v>
       </c>
       <c r="G18" s="60" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="129" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="I18" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="55" t="s">
+      <c r="B19" s="58" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="C19" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="D19" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="E19" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="F19" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="G19" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="127" t="s">
+      <c r="H19" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="I19" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="109" t="s">
+    </row>
+    <row r="20" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="55" t="s">
+      <c r="B20" s="58" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="C20" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="D20" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="F20" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="59" t="s">
+      <c r="G20" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="I20" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="131" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="121" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="55" t="s">
+      <c r="B21" s="63" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="C21" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="D21" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="F21" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="64" t="s">
+      <c r="G21" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="59" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="55" t="s">
+      <c r="B22" s="63" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="C22" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="D22" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="F22" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="59" t="s">
+      <c r="G22" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="H22" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="62" t="s">
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="55" t="s">
+      <c r="B23" s="65" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="C23" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="D23" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="E23" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="G23" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="67" t="s">
+      <c r="H23" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="102" t="s">
+      <c r="I23" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="H23" s="72" t="s">
+    </row>
+    <row r="24" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="I23" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="68" t="s">
+      <c r="B24" s="63" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="C24" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="D24" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="F24" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="59" t="s">
+      <c r="G24" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="H24" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="I24" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="109" t="s">
+    </row>
+    <row r="25" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="I24" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="55" t="s">
+      <c r="B25" s="69" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="C25" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="D25" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="F25" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="109" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="59" t="s">
+      <c r="B26" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="C26" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="56" t="s">
+      <c r="I26" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="I29" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H25" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="56" t="s">
+    </row>
+    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="55" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="H29" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="58" t="s">
+    </row>
+    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="B31" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="G30" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="I30" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="C31" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="D31" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="F31" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="59" t="s">
+      <c r="G31" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="H31" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="I31" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="H31" s="109" t="s">
+    </row>
+    <row r="32" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="I31" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="55" t="s">
+      <c r="B32" s="69" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="C32" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="D32" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="F32" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="59" t="s">
+      <c r="G32" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="H32" s="106" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="I32" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="106" t="s">
+      <c r="B33" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="I32" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+      <c r="C33" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="D33" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="F33" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E33" s="59" t="s">
+      <c r="H33" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" s="59" t="s">
+      <c r="I33" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="H33" s="106" t="s">
+      <c r="B34" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="I33" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="C34" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="D34" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>217</v>
-      </c>
       <c r="F34" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G34" s="60" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="106" t="s">
+        <v>216</v>
+      </c>
+      <c r="I34" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="I34" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="C35" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="D35" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="F35" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="59" t="s">
+      <c r="G35" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="106" t="s">
         <v>222</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="I35" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="106" t="s">
+      <c r="J35" s="55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="I35" s="105" t="s">
+      <c r="B36" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="J35" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="C36" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="B36" s="69" t="s">
+      <c r="D36" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>229</v>
-      </c>
       <c r="F36" s="59" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G36" s="60" t="s">
         <v>15</v>
       </c>
       <c r="H36" s="106" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="I36" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="C37" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="D37" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="F37" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="59" t="s">
+      <c r="G37" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="H37" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="I37" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="H37" s="106" t="s">
+      <c r="B38" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="I37" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J37" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="C38" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="D38" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="F38" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="H38" s="109" t="s">
+        <v>235</v>
+      </c>
+      <c r="I38" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="D38" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="59" t="s">
+      <c r="B39" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="F38" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="H38" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="I38" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J38" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="57" t="s">
+      <c r="C39" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="D39" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="E39" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="F39" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="G39" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="F39" s="73" t="s">
+      <c r="H39" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="I39" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="H39" s="70" t="s">
+    </row>
+    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="I39" s="89" t="s">
-        <v>225</v>
-      </c>
-      <c r="J39" s="74" t="s">
+      <c r="B40" s="75" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+      <c r="C40" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="D40" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="E40" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="F40" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="G40" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="F40" s="77" t="s">
+      <c r="H40" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="I40" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="G40" s="75" t="s">
+    </row>
+    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="H40" s="78" t="s">
-        <v>257</v>
-      </c>
-      <c r="I40" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="78" t="s">
+      <c r="B41" s="79" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
+      <c r="C41" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="D41" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="F41" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D41" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41" s="76" t="s">
+      <c r="G41" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="F41" s="77" t="s">
+      <c r="H41" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="G41" s="75" t="s">
+    </row>
+    <row r="42" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="H41" s="78" t="s">
-        <v>264</v>
-      </c>
-      <c r="I41" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J41" s="78" t="s">
+      <c r="B42" s="75" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+      <c r="C42" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="D42" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="F42" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="D42" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" s="76" t="s">
+      <c r="G42" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="F42" s="77" t="s">
+      <c r="H42" s="78" t="s">
         <v>270</v>
       </c>
-      <c r="G42" s="75" t="s">
+      <c r="I42" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="H42" s="78" t="s">
+    </row>
+    <row r="43" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="I42" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J42" s="78" t="s">
+      <c r="B43" s="75" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
+      <c r="C43" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="D43" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="E43" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="F43" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="E43" s="80" t="s">
+      <c r="G43" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="H43" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="G43" s="75" t="s">
+      <c r="I43" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="H43" s="78" t="s">
+    </row>
+    <row r="44" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="I43" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" s="78" t="s">
+      <c r="B44" s="75" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
+      <c r="C44" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="B44" s="75" t="s">
+      <c r="D44" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="E44" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="F44" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="E44" s="80" t="s">
+      <c r="G44" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="77" t="s">
+      <c r="H44" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="G44" s="79" t="s">
+      <c r="I44" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="81" t="s">
         <v>289</v>
       </c>
-      <c r="H44" s="78" t="s">
+      <c r="B45" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="I44" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="J44" s="78" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="81" t="s">
+      <c r="C45" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="D45" s="82" t="s">
         <v>292</v>
-      </c>
-      <c r="C45" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>294</v>
       </c>
       <c r="E45" s="83"/>
       <c r="F45" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="H45" s="84" t="s">
         <v>295</v>
       </c>
-      <c r="G45" s="82" t="s">
+      <c r="I45" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="H45" s="84" t="s">
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="I45" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J45" s="82" t="s">
+      <c r="B46" s="82" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="81" t="s">
+      <c r="C46" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="B46" s="82" t="s">
+      <c r="D46" s="82" t="s">
         <v>300</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>302</v>
       </c>
       <c r="E46" s="83"/>
       <c r="F46" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="82" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="G46" s="82" t="s">
+      <c r="I46" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" s="82" t="s">
         <v>304</v>
       </c>
-      <c r="H46" s="111" t="s">
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="I46" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="J46" s="82" t="s">
+      <c r="B47" s="39" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38" t="s">
+      <c r="C47" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="D47" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>310</v>
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="H47" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="I47" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J47" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="H47" s="41" t="s">
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="I47" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J47" s="40" t="s">
+      <c r="B48" s="42" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
+      <c r="C48" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="D48" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="E48" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="F48" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="G48" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="H48" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="G48" s="38" t="s">
+      <c r="I48" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" s="40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="B49" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="I48" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J48" s="40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+      <c r="C49" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>325</v>
-      </c>
       <c r="D49" s="40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E49" s="40"/>
       <c r="F49" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="I49" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="B50" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="I49" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" s="40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
+      <c r="C50" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="D50" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="E50" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G50" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="H50" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="E50" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G50" s="43" t="s">
+      <c r="I50" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="H50" s="42" t="s">
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="I50" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J50" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
+      <c r="C51" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="D51" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E51" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="F51" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="H51" s="99" t="s">
+        <v>339</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="F52" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="E51" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="H51" s="99" t="s">
-        <v>341</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="J51" s="40" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="40" t="s">
+      <c r="G52" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="H52" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="E52" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="40" t="s">
+      <c r="I52" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="H52" s="41" t="s">
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="I52" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J52" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+      <c r="C53" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="D53" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="F53" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="H53" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="I53" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B54" s="93" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="D54" s="94" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="F54" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="E53" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="I53" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J53" s="40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="B54" s="93" t="s">
-        <v>356</v>
-      </c>
-      <c r="C54" s="40" t="s">
+      <c r="G54" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="H54" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="I54" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>316</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F55" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="E54" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G54" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="H54" s="95" t="s">
-        <v>360</v>
-      </c>
-      <c r="I54" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="J54" s="88" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="B55" s="93" t="s">
-        <v>362</v>
-      </c>
-      <c r="C55" s="40" t="s">
+      <c r="G55" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="D55" s="94" t="s">
+      <c r="H55" s="96" t="s">
+        <v>364</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J55" s="88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B56" s="93" t="s">
+        <v>366</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="D56" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="F56" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="E55" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G55" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="H55" s="96" t="s">
-        <v>366</v>
-      </c>
-      <c r="I55" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="J55" s="88" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="B56" s="93" t="s">
-        <v>368</v>
-      </c>
-      <c r="C56" s="40" t="s">
+      <c r="G56" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="D56" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="E56" s="40" t="s">
+      <c r="H56" s="110" t="s">
         <v>370</v>
       </c>
-      <c r="F56" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G56" s="44" t="s">
+      <c r="I56" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J56" s="88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="H56" s="110" t="s">
+      <c r="B57" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="I56" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="J56" s="88" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="38" t="s">
+      <c r="C57" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>375</v>
-      </c>
       <c r="D57" s="40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="H57" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="G57" s="44" t="s">
+      <c r="I57" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" s="88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="B58" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="I57" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J57" s="88" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="C58" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="D58" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E58" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="F58" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G58" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="D58" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="E58" s="40" t="s">
+      <c r="H58" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="F58" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G58" s="44" t="s">
+      <c r="I58" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" s="88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="94" t="s">
         <v>383</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="B59" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="I58" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="J58" s="88" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="94" t="s">
+      <c r="C59" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="D59" s="40" t="s">
         <v>386</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>388</v>
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="41"/>
       <c r="G59" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I59" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="J59" s="88" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="94" t="s">
+        <v>388</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G60" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="H60" s="99" t="s">
+        <v>392</v>
+      </c>
+      <c r="I60" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="J60" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="H59" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="I59" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="J59" s="88" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="94" t="s">
-        <v>390</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" s="40" t="s">
+    </row>
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="94" t="s">
+        <v>388</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="F61" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="E60" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G60" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="H60" s="99" t="s">
-        <v>394</v>
-      </c>
-      <c r="I60" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="J60" s="88" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="94" t="s">
-        <v>390</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>356</v>
-      </c>
-      <c r="C61" s="40" t="s">
+      <c r="G61" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="D61" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="E61" s="40" t="s">
+      <c r="H61" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J61" s="88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="139" t="s">
         <v>396</v>
       </c>
-      <c r="F61" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G61" s="44" t="s">
+      <c r="B62" s="138" t="s">
         <v>397</v>
       </c>
-      <c r="H61" s="99" t="s">
-        <v>372</v>
-      </c>
-      <c r="I61" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="J61" s="88" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="140" t="s">
+      <c r="C62" s="139" t="s">
         <v>398</v>
       </c>
-      <c r="B62" s="139" t="s">
+      <c r="D62" s="140" t="s">
         <v>399</v>
       </c>
-      <c r="C62" s="140" t="s">
+      <c r="E62" s="141" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="138" t="s">
         <v>400</v>
       </c>
-      <c r="D62" s="141" t="s">
+      <c r="G62" s="142" t="s">
         <v>401</v>
       </c>
-      <c r="E62" s="142" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="139" t="s">
+      <c r="H62" s="143" t="s">
+        <v>586</v>
+      </c>
+      <c r="I62" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" s="149" t="s">
         <v>402</v>
       </c>
-      <c r="G62" s="143" t="s">
+    </row>
+    <row r="63" spans="1:18" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="139" t="s">
         <v>403</v>
       </c>
-      <c r="H62" s="144" t="s">
-        <v>590</v>
-      </c>
-      <c r="I62" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="J62" s="150" t="s">
+      <c r="B63" s="144" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="140" t="s">
+      <c r="C63" s="138" t="s">
         <v>405</v>
       </c>
-      <c r="B63" s="145" t="s">
+      <c r="D63" s="140" t="s">
         <v>406</v>
       </c>
-      <c r="C63" s="139" t="s">
+      <c r="E63" s="141" t="s">
         <v>407</v>
       </c>
-      <c r="D63" s="141" t="s">
+      <c r="F63" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="G63" s="142" t="s">
+        <v>587</v>
+      </c>
+      <c r="H63" s="145" t="s">
+        <v>587</v>
+      </c>
+      <c r="I63" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="J63" s="149" t="s">
         <v>408</v>
       </c>
-      <c r="E63" s="142" t="s">
+    </row>
+    <row r="64" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="139" t="s">
         <v>409</v>
       </c>
-      <c r="F63" s="139" t="s">
-        <v>402</v>
-      </c>
-      <c r="G63" s="143" t="s">
+      <c r="B64" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="C64" s="138" t="s">
+        <v>411</v>
+      </c>
+      <c r="D64" s="140" t="s">
+        <v>412</v>
+      </c>
+      <c r="E64" s="146" t="s">
+        <v>413</v>
+      </c>
+      <c r="F64" s="146" t="s">
+        <v>414</v>
+      </c>
+      <c r="G64" s="146" t="s">
+        <v>415</v>
+      </c>
+      <c r="H64" s="145" t="s">
+        <v>588</v>
+      </c>
+      <c r="I64" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="149" t="s">
+        <v>416</v>
+      </c>
+      <c r="K64" s="135"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
+      <c r="N64" s="135"/>
+      <c r="O64" s="135"/>
+      <c r="P64" s="135"/>
+      <c r="Q64" s="135"/>
+      <c r="R64" s="135"/>
+    </row>
+    <row r="65" spans="1:18" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="139" t="s">
+        <v>417</v>
+      </c>
+      <c r="B65" s="144" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" s="138" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" s="140" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="146" t="s">
+        <v>421</v>
+      </c>
+      <c r="F65" s="146" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" s="146" t="s">
+        <v>423</v>
+      </c>
+      <c r="H65" s="145" t="s">
+        <v>423</v>
+      </c>
+      <c r="I65" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="149" t="s">
+        <v>424</v>
+      </c>
+      <c r="K65" s="135"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
+      <c r="N65" s="135"/>
+      <c r="O65" s="135"/>
+      <c r="P65" s="135"/>
+      <c r="Q65" s="135"/>
+      <c r="R65" s="135"/>
+    </row>
+    <row r="66" spans="1:18" s="11" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="139" t="s">
+        <v>425</v>
+      </c>
+      <c r="B66" s="144" t="s">
+        <v>418</v>
+      </c>
+      <c r="C66" s="138" t="s">
+        <v>426</v>
+      </c>
+      <c r="D66" s="140" t="s">
+        <v>427</v>
+      </c>
+      <c r="E66" s="146" t="s">
+        <v>428</v>
+      </c>
+      <c r="F66" s="146" t="s">
+        <v>429</v>
+      </c>
+      <c r="G66" s="146" t="s">
+        <v>423</v>
+      </c>
+      <c r="H66" s="145" t="s">
+        <v>423</v>
+      </c>
+      <c r="I66" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" s="149" t="s">
+        <v>424</v>
+      </c>
+      <c r="K66" s="135"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="135"/>
+      <c r="N66" s="135"/>
+      <c r="O66" s="135"/>
+      <c r="P66" s="135"/>
+      <c r="Q66" s="135"/>
+      <c r="R66" s="135"/>
+    </row>
+    <row r="67" spans="1:18" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="139" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" s="144" t="s">
         <v>591</v>
       </c>
-      <c r="H63" s="146" t="s">
-        <v>591</v>
-      </c>
-      <c r="I63" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="J63" s="150" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="140" t="s">
-        <v>411</v>
-      </c>
-      <c r="B64" s="145" t="s">
-        <v>412</v>
-      </c>
-      <c r="C64" s="139" t="s">
-        <v>413</v>
-      </c>
-      <c r="D64" s="141" t="s">
-        <v>414</v>
-      </c>
-      <c r="E64" s="147" t="s">
-        <v>415</v>
-      </c>
-      <c r="F64" s="147" t="s">
-        <v>416</v>
-      </c>
-      <c r="G64" s="147" t="s">
-        <v>417</v>
-      </c>
-      <c r="H64" s="146" t="s">
+      <c r="C67" s="144" t="s">
         <v>592</v>
       </c>
-      <c r="I64" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="J64" s="150" t="s">
-        <v>418</v>
-      </c>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="136"/>
-      <c r="O64" s="136"/>
-      <c r="P64" s="136"/>
-      <c r="Q64" s="136"/>
-      <c r="R64" s="136"/>
-    </row>
-    <row r="65" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="140" t="s">
-        <v>419</v>
-      </c>
-      <c r="B65" s="145" t="s">
-        <v>420</v>
-      </c>
-      <c r="C65" s="139" t="s">
-        <v>421</v>
-      </c>
-      <c r="D65" s="141" t="s">
-        <v>422</v>
-      </c>
-      <c r="E65" s="147" t="s">
-        <v>423</v>
-      </c>
-      <c r="F65" s="147" t="s">
-        <v>424</v>
-      </c>
-      <c r="G65" s="147" t="s">
-        <v>425</v>
-      </c>
-      <c r="H65" s="146" t="s">
-        <v>425</v>
-      </c>
-      <c r="I65" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="J65" s="150" t="s">
-        <v>426</v>
-      </c>
-      <c r="K65" s="136"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
-      <c r="N65" s="136"/>
-      <c r="O65" s="136"/>
-      <c r="P65" s="136"/>
-      <c r="Q65" s="136"/>
-      <c r="R65" s="136"/>
-    </row>
-    <row r="66" spans="1:18" s="11" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="140" t="s">
-        <v>427</v>
-      </c>
-      <c r="B66" s="145" t="s">
-        <v>420</v>
-      </c>
-      <c r="C66" s="139" t="s">
-        <v>428</v>
-      </c>
-      <c r="D66" s="141" t="s">
-        <v>429</v>
-      </c>
-      <c r="E66" s="147" t="s">
-        <v>430</v>
-      </c>
-      <c r="F66" s="147" t="s">
+      <c r="D67" s="140" t="s">
         <v>431</v>
       </c>
-      <c r="G66" s="147" t="s">
-        <v>425</v>
-      </c>
-      <c r="H66" s="146" t="s">
-        <v>425</v>
-      </c>
-      <c r="I66" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="J66" s="150" t="s">
-        <v>426</v>
-      </c>
-      <c r="K66" s="136"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
-      <c r="N66" s="136"/>
-      <c r="O66" s="136"/>
-      <c r="P66" s="136"/>
-      <c r="Q66" s="136"/>
-      <c r="R66" s="136"/>
-    </row>
-    <row r="67" spans="1:18" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="140" t="s">
+      <c r="E67" s="146" t="s">
         <v>432</v>
       </c>
-      <c r="B67" s="145" t="s">
-        <v>595</v>
-      </c>
-      <c r="C67" s="145" t="s">
-        <v>596</v>
-      </c>
-      <c r="D67" s="141" t="s">
+      <c r="F67" s="146" t="s">
         <v>433</v>
       </c>
-      <c r="E67" s="147" t="s">
+      <c r="G67" s="146" t="s">
+        <v>593</v>
+      </c>
+      <c r="H67" s="145" t="s">
+        <v>594</v>
+      </c>
+      <c r="I67" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="J67" s="149" t="s">
         <v>434</v>
       </c>
-      <c r="F67" s="147" t="s">
+      <c r="K67" s="135"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
+      <c r="N67" s="135"/>
+      <c r="O67" s="135"/>
+      <c r="P67" s="135"/>
+      <c r="Q67" s="135"/>
+      <c r="R67" s="135"/>
+    </row>
+    <row r="68" spans="1:18" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="139" t="s">
         <v>435</v>
       </c>
-      <c r="G67" s="147" t="s">
-        <v>597</v>
-      </c>
-      <c r="H67" s="146" t="s">
-        <v>598</v>
-      </c>
-      <c r="I67" s="151" t="s">
-        <v>100</v>
-      </c>
-      <c r="J67" s="150" t="s">
+      <c r="B68" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="K67" s="136"/>
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-      <c r="N67" s="136"/>
-      <c r="O67" s="136"/>
-      <c r="P67" s="136"/>
-      <c r="Q67" s="136"/>
-      <c r="R67" s="136"/>
-    </row>
-    <row r="68" spans="1:18" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="140" t="s">
+      <c r="C68" s="147" t="s">
         <v>437</v>
       </c>
-      <c r="B68" s="147" t="s">
+      <c r="D68" s="147" t="s">
         <v>438</v>
       </c>
-      <c r="C68" s="148" t="s">
+      <c r="E68" s="148" t="s">
         <v>439</v>
       </c>
-      <c r="D68" s="148" t="s">
+      <c r="F68" s="146" t="s">
         <v>440</v>
       </c>
-      <c r="E68" s="149" t="s">
+      <c r="G68" s="146" t="s">
         <v>441</v>
       </c>
-      <c r="F68" s="147" t="s">
+      <c r="H68" s="145" t="s">
+        <v>589</v>
+      </c>
+      <c r="I68" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" s="148" t="s">
         <v>442</v>
       </c>
-      <c r="G68" s="147" t="s">
+      <c r="K68" s="135"/>
+      <c r="L68" s="135"/>
+      <c r="M68" s="135"/>
+      <c r="N68" s="135"/>
+      <c r="O68" s="135"/>
+      <c r="P68" s="135"/>
+      <c r="Q68" s="135"/>
+      <c r="R68" s="135"/>
+    </row>
+    <row r="69" spans="1:18" s="12" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="H68" s="146" t="s">
-        <v>593</v>
-      </c>
-      <c r="I68" s="151" t="s">
-        <v>100</v>
-      </c>
-      <c r="J68" s="149" t="s">
+      <c r="B69" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="K68" s="136"/>
-      <c r="L68" s="136"/>
-      <c r="M68" s="136"/>
-      <c r="N68" s="136"/>
-      <c r="O68" s="136"/>
-      <c r="P68" s="136"/>
-      <c r="Q68" s="136"/>
-      <c r="R68" s="136"/>
-    </row>
-    <row r="69" spans="1:18" s="12" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="47" t="s">
+      <c r="C69" s="48" t="s">
         <v>445</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="D69" s="49" t="s">
         <v>446</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>448</v>
       </c>
       <c r="E69" s="50"/>
       <c r="F69" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>590</v>
+      </c>
+      <c r="I69" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="G69" s="49" t="s">
+      <c r="K69" s="135"/>
+      <c r="L69" s="135"/>
+      <c r="M69" s="135"/>
+      <c r="N69" s="135"/>
+      <c r="O69" s="135"/>
+      <c r="P69" s="135"/>
+      <c r="Q69" s="135"/>
+      <c r="R69" s="135"/>
+    </row>
+    <row r="70" spans="1:18" s="14" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="H69" s="50" t="s">
-        <v>594</v>
-      </c>
-      <c r="I69" s="152" t="s">
-        <v>100</v>
-      </c>
-      <c r="J69" s="51" t="s">
+      <c r="B70" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="D70" s="49" t="s">
         <v>451</v>
-      </c>
-      <c r="K69" s="136"/>
-      <c r="L69" s="136"/>
-      <c r="M69" s="136"/>
-      <c r="N69" s="136"/>
-      <c r="O69" s="136"/>
-      <c r="P69" s="136"/>
-      <c r="Q69" s="136"/>
-      <c r="R69" s="136"/>
-    </row>
-    <row r="70" spans="1:18" s="14" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="D70" s="49" t="s">
-        <v>453</v>
       </c>
       <c r="E70" s="52"/>
       <c r="F70" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" s="136" t="s">
+        <v>453</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="I70" s="152" t="s">
+        <v>98</v>
+      </c>
+      <c r="J70" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K70" s="135"/>
+      <c r="L70" s="135"/>
+      <c r="M70" s="135"/>
+      <c r="N70" s="135"/>
+      <c r="O70" s="135"/>
+      <c r="P70" s="135"/>
+      <c r="Q70" s="135"/>
+      <c r="R70" s="135"/>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="G70" s="137" t="s">
+      <c r="B71" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="H70" s="52" t="s">
-        <v>455</v>
-      </c>
-      <c r="I70" s="153" t="s">
-        <v>100</v>
-      </c>
-      <c r="J70" s="51" t="s">
-        <v>451</v>
-      </c>
-      <c r="K70" s="136"/>
-      <c r="L70" s="136"/>
-      <c r="M70" s="136"/>
-      <c r="N70" s="136"/>
-      <c r="O70" s="136"/>
-      <c r="P70" s="136"/>
-      <c r="Q70" s="136"/>
-      <c r="R70" s="136"/>
-    </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="C71" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="D71" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="E71" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="F71" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="G71" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="H71" s="92" t="s">
         <v>461</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="I71" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="H71" s="92" t="s">
+      <c r="K71" s="135"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="135"/>
+      <c r="N71" s="135"/>
+      <c r="O71" s="135"/>
+      <c r="P71" s="135"/>
+      <c r="Q71" s="135"/>
+      <c r="R71" s="135"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="I71" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="J71" s="15" t="s">
+      <c r="B72" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="K71" s="136"/>
-      <c r="L71" s="136"/>
-      <c r="M71" s="136"/>
-      <c r="N71" s="136"/>
-      <c r="O71" s="136"/>
-      <c r="P71" s="136"/>
-      <c r="Q71" s="136"/>
-      <c r="R71" s="136"/>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="C72" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="D72" s="15" t="s">
         <v>466</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>468</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="H72" s="92" t="s">
         <v>469</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="I72" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="J72" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="H72" s="92" t="s">
+      <c r="K72" s="135"/>
+      <c r="L72" s="135"/>
+      <c r="M72" s="135"/>
+      <c r="N72" s="135"/>
+      <c r="O72" s="135"/>
+      <c r="P72" s="135"/>
+      <c r="Q72" s="135"/>
+      <c r="R72" s="135"/>
+    </row>
+    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="I72" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="J72" s="15" t="s">
+      <c r="B73" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="K72" s="136"/>
-      <c r="L72" s="136"/>
-      <c r="M72" s="136"/>
-      <c r="N72" s="136"/>
-      <c r="O72" s="136"/>
-      <c r="P72" s="136"/>
-      <c r="Q72" s="136"/>
-      <c r="R72" s="136"/>
-    </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="C73" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="D73" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="G73" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F73" s="17" t="s">
+      <c r="H73" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="I73" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="J73" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="K73" s="135"/>
+      <c r="L73" s="135"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="135"/>
+      <c r="O73" s="135"/>
+      <c r="P73" s="135"/>
+      <c r="Q73" s="135"/>
+      <c r="R73" s="135"/>
+    </row>
+    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="I73" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="J73" s="15" t="s">
+      <c r="B74" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="K73" s="136"/>
-      <c r="L73" s="136"/>
-      <c r="M73" s="136"/>
-      <c r="N73" s="136"/>
-      <c r="O73" s="136"/>
-      <c r="P73" s="136"/>
-      <c r="Q73" s="136"/>
-      <c r="R73" s="136"/>
-    </row>
-    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="G74" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F74" s="17" t="s">
+      <c r="H74" s="92" t="s">
         <v>481</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="I74" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" s="108" t="s">
+        <v>477</v>
+      </c>
+      <c r="K74" s="135"/>
+      <c r="L74" s="135"/>
+      <c r="M74" s="135"/>
+      <c r="N74" s="135"/>
+      <c r="O74" s="135"/>
+      <c r="P74" s="135"/>
+      <c r="Q74" s="135"/>
+      <c r="R74" s="135"/>
+    </row>
+    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="H74" s="92" t="s">
+      <c r="B75" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="I74" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="J74" s="108" t="s">
-        <v>479</v>
-      </c>
-      <c r="K74" s="136"/>
-      <c r="L74" s="136"/>
-      <c r="M74" s="136"/>
-      <c r="N74" s="136"/>
-      <c r="O74" s="136"/>
-      <c r="P74" s="136"/>
-      <c r="Q74" s="136"/>
-      <c r="R74" s="136"/>
-    </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="C75" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>486</v>
-      </c>
       <c r="D75" s="15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="H75" s="92" t="s">
         <v>487</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="I75" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="J75" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="H75" s="92" t="s">
+      <c r="K75" s="135"/>
+      <c r="L75" s="135"/>
+      <c r="M75" s="135"/>
+      <c r="N75" s="135"/>
+      <c r="O75" s="135"/>
+      <c r="P75" s="135"/>
+      <c r="Q75" s="135"/>
+      <c r="R75" s="135"/>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="I75" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="J75" s="15" t="s">
+      <c r="B76" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="K75" s="136"/>
-      <c r="L75" s="136"/>
-      <c r="M75" s="136"/>
-      <c r="N75" s="136"/>
-      <c r="O75" s="136"/>
-      <c r="P75" s="136"/>
-      <c r="Q75" s="136"/>
-      <c r="R75" s="136"/>
-    </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="D76" s="107" t="s">
+        <v>466</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="F76" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D76" s="107" t="s">
-        <v>468</v>
-      </c>
-      <c r="E76" s="16" t="s">
+      <c r="G76" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="H76" s="92" t="s">
+        <v>481</v>
+      </c>
+      <c r="I76" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="K76" s="135"/>
+      <c r="L76" s="135"/>
+      <c r="M76" s="135"/>
+      <c r="N76" s="135"/>
+      <c r="O76" s="135"/>
+      <c r="P76" s="135"/>
+      <c r="Q76" s="135"/>
+      <c r="R76" s="135"/>
+    </row>
+    <row r="77" spans="1:18" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="G76" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="H76" s="92" t="s">
-        <v>483</v>
-      </c>
-      <c r="I76" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="J76" s="22" t="s">
+      <c r="B77" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="K76" s="136"/>
-      <c r="L76" s="136"/>
-      <c r="M76" s="136"/>
-      <c r="N76" s="136"/>
-      <c r="O76" s="136"/>
-      <c r="P76" s="136"/>
-      <c r="Q76" s="136"/>
-      <c r="R76" s="136"/>
-    </row>
-    <row r="77" spans="1:18" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="C77" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="D77" s="31" t="s">
         <v>498</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>500</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="H77" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="23" t="s">
+      <c r="I77" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J77" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="H77" s="37" t="s">
+      <c r="K77" s="135"/>
+      <c r="L77" s="135"/>
+      <c r="M77" s="135"/>
+      <c r="N77" s="135"/>
+      <c r="O77" s="135"/>
+      <c r="P77" s="135"/>
+      <c r="Q77" s="135"/>
+      <c r="R77" s="135"/>
+    </row>
+    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="I77" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="J77" s="32" t="s">
+      <c r="B78" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="K77" s="136"/>
-      <c r="L77" s="136"/>
-      <c r="M77" s="136"/>
-      <c r="N77" s="136"/>
-      <c r="O77" s="136"/>
-      <c r="P77" s="136"/>
-      <c r="Q77" s="136"/>
-      <c r="R77" s="136"/>
-    </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="C78" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="B78" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>507</v>
-      </c>
       <c r="D78" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="H78" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="G78" s="23" t="s">
+      <c r="I78" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J78" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="H78" s="36" t="s">
+      <c r="K78" s="135"/>
+      <c r="L78" s="135"/>
+      <c r="M78" s="135"/>
+      <c r="N78" s="135"/>
+      <c r="O78" s="135"/>
+      <c r="P78" s="135"/>
+      <c r="Q78" s="135"/>
+      <c r="R78" s="135"/>
+    </row>
+    <row r="79" spans="1:18" s="12" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="I78" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J78" s="26" t="s">
+      <c r="B79" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="K78" s="136"/>
-      <c r="L78" s="136"/>
-      <c r="M78" s="136"/>
-      <c r="N78" s="136"/>
-      <c r="O78" s="136"/>
-      <c r="P78" s="136"/>
-      <c r="Q78" s="136"/>
-      <c r="R78" s="136"/>
-    </row>
-    <row r="79" spans="1:18" s="12" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+      <c r="C79" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="B79" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>514</v>
-      </c>
       <c r="D79" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="H79" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="G79" s="24" t="s">
+      <c r="I79" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J79" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="K79" s="135"/>
+      <c r="L79" s="135"/>
+      <c r="M79" s="135"/>
+      <c r="N79" s="135"/>
+      <c r="O79" s="135"/>
+      <c r="P79" s="135"/>
+      <c r="Q79" s="135"/>
+      <c r="R79" s="135"/>
+    </row>
+    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="I79" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J79" s="26" t="s">
+      <c r="B80" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="K79" s="136"/>
-      <c r="L79" s="136"/>
-      <c r="M79" s="136"/>
-      <c r="N79" s="136"/>
-      <c r="O79" s="136"/>
-      <c r="P79" s="136"/>
-      <c r="Q79" s="136"/>
-      <c r="R79" s="136"/>
-    </row>
-    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="C80" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="B80" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>521</v>
-      </c>
       <c r="D80" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="H80" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="G80" s="27" t="s">
+      <c r="I80" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J80" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="H80" s="25" t="s">
+      <c r="K80" s="135"/>
+      <c r="L80" s="135"/>
+      <c r="M80" s="135"/>
+      <c r="N80" s="135"/>
+      <c r="O80" s="135"/>
+      <c r="P80" s="135"/>
+      <c r="Q80" s="135"/>
+      <c r="R80" s="135"/>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="I80" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J80" s="26" t="s">
+      <c r="B81" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="K80" s="136"/>
-      <c r="L80" s="136"/>
-      <c r="M80" s="136"/>
-      <c r="N80" s="136"/>
-      <c r="O80" s="136"/>
-      <c r="P80" s="136"/>
-      <c r="Q80" s="136"/>
-      <c r="R80" s="136"/>
-    </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="28" t="s">
+      <c r="C81" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="B81" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>528</v>
-      </c>
       <c r="D81" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="H81" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="I81" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J81" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="H81" s="36" t="s">
+      <c r="K81" s="135"/>
+      <c r="L81" s="135"/>
+      <c r="M81" s="135"/>
+      <c r="N81" s="135"/>
+      <c r="O81" s="135"/>
+      <c r="P81" s="135"/>
+      <c r="Q81" s="135"/>
+      <c r="R81" s="135"/>
+    </row>
+    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
         <v>531</v>
       </c>
-      <c r="I81" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J81" s="28" t="s">
+      <c r="B82" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="K81" s="136"/>
-      <c r="L81" s="136"/>
-      <c r="M81" s="136"/>
-      <c r="N81" s="136"/>
-      <c r="O81" s="136"/>
-      <c r="P81" s="136"/>
-      <c r="Q81" s="136"/>
-      <c r="R81" s="136"/>
-    </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="28" t="s">
+      <c r="C82" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="B82" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>535</v>
-      </c>
       <c r="D82" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="H82" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="G82" s="29" t="s">
+      <c r="I82" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J82" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="H82" s="25" t="s">
+      <c r="K82" s="135"/>
+      <c r="L82" s="135"/>
+      <c r="M82" s="135"/>
+      <c r="N82" s="135"/>
+      <c r="O82" s="135"/>
+      <c r="P82" s="135"/>
+      <c r="Q82" s="135"/>
+      <c r="R82" s="135"/>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="I82" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J82" s="28" t="s">
+      <c r="B83" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="K82" s="136"/>
-      <c r="L82" s="136"/>
-      <c r="M82" s="136"/>
-      <c r="N82" s="136"/>
-      <c r="O82" s="136"/>
-      <c r="P82" s="136"/>
-      <c r="Q82" s="136"/>
-      <c r="R82" s="136"/>
-    </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="28" t="s">
+      <c r="C83" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="B83" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>542</v>
-      </c>
       <c r="D83" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="H83" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="I83" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="H83" s="36" t="s">
+      <c r="K83" s="135"/>
+      <c r="L83" s="135"/>
+      <c r="M83" s="135"/>
+      <c r="N83" s="135"/>
+      <c r="O83" s="135"/>
+      <c r="P83" s="135"/>
+      <c r="Q83" s="135"/>
+      <c r="R83" s="135"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="I83" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="J83" s="28" t="s">
+      <c r="B84" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="K83" s="136"/>
-      <c r="L83" s="136"/>
-      <c r="M83" s="136"/>
-      <c r="N83" s="136"/>
-      <c r="O83" s="136"/>
-      <c r="P83" s="136"/>
-      <c r="Q83" s="136"/>
-      <c r="R83" s="136"/>
-    </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="C84" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="B84" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>549</v>
-      </c>
       <c r="D84" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="H84" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="I84" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="J84" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="H84" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="I84" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="J84" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="K84" s="136"/>
-      <c r="L84" s="136"/>
-      <c r="M84" s="136"/>
-      <c r="N84" s="136"/>
-      <c r="O84" s="136"/>
-      <c r="P84" s="136"/>
-      <c r="Q84" s="136"/>
-      <c r="R84" s="136"/>
-    </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="135"/>
+      <c r="L84" s="135"/>
+      <c r="M84" s="135"/>
+      <c r="N84" s="135"/>
+      <c r="O84" s="135"/>
+      <c r="P84" s="135"/>
+      <c r="Q84" s="135"/>
+      <c r="R84" s="135"/>
+    </row>
+    <row r="85" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -6646,16 +6629,16 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="136"/>
-      <c r="L85" s="136"/>
-      <c r="M85" s="136"/>
-      <c r="N85" s="136"/>
-      <c r="O85" s="136"/>
-      <c r="P85" s="136"/>
-      <c r="Q85" s="136"/>
-      <c r="R85" s="136"/>
-    </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K85" s="135"/>
+      <c r="L85" s="135"/>
+      <c r="M85" s="135"/>
+      <c r="N85" s="135"/>
+      <c r="O85" s="135"/>
+      <c r="P85" s="135"/>
+      <c r="Q85" s="135"/>
+      <c r="R85" s="135"/>
+    </row>
+    <row r="86" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -6666,16 +6649,16 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="136"/>
-      <c r="L86" s="136"/>
-      <c r="M86" s="136"/>
-      <c r="N86" s="136"/>
-      <c r="O86" s="136"/>
-      <c r="P86" s="136"/>
-      <c r="Q86" s="136"/>
-      <c r="R86" s="136"/>
-    </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K86" s="135"/>
+      <c r="L86" s="135"/>
+      <c r="M86" s="135"/>
+      <c r="N86" s="135"/>
+      <c r="O86" s="135"/>
+      <c r="P86" s="135"/>
+      <c r="Q86" s="135"/>
+      <c r="R86" s="135"/>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -6686,16 +6669,16 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="136"/>
-      <c r="L87" s="136"/>
-      <c r="M87" s="136"/>
-      <c r="N87" s="136"/>
-      <c r="O87" s="136"/>
-      <c r="P87" s="136"/>
-      <c r="Q87" s="136"/>
-      <c r="R87" s="136"/>
-    </row>
-    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K87" s="135"/>
+      <c r="L87" s="135"/>
+      <c r="M87" s="135"/>
+      <c r="N87" s="135"/>
+      <c r="O87" s="135"/>
+      <c r="P87" s="135"/>
+      <c r="Q87" s="135"/>
+      <c r="R87" s="135"/>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -6706,10 +6689,10 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="Q88" s="136"/>
-      <c r="R88" s="136"/>
-    </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q88" s="135"/>
+      <c r="R88" s="135"/>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -6720,10 +6703,10 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-      <c r="Q89" s="136"/>
-      <c r="R89" s="136"/>
-    </row>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q89" s="135"/>
+      <c r="R89" s="135"/>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6734,10 +6717,10 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="Q90" s="136"/>
-      <c r="R90" s="136"/>
-    </row>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q90" s="135"/>
+      <c r="R90" s="135"/>
+    </row>
+    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -6748,10 +6731,10 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="Q91" s="136"/>
-      <c r="R91" s="136"/>
-    </row>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q91" s="135"/>
+      <c r="R91" s="135"/>
+    </row>
+    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -6762,10 +6745,10 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-      <c r="Q92" s="136"/>
-      <c r="R92" s="136"/>
-    </row>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q92" s="135"/>
+      <c r="R92" s="135"/>
+    </row>
+    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -6776,10 +6759,10 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="Q93" s="136"/>
-      <c r="R93" s="136"/>
-    </row>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q93" s="135"/>
+      <c r="R93" s="135"/>
+    </row>
+    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -6791,7 +6774,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -6803,7 +6786,7 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -6815,7 +6798,7 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -6827,7 +6810,7 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -6839,7 +6822,7 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -6851,7 +6834,7 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -6863,7 +6846,7 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -6875,7 +6858,7 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -6887,7 +6870,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -6899,7 +6882,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -6911,7 +6894,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -6923,7 +6906,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -6935,7 +6918,7 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -6947,7 +6930,7 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -6959,7 +6942,7 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -6971,7 +6954,7 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -6983,7 +6966,7 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6995,7 +6978,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7007,7 +6990,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7019,7 +7002,7 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7031,7 +7014,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7043,7 +7026,7 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7055,7 +7038,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7067,7 +7050,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7079,7 +7062,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7091,7 +7074,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7103,7 +7086,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7115,7 +7098,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7127,7 +7110,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -7139,7 +7122,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -7151,7 +7134,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -7163,7 +7146,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -7175,7 +7158,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -7187,7 +7170,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -7199,7 +7182,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -7211,7 +7194,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -7223,7 +7206,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -7235,7 +7218,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -7247,7 +7230,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -7259,7 +7242,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -7271,7 +7254,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -7283,7 +7266,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -7295,7 +7278,7 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -7307,7 +7290,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -7319,7 +7302,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7331,7 +7314,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -7343,7 +7326,7 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -7355,7 +7338,7 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -7367,7 +7350,7 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -7379,7 +7362,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -7391,7 +7374,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7403,7 +7386,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7415,7 +7398,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7427,7 +7410,7 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7439,7 +7422,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -7451,7 +7434,7 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -7463,7 +7446,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -7475,7 +7458,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -7487,7 +7470,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -7499,7 +7482,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -7511,7 +7494,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -7523,7 +7506,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -7535,7 +7518,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -7547,7 +7530,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -7559,7 +7542,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7571,7 +7554,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -7583,7 +7566,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7595,7 +7578,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -7607,7 +7590,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7619,7 +7602,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7631,7 +7614,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7643,7 +7626,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7655,7 +7638,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7667,7 +7650,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -7679,7 +7662,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7691,7 +7674,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -7703,7 +7686,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -7715,7 +7698,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -7727,7 +7710,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -7739,7 +7722,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -7751,7 +7734,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7763,7 +7746,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7775,7 +7758,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7787,7 +7770,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7799,7 +7782,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7811,7 +7794,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7823,7 +7806,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7835,7 +7818,7 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7847,7 +7830,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7859,7 +7842,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7871,7 +7854,7 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7883,7 +7866,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7895,7 +7878,7 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7907,7 +7890,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7919,7 +7902,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7931,7 +7914,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7943,7 +7926,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7955,7 +7938,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7967,7 +7950,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7979,7 +7962,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7991,7 +7974,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -8003,7 +7986,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -8015,7 +7998,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -8027,7 +8010,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -8039,7 +8022,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8051,7 +8034,7 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -8063,7 +8046,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -8075,7 +8058,7 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -8087,7 +8070,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8099,7 +8082,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -8111,7 +8094,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -8123,7 +8106,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -8135,7 +8118,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -8147,7 +8130,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -8159,7 +8142,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -8171,7 +8154,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -8183,7 +8166,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -8195,7 +8178,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -8207,7 +8190,7 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -8219,7 +8202,7 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -8231,7 +8214,7 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -8243,7 +8226,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -8255,7 +8238,7 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -8267,7 +8250,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -8279,7 +8262,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8291,7 +8274,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8303,7 +8286,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -8315,7 +8298,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -8327,7 +8310,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -8339,7 +8322,7 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -8351,7 +8334,7 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -8363,7 +8346,7 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -8375,7 +8358,7 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -8387,7 +8370,7 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -8399,7 +8382,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -8411,7 +8394,7 @@
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -8423,7 +8406,7 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -8435,7 +8418,7 @@
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -8447,7 +8430,7 @@
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -8459,7 +8442,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -8471,7 +8454,7 @@
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -8483,7 +8466,7 @@
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -8495,7 +8478,7 @@
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -8507,7 +8490,7 @@
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -8519,7 +8502,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -8531,7 +8514,7 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -8543,7 +8526,7 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -8555,7 +8538,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -8567,7 +8550,7 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -8579,7 +8562,7 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -8591,7 +8574,7 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -8603,7 +8586,7 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8615,7 +8598,7 @@
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8627,7 +8610,7 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -8639,7 +8622,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -8651,7 +8634,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -8663,7 +8646,7 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8675,7 +8658,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -8687,7 +8670,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -8699,7 +8682,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -8711,7 +8694,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -8723,7 +8706,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -8735,7 +8718,7 @@
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -8747,7 +8730,7 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -8759,7 +8742,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -8771,7 +8754,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -8783,7 +8766,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -8795,7 +8778,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -8807,7 +8790,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -8819,7 +8802,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -8831,7 +8814,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -8860,185 +8843,185 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>573</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>

--- a/Requirments/TC_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/TC_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3262EAD1-BA45-4675-8FA2-0B437AC4D786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743189BB-EFD6-44D4-AF64-74C3028F183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="592">
   <si>
     <t>Title</t>
   </si>
@@ -110,9 +110,6 @@
 3. Click login</t>
   </si>
   <si>
-    <t>SRS-Login-02, SRS-Login-05</t>
-  </si>
-  <si>
     <t>TC-Login-03</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>1. Enter valid email
 2. Enter incorrect password
 3. Click login</t>
-  </si>
-  <si>
-    <t>System displays ""incorrect password"" in red.</t>
   </si>
   <si>
     <t>SRS-Login-09</t>
@@ -289,9 +283,6 @@
 2. Enter special char email
 3. Enter password
 4. Click login</t>
-  </si>
-  <si>
-    <t>SRS-Login-02</t>
   </si>
   <si>
     <t>Verify "Register Now!" link exists and redirects to Registration page</t>
@@ -823,12 +814,6 @@
 </t>
   </si>
   <si>
-    <t>The system accepts the password and redirected to gallery page.</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
     <t>TC-REG-21</t>
   </si>
   <si>
@@ -916,9 +901,6 @@
   </si>
   <si>
     <t xml:space="preserve">User is redirected automatically to the Login page	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user redirects to gallery page </t>
   </si>
   <si>
     <t>SRS-Reg-11</t>
@@ -1881,9 +1863,6 @@
     <t>Admin is loged out and redirected to Login Page</t>
   </si>
   <si>
-    <t>Admin is redirected to Rate Page</t>
-  </si>
-  <si>
     <t>SRS-Admin-05</t>
   </si>
   <si>
@@ -2156,9 +2135,6 @@
     <t>Email: testemail10@gmail.com, Password: zxcvbnm@</t>
   </si>
   <si>
-    <t>error message is "please fill this field"</t>
-  </si>
-  <si>
     <t>System displays 'This field is required.' in red</t>
   </si>
   <si>
@@ -2234,6 +2210,12 @@
   <si>
     <t>Email: "@gmail.com'',
  Password: CorrectPass123</t>
+  </si>
+  <si>
+    <t>SRS-Login-02 ,SRS-Login-05</t>
+  </si>
+  <si>
+    <t>SRS-Login-05</t>
   </si>
 </sst>
 </file>
@@ -2324,27 +2306,29 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2431,18 +2415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2460,7 +2432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2560,19 +2532,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2635,17 +2594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2669,34 +2617,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2727,35 +2653,35 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2773,16 +2699,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2790,7 +2710,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2800,9 +2720,7 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2817,7 +2735,7 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2852,14 +2770,14 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2902,45 +2820,29 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2955,19 +2857,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2977,82 +2873,63 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3406,29 +3283,29 @@
   </sheetPr>
   <dimension ref="A1:EE265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="67.140625" customWidth="1"/>
-    <col min="6" max="6" width="74.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" customWidth="1"/>
+    <col min="5" max="5" width="67.109375" customWidth="1"/>
+    <col min="6" max="6" width="74.5546875" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
     <col min="8" max="8" width="52" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:135" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3461,3164 +3338,3164 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:135" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:135" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="I3" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:135" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:135" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="G12" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:135" s="12" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" s="99" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="53" t="s">
+      <c r="C13" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>575</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>588</v>
+      </c>
+      <c r="H13" s="101" t="s">
+        <v>588</v>
+      </c>
+      <c r="I13" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="99" t="s">
+        <v>591</v>
+      </c>
+      <c r="K13" s="113"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="114"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="114"/>
+      <c r="AS13" s="114"/>
+      <c r="AT13" s="114"/>
+      <c r="AU13" s="114"/>
+      <c r="AV13" s="114"/>
+      <c r="AW13" s="114"/>
+      <c r="AX13" s="114"/>
+      <c r="AY13" s="114"/>
+      <c r="AZ13" s="114"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="114"/>
+      <c r="BC13" s="114"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="114"/>
+      <c r="BF13" s="114"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="114"/>
+      <c r="BI13" s="114"/>
+      <c r="BJ13" s="114"/>
+      <c r="BK13" s="114"/>
+      <c r="BL13" s="114"/>
+      <c r="BM13" s="114"/>
+      <c r="BN13" s="114"/>
+      <c r="BO13" s="114"/>
+      <c r="BP13" s="114"/>
+      <c r="BQ13" s="114"/>
+      <c r="BR13" s="114"/>
+      <c r="BS13" s="114"/>
+      <c r="BT13" s="114"/>
+      <c r="BU13" s="114"/>
+      <c r="BV13" s="114"/>
+      <c r="BW13" s="114"/>
+      <c r="BX13" s="114"/>
+      <c r="BY13" s="114"/>
+      <c r="BZ13" s="114"/>
+      <c r="CA13" s="114"/>
+      <c r="CB13" s="114"/>
+      <c r="CC13" s="114"/>
+      <c r="CD13" s="114"/>
+      <c r="CE13" s="114"/>
+      <c r="CF13" s="114"/>
+      <c r="CG13" s="114"/>
+      <c r="CH13" s="114"/>
+      <c r="CI13" s="114"/>
+      <c r="CJ13" s="114"/>
+      <c r="CK13" s="114"/>
+      <c r="CL13" s="114"/>
+      <c r="CM13" s="114"/>
+      <c r="CN13" s="114"/>
+      <c r="CO13" s="114"/>
+      <c r="CP13" s="114"/>
+      <c r="CQ13" s="114"/>
+      <c r="CR13" s="114"/>
+      <c r="CS13" s="114"/>
+      <c r="CT13" s="114"/>
+      <c r="CU13" s="114"/>
+      <c r="CV13" s="114"/>
+      <c r="CW13" s="114"/>
+      <c r="CX13" s="114"/>
+      <c r="CY13" s="114"/>
+      <c r="CZ13" s="114"/>
+      <c r="DA13" s="114"/>
+      <c r="DB13" s="114"/>
+      <c r="DC13" s="114"/>
+      <c r="DD13" s="114"/>
+      <c r="DE13" s="114"/>
+      <c r="DF13" s="114"/>
+      <c r="DG13" s="114"/>
+      <c r="DH13" s="114"/>
+      <c r="DI13" s="114"/>
+      <c r="DJ13" s="114"/>
+      <c r="DK13" s="114"/>
+      <c r="DL13" s="114"/>
+      <c r="DM13" s="114"/>
+      <c r="DN13" s="114"/>
+      <c r="DO13" s="114"/>
+      <c r="DP13" s="114"/>
+      <c r="DQ13" s="114"/>
+      <c r="DR13" s="114"/>
+      <c r="DS13" s="114"/>
+      <c r="DT13" s="114"/>
+      <c r="DU13" s="114"/>
+      <c r="DV13" s="114"/>
+      <c r="DW13" s="114"/>
+      <c r="DX13" s="114"/>
+      <c r="DY13" s="114"/>
+      <c r="DZ13" s="114"/>
+      <c r="EA13" s="114"/>
+      <c r="EB13" s="114"/>
+      <c r="EC13" s="114"/>
+      <c r="ED13" s="114"/>
+      <c r="EE13" s="114"/>
+    </row>
+    <row r="14" spans="1:135" s="12" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="101"/>
+      <c r="F14" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="114"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="114"/>
+      <c r="AC14" s="114"/>
+      <c r="AD14" s="114"/>
+      <c r="AE14" s="114"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AM14" s="114"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="114"/>
+      <c r="AS14" s="114"/>
+      <c r="AT14" s="114"/>
+      <c r="AU14" s="114"/>
+      <c r="AV14" s="114"/>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="114"/>
+      <c r="AY14" s="114"/>
+      <c r="AZ14" s="114"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="114"/>
+      <c r="BC14" s="114"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="114"/>
+      <c r="BF14" s="114"/>
+      <c r="BG14" s="114"/>
+      <c r="BH14" s="114"/>
+      <c r="BI14" s="114"/>
+      <c r="BJ14" s="114"/>
+      <c r="BK14" s="114"/>
+      <c r="BL14" s="114"/>
+      <c r="BM14" s="114"/>
+      <c r="BN14" s="114"/>
+      <c r="BO14" s="114"/>
+      <c r="BP14" s="114"/>
+      <c r="BQ14" s="114"/>
+      <c r="BR14" s="114"/>
+      <c r="BS14" s="114"/>
+      <c r="BT14" s="114"/>
+      <c r="BU14" s="114"/>
+      <c r="BV14" s="114"/>
+      <c r="BW14" s="114"/>
+      <c r="BX14" s="114"/>
+      <c r="BY14" s="114"/>
+      <c r="BZ14" s="114"/>
+      <c r="CA14" s="114"/>
+      <c r="CB14" s="114"/>
+      <c r="CC14" s="114"/>
+      <c r="CD14" s="114"/>
+      <c r="CE14" s="114"/>
+      <c r="CF14" s="114"/>
+      <c r="CG14" s="114"/>
+      <c r="CH14" s="114"/>
+      <c r="CI14" s="114"/>
+      <c r="CJ14" s="114"/>
+      <c r="CK14" s="114"/>
+      <c r="CL14" s="114"/>
+      <c r="CM14" s="114"/>
+      <c r="CN14" s="114"/>
+      <c r="CO14" s="114"/>
+      <c r="CP14" s="114"/>
+      <c r="CQ14" s="114"/>
+      <c r="CR14" s="114"/>
+      <c r="CS14" s="114"/>
+      <c r="CT14" s="114"/>
+      <c r="CU14" s="114"/>
+      <c r="CV14" s="114"/>
+      <c r="CW14" s="114"/>
+      <c r="CX14" s="114"/>
+      <c r="CY14" s="114"/>
+      <c r="CZ14" s="114"/>
+      <c r="DA14" s="114"/>
+      <c r="DB14" s="114"/>
+      <c r="DC14" s="114"/>
+      <c r="DD14" s="114"/>
+      <c r="DE14" s="114"/>
+      <c r="DF14" s="114"/>
+      <c r="DG14" s="114"/>
+      <c r="DH14" s="114"/>
+      <c r="DI14" s="114"/>
+      <c r="DJ14" s="114"/>
+      <c r="DK14" s="114"/>
+      <c r="DL14" s="114"/>
+      <c r="DM14" s="114"/>
+      <c r="DN14" s="114"/>
+      <c r="DO14" s="114"/>
+      <c r="DP14" s="114"/>
+      <c r="DQ14" s="114"/>
+      <c r="DR14" s="114"/>
+      <c r="DS14" s="114"/>
+      <c r="DT14" s="114"/>
+      <c r="DU14" s="114"/>
+      <c r="DV14" s="114"/>
+      <c r="DW14" s="114"/>
+      <c r="DX14" s="114"/>
+      <c r="DY14" s="114"/>
+      <c r="DZ14" s="114"/>
+      <c r="EA14" s="114"/>
+      <c r="EB14" s="114"/>
+      <c r="EC14" s="114"/>
+      <c r="ED14" s="114"/>
+      <c r="EE14" s="114"/>
+    </row>
+    <row r="15" spans="1:135" s="12" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="101"/>
+      <c r="F15" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="114"/>
+      <c r="AB15" s="114"/>
+      <c r="AC15" s="114"/>
+      <c r="AD15" s="114"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="114"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="114"/>
+      <c r="AS15" s="114"/>
+      <c r="AT15" s="114"/>
+      <c r="AU15" s="114"/>
+      <c r="AV15" s="114"/>
+      <c r="AW15" s="114"/>
+      <c r="AX15" s="114"/>
+      <c r="AY15" s="114"/>
+      <c r="AZ15" s="114"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="114"/>
+      <c r="BC15" s="114"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="114"/>
+      <c r="BF15" s="114"/>
+      <c r="BG15" s="114"/>
+      <c r="BH15" s="114"/>
+      <c r="BI15" s="114"/>
+      <c r="BJ15" s="114"/>
+      <c r="BK15" s="114"/>
+      <c r="BL15" s="114"/>
+      <c r="BM15" s="114"/>
+      <c r="BN15" s="114"/>
+      <c r="BO15" s="114"/>
+      <c r="BP15" s="114"/>
+      <c r="BQ15" s="114"/>
+      <c r="BR15" s="114"/>
+      <c r="BS15" s="114"/>
+      <c r="BT15" s="114"/>
+      <c r="BU15" s="114"/>
+      <c r="BV15" s="114"/>
+      <c r="BW15" s="114"/>
+      <c r="BX15" s="114"/>
+      <c r="BY15" s="114"/>
+      <c r="BZ15" s="114"/>
+      <c r="CA15" s="114"/>
+      <c r="CB15" s="114"/>
+      <c r="CC15" s="114"/>
+      <c r="CD15" s="114"/>
+      <c r="CE15" s="114"/>
+      <c r="CF15" s="114"/>
+      <c r="CG15" s="114"/>
+      <c r="CH15" s="114"/>
+      <c r="CI15" s="114"/>
+      <c r="CJ15" s="114"/>
+      <c r="CK15" s="114"/>
+      <c r="CL15" s="114"/>
+      <c r="CM15" s="114"/>
+      <c r="CN15" s="114"/>
+      <c r="CO15" s="114"/>
+      <c r="CP15" s="114"/>
+      <c r="CQ15" s="114"/>
+      <c r="CR15" s="114"/>
+      <c r="CS15" s="114"/>
+      <c r="CT15" s="114"/>
+      <c r="CU15" s="114"/>
+      <c r="CV15" s="114"/>
+      <c r="CW15" s="114"/>
+      <c r="CX15" s="114"/>
+      <c r="CY15" s="114"/>
+      <c r="CZ15" s="114"/>
+      <c r="DA15" s="114"/>
+      <c r="DB15" s="114"/>
+      <c r="DC15" s="114"/>
+      <c r="DD15" s="114"/>
+      <c r="DE15" s="114"/>
+      <c r="DF15" s="114"/>
+      <c r="DG15" s="114"/>
+      <c r="DH15" s="114"/>
+      <c r="DI15" s="114"/>
+      <c r="DJ15" s="114"/>
+      <c r="DK15" s="114"/>
+      <c r="DL15" s="114"/>
+      <c r="DM15" s="114"/>
+      <c r="DN15" s="114"/>
+      <c r="DO15" s="114"/>
+      <c r="DP15" s="114"/>
+      <c r="DQ15" s="114"/>
+      <c r="DR15" s="114"/>
+      <c r="DS15" s="114"/>
+      <c r="DT15" s="114"/>
+      <c r="DU15" s="114"/>
+      <c r="DV15" s="114"/>
+      <c r="DW15" s="114"/>
+      <c r="DX15" s="114"/>
+      <c r="DY15" s="114"/>
+      <c r="DZ15" s="114"/>
+      <c r="EA15" s="114"/>
+      <c r="EB15" s="114"/>
+      <c r="EC15" s="114"/>
+      <c r="ED15" s="114"/>
+      <c r="EE15" s="114"/>
+    </row>
+    <row r="16" spans="1:135" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H18" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="I28" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="95" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>597</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>595</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>595</v>
-      </c>
-      <c r="I3" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>573</v>
-      </c>
-      <c r="I4" s="114" t="s">
+      <c r="H34" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="53" t="s">
+      <c r="I36" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="H37" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="I38" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="I39" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="H40" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="I40" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="74" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="I41" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" s="74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="H42" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J42" s="74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="H43" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" s="74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" s="73" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="I44" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="78" t="s">
+        <v>288</v>
+      </c>
+      <c r="H45" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="I45" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="78" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="I46" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" s="78" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="I47" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G48" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="I48" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G51" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="H51" s="90" t="s">
+        <v>333</v>
+      </c>
+      <c r="I51" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="I52" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="I53" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="D54" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="H54" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="I54" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J54" s="83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B55" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D55" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="H55" s="88" t="s">
+        <v>358</v>
+      </c>
+      <c r="I55" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J55" s="83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="B56" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="H56" s="96" t="s">
+        <v>364</v>
+      </c>
+      <c r="I56" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56" s="83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="I57" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J57" s="83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G58" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="I58" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J58" s="83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" s="38"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="I59" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" s="83" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="86" t="s">
+        <v>382</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="H60" s="90" t="s">
+        <v>386</v>
+      </c>
+      <c r="I60" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="86" t="s">
+        <v>382</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="G61" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" s="90" t="s">
+        <v>364</v>
+      </c>
+      <c r="I61" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="117" t="s">
+        <v>390</v>
+      </c>
+      <c r="B62" s="116" t="s">
+        <v>391</v>
+      </c>
+      <c r="C62" s="117" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="118" t="s">
+        <v>393</v>
+      </c>
+      <c r="E62" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" s="116" t="s">
+        <v>394</v>
+      </c>
+      <c r="G62" s="120" t="s">
+        <v>395</v>
+      </c>
+      <c r="H62" s="121" t="s">
+        <v>578</v>
+      </c>
+      <c r="I62" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62" s="127" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="117" t="s">
+        <v>397</v>
+      </c>
+      <c r="B63" s="122" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" s="116" t="s">
+        <v>399</v>
+      </c>
+      <c r="D63" s="118" t="s">
+        <v>400</v>
+      </c>
+      <c r="E63" s="119" t="s">
+        <v>401</v>
+      </c>
+      <c r="F63" s="116" t="s">
+        <v>394</v>
+      </c>
+      <c r="G63" s="120" t="s">
+        <v>579</v>
+      </c>
+      <c r="H63" s="123" t="s">
+        <v>579</v>
+      </c>
+      <c r="I63" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63" s="127" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="B64" s="122" t="s">
+        <v>404</v>
+      </c>
+      <c r="C64" s="116" t="s">
+        <v>405</v>
+      </c>
+      <c r="D64" s="118" t="s">
+        <v>406</v>
+      </c>
+      <c r="E64" s="124" t="s">
+        <v>407</v>
+      </c>
+      <c r="F64" s="124" t="s">
+        <v>408</v>
+      </c>
+      <c r="G64" s="124" t="s">
+        <v>409</v>
+      </c>
+      <c r="H64" s="123" t="s">
+        <v>580</v>
+      </c>
+      <c r="I64" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J64" s="127" t="s">
+        <v>410</v>
+      </c>
+      <c r="K64" s="114"/>
+      <c r="L64" s="114"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="114"/>
+      <c r="O64" s="114"/>
+      <c r="P64" s="114"/>
+      <c r="Q64" s="114"/>
+      <c r="R64" s="114"/>
+    </row>
+    <row r="65" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="B65" s="122" t="s">
+        <v>412</v>
+      </c>
+      <c r="C65" s="116" t="s">
+        <v>413</v>
+      </c>
+      <c r="D65" s="118" t="s">
+        <v>414</v>
+      </c>
+      <c r="E65" s="124" t="s">
+        <v>415</v>
+      </c>
+      <c r="F65" s="124" t="s">
+        <v>416</v>
+      </c>
+      <c r="G65" s="124" t="s">
+        <v>417</v>
+      </c>
+      <c r="H65" s="123" t="s">
+        <v>417</v>
+      </c>
+      <c r="I65" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" s="127" t="s">
+        <v>418</v>
+      </c>
+      <c r="K65" s="114"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="114"/>
+      <c r="N65" s="114"/>
+      <c r="O65" s="114"/>
+      <c r="P65" s="114"/>
+      <c r="Q65" s="114"/>
+      <c r="R65" s="114"/>
+    </row>
+    <row r="66" spans="1:18" s="11" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="117" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" s="122" t="s">
+        <v>412</v>
+      </c>
+      <c r="C66" s="116" t="s">
+        <v>420</v>
+      </c>
+      <c r="D66" s="118" t="s">
+        <v>421</v>
+      </c>
+      <c r="E66" s="124" t="s">
+        <v>422</v>
+      </c>
+      <c r="F66" s="124" t="s">
+        <v>423</v>
+      </c>
+      <c r="G66" s="124" t="s">
+        <v>417</v>
+      </c>
+      <c r="H66" s="123" t="s">
+        <v>417</v>
+      </c>
+      <c r="I66" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J66" s="127" t="s">
+        <v>418</v>
+      </c>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="114"/>
+      <c r="P66" s="114"/>
+      <c r="Q66" s="114"/>
+      <c r="R66" s="114"/>
+    </row>
+    <row r="67" spans="1:18" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="117" t="s">
+        <v>424</v>
+      </c>
+      <c r="B67" s="122" t="s">
+        <v>583</v>
+      </c>
+      <c r="C67" s="122" t="s">
         <v>584</v>
       </c>
-      <c r="I5" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:135" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:135" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="D67" s="118" t="s">
+        <v>425</v>
+      </c>
+      <c r="E67" s="124" t="s">
+        <v>426</v>
+      </c>
+      <c r="F67" s="124" t="s">
+        <v>427</v>
+      </c>
+      <c r="G67" s="124" t="s">
+        <v>585</v>
+      </c>
+      <c r="H67" s="123" t="s">
+        <v>586</v>
+      </c>
+      <c r="I67" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J67" s="127" t="s">
+        <v>428</v>
+      </c>
+      <c r="K67" s="114"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="114"/>
+      <c r="O67" s="114"/>
+      <c r="P67" s="114"/>
+      <c r="Q67" s="114"/>
+      <c r="R67" s="114"/>
+    </row>
+    <row r="68" spans="1:18" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="117" t="s">
+        <v>429</v>
+      </c>
+      <c r="B68" s="124" t="s">
+        <v>430</v>
+      </c>
+      <c r="C68" s="125" t="s">
+        <v>431</v>
+      </c>
+      <c r="D68" s="125" t="s">
+        <v>432</v>
+      </c>
+      <c r="E68" s="126" t="s">
+        <v>433</v>
+      </c>
+      <c r="F68" s="124" t="s">
+        <v>434</v>
+      </c>
+      <c r="G68" s="124" t="s">
+        <v>435</v>
+      </c>
+      <c r="H68" s="123" t="s">
         <v>581</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>574</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>573</v>
-      </c>
-      <c r="I8" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>578</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>577</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>576</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:135" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:135" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>579</v>
-      </c>
-      <c r="G12" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:135" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="I68" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="126" t="s">
+        <v>436</v>
+      </c>
+      <c r="K68" s="114"/>
+      <c r="L68" s="114"/>
+      <c r="M68" s="114"/>
+      <c r="N68" s="114"/>
+      <c r="O68" s="114"/>
+      <c r="P68" s="114"/>
+      <c r="Q68" s="114"/>
+      <c r="R68" s="114"/>
+    </row>
+    <row r="69" spans="1:18" s="12" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="H69" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="B13" s="115" t="s">
-        <v>580</v>
-      </c>
-      <c r="C13" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="115" t="s">
-        <v>583</v>
-      </c>
-      <c r="F13" s="124" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>596</v>
-      </c>
-      <c r="H13" s="117" t="s">
-        <v>596</v>
-      </c>
-      <c r="I13" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="115" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="134"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="135"/>
-      <c r="AF13" s="135"/>
-      <c r="AG13" s="135"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="135"/>
-      <c r="AJ13" s="135"/>
-      <c r="AK13" s="135"/>
-      <c r="AL13" s="135"/>
-      <c r="AM13" s="135"/>
-      <c r="AN13" s="135"/>
-      <c r="AO13" s="135"/>
-      <c r="AP13" s="135"/>
-      <c r="AQ13" s="135"/>
-      <c r="AR13" s="135"/>
-      <c r="AS13" s="135"/>
-      <c r="AT13" s="135"/>
-      <c r="AU13" s="135"/>
-      <c r="AV13" s="135"/>
-      <c r="AW13" s="135"/>
-      <c r="AX13" s="135"/>
-      <c r="AY13" s="135"/>
-      <c r="AZ13" s="135"/>
-      <c r="BA13" s="135"/>
-      <c r="BB13" s="135"/>
-      <c r="BC13" s="135"/>
-      <c r="BD13" s="135"/>
-      <c r="BE13" s="135"/>
-      <c r="BF13" s="135"/>
-      <c r="BG13" s="135"/>
-      <c r="BH13" s="135"/>
-      <c r="BI13" s="135"/>
-      <c r="BJ13" s="135"/>
-      <c r="BK13" s="135"/>
-      <c r="BL13" s="135"/>
-      <c r="BM13" s="135"/>
-      <c r="BN13" s="135"/>
-      <c r="BO13" s="135"/>
-      <c r="BP13" s="135"/>
-      <c r="BQ13" s="135"/>
-      <c r="BR13" s="135"/>
-      <c r="BS13" s="135"/>
-      <c r="BT13" s="135"/>
-      <c r="BU13" s="135"/>
-      <c r="BV13" s="135"/>
-      <c r="BW13" s="135"/>
-      <c r="BX13" s="135"/>
-      <c r="BY13" s="135"/>
-      <c r="BZ13" s="135"/>
-      <c r="CA13" s="135"/>
-      <c r="CB13" s="135"/>
-      <c r="CC13" s="135"/>
-      <c r="CD13" s="135"/>
-      <c r="CE13" s="135"/>
-      <c r="CF13" s="135"/>
-      <c r="CG13" s="135"/>
-      <c r="CH13" s="135"/>
-      <c r="CI13" s="135"/>
-      <c r="CJ13" s="135"/>
-      <c r="CK13" s="135"/>
-      <c r="CL13" s="135"/>
-      <c r="CM13" s="135"/>
-      <c r="CN13" s="135"/>
-      <c r="CO13" s="135"/>
-      <c r="CP13" s="135"/>
-      <c r="CQ13" s="135"/>
-      <c r="CR13" s="135"/>
-      <c r="CS13" s="135"/>
-      <c r="CT13" s="135"/>
-      <c r="CU13" s="135"/>
-      <c r="CV13" s="135"/>
-      <c r="CW13" s="135"/>
-      <c r="CX13" s="135"/>
-      <c r="CY13" s="135"/>
-      <c r="CZ13" s="135"/>
-      <c r="DA13" s="135"/>
-      <c r="DB13" s="135"/>
-      <c r="DC13" s="135"/>
-      <c r="DD13" s="135"/>
-      <c r="DE13" s="135"/>
-      <c r="DF13" s="135"/>
-      <c r="DG13" s="135"/>
-      <c r="DH13" s="135"/>
-      <c r="DI13" s="135"/>
-      <c r="DJ13" s="135"/>
-      <c r="DK13" s="135"/>
-      <c r="DL13" s="135"/>
-      <c r="DM13" s="135"/>
-      <c r="DN13" s="135"/>
-      <c r="DO13" s="135"/>
-      <c r="DP13" s="135"/>
-      <c r="DQ13" s="135"/>
-      <c r="DR13" s="135"/>
-      <c r="DS13" s="135"/>
-      <c r="DT13" s="135"/>
-      <c r="DU13" s="135"/>
-      <c r="DV13" s="135"/>
-      <c r="DW13" s="135"/>
-      <c r="DX13" s="135"/>
-      <c r="DY13" s="135"/>
-      <c r="DZ13" s="135"/>
-      <c r="EA13" s="135"/>
-      <c r="EB13" s="135"/>
-      <c r="EC13" s="135"/>
-      <c r="ED13" s="135"/>
-      <c r="EE13" s="135"/>
-    </row>
-    <row r="14" spans="1:135" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="118" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="125" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="134"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="135"/>
-      <c r="AF14" s="135"/>
-      <c r="AG14" s="135"/>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="135"/>
-      <c r="AK14" s="135"/>
-      <c r="AL14" s="135"/>
-      <c r="AM14" s="135"/>
-      <c r="AN14" s="135"/>
-      <c r="AO14" s="135"/>
-      <c r="AP14" s="135"/>
-      <c r="AQ14" s="135"/>
-      <c r="AR14" s="135"/>
-      <c r="AS14" s="135"/>
-      <c r="AT14" s="135"/>
-      <c r="AU14" s="135"/>
-      <c r="AV14" s="135"/>
-      <c r="AW14" s="135"/>
-      <c r="AX14" s="135"/>
-      <c r="AY14" s="135"/>
-      <c r="AZ14" s="135"/>
-      <c r="BA14" s="135"/>
-      <c r="BB14" s="135"/>
-      <c r="BC14" s="135"/>
-      <c r="BD14" s="135"/>
-      <c r="BE14" s="135"/>
-      <c r="BF14" s="135"/>
-      <c r="BG14" s="135"/>
-      <c r="BH14" s="135"/>
-      <c r="BI14" s="135"/>
-      <c r="BJ14" s="135"/>
-      <c r="BK14" s="135"/>
-      <c r="BL14" s="135"/>
-      <c r="BM14" s="135"/>
-      <c r="BN14" s="135"/>
-      <c r="BO14" s="135"/>
-      <c r="BP14" s="135"/>
-      <c r="BQ14" s="135"/>
-      <c r="BR14" s="135"/>
-      <c r="BS14" s="135"/>
-      <c r="BT14" s="135"/>
-      <c r="BU14" s="135"/>
-      <c r="BV14" s="135"/>
-      <c r="BW14" s="135"/>
-      <c r="BX14" s="135"/>
-      <c r="BY14" s="135"/>
-      <c r="BZ14" s="135"/>
-      <c r="CA14" s="135"/>
-      <c r="CB14" s="135"/>
-      <c r="CC14" s="135"/>
-      <c r="CD14" s="135"/>
-      <c r="CE14" s="135"/>
-      <c r="CF14" s="135"/>
-      <c r="CG14" s="135"/>
-      <c r="CH14" s="135"/>
-      <c r="CI14" s="135"/>
-      <c r="CJ14" s="135"/>
-      <c r="CK14" s="135"/>
-      <c r="CL14" s="135"/>
-      <c r="CM14" s="135"/>
-      <c r="CN14" s="135"/>
-      <c r="CO14" s="135"/>
-      <c r="CP14" s="135"/>
-      <c r="CQ14" s="135"/>
-      <c r="CR14" s="135"/>
-      <c r="CS14" s="135"/>
-      <c r="CT14" s="135"/>
-      <c r="CU14" s="135"/>
-      <c r="CV14" s="135"/>
-      <c r="CW14" s="135"/>
-      <c r="CX14" s="135"/>
-      <c r="CY14" s="135"/>
-      <c r="CZ14" s="135"/>
-      <c r="DA14" s="135"/>
-      <c r="DB14" s="135"/>
-      <c r="DC14" s="135"/>
-      <c r="DD14" s="135"/>
-      <c r="DE14" s="135"/>
-      <c r="DF14" s="135"/>
-      <c r="DG14" s="135"/>
-      <c r="DH14" s="135"/>
-      <c r="DI14" s="135"/>
-      <c r="DJ14" s="135"/>
-      <c r="DK14" s="135"/>
-      <c r="DL14" s="135"/>
-      <c r="DM14" s="135"/>
-      <c r="DN14" s="135"/>
-      <c r="DO14" s="135"/>
-      <c r="DP14" s="135"/>
-      <c r="DQ14" s="135"/>
-      <c r="DR14" s="135"/>
-      <c r="DS14" s="135"/>
-      <c r="DT14" s="135"/>
-      <c r="DU14" s="135"/>
-      <c r="DV14" s="135"/>
-      <c r="DW14" s="135"/>
-      <c r="DX14" s="135"/>
-      <c r="DY14" s="135"/>
-      <c r="DZ14" s="135"/>
-      <c r="EA14" s="135"/>
-      <c r="EB14" s="135"/>
-      <c r="EC14" s="135"/>
-      <c r="ED14" s="135"/>
-      <c r="EE14" s="135"/>
-    </row>
-    <row r="15" spans="1:135" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="117"/>
-      <c r="F15" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="135"/>
-      <c r="AF15" s="135"/>
-      <c r="AG15" s="135"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="135"/>
-      <c r="AJ15" s="135"/>
-      <c r="AK15" s="135"/>
-      <c r="AL15" s="135"/>
-      <c r="AM15" s="135"/>
-      <c r="AN15" s="135"/>
-      <c r="AO15" s="135"/>
-      <c r="AP15" s="135"/>
-      <c r="AQ15" s="135"/>
-      <c r="AR15" s="135"/>
-      <c r="AS15" s="135"/>
-      <c r="AT15" s="135"/>
-      <c r="AU15" s="135"/>
-      <c r="AV15" s="135"/>
-      <c r="AW15" s="135"/>
-      <c r="AX15" s="135"/>
-      <c r="AY15" s="135"/>
-      <c r="AZ15" s="135"/>
-      <c r="BA15" s="135"/>
-      <c r="BB15" s="135"/>
-      <c r="BC15" s="135"/>
-      <c r="BD15" s="135"/>
-      <c r="BE15" s="135"/>
-      <c r="BF15" s="135"/>
-      <c r="BG15" s="135"/>
-      <c r="BH15" s="135"/>
-      <c r="BI15" s="135"/>
-      <c r="BJ15" s="135"/>
-      <c r="BK15" s="135"/>
-      <c r="BL15" s="135"/>
-      <c r="BM15" s="135"/>
-      <c r="BN15" s="135"/>
-      <c r="BO15" s="135"/>
-      <c r="BP15" s="135"/>
-      <c r="BQ15" s="135"/>
-      <c r="BR15" s="135"/>
-      <c r="BS15" s="135"/>
-      <c r="BT15" s="135"/>
-      <c r="BU15" s="135"/>
-      <c r="BV15" s="135"/>
-      <c r="BW15" s="135"/>
-      <c r="BX15" s="135"/>
-      <c r="BY15" s="135"/>
-      <c r="BZ15" s="135"/>
-      <c r="CA15" s="135"/>
-      <c r="CB15" s="135"/>
-      <c r="CC15" s="135"/>
-      <c r="CD15" s="135"/>
-      <c r="CE15" s="135"/>
-      <c r="CF15" s="135"/>
-      <c r="CG15" s="135"/>
-      <c r="CH15" s="135"/>
-      <c r="CI15" s="135"/>
-      <c r="CJ15" s="135"/>
-      <c r="CK15" s="135"/>
-      <c r="CL15" s="135"/>
-      <c r="CM15" s="135"/>
-      <c r="CN15" s="135"/>
-      <c r="CO15" s="135"/>
-      <c r="CP15" s="135"/>
-      <c r="CQ15" s="135"/>
-      <c r="CR15" s="135"/>
-      <c r="CS15" s="135"/>
-      <c r="CT15" s="135"/>
-      <c r="CU15" s="135"/>
-      <c r="CV15" s="135"/>
-      <c r="CW15" s="135"/>
-      <c r="CX15" s="135"/>
-      <c r="CY15" s="135"/>
-      <c r="CZ15" s="135"/>
-      <c r="DA15" s="135"/>
-      <c r="DB15" s="135"/>
-      <c r="DC15" s="135"/>
-      <c r="DD15" s="135"/>
-      <c r="DE15" s="135"/>
-      <c r="DF15" s="135"/>
-      <c r="DG15" s="135"/>
-      <c r="DH15" s="135"/>
-      <c r="DI15" s="135"/>
-      <c r="DJ15" s="135"/>
-      <c r="DK15" s="135"/>
-      <c r="DL15" s="135"/>
-      <c r="DM15" s="135"/>
-      <c r="DN15" s="135"/>
-      <c r="DO15" s="135"/>
-      <c r="DP15" s="135"/>
-      <c r="DQ15" s="135"/>
-      <c r="DR15" s="135"/>
-      <c r="DS15" s="135"/>
-      <c r="DT15" s="135"/>
-      <c r="DU15" s="135"/>
-      <c r="DV15" s="135"/>
-      <c r="DW15" s="135"/>
-      <c r="DX15" s="135"/>
-      <c r="DY15" s="135"/>
-      <c r="DZ15" s="135"/>
-      <c r="EA15" s="135"/>
-      <c r="EB15" s="135"/>
-      <c r="EC15" s="135"/>
-      <c r="ED15" s="135"/>
-      <c r="EE15" s="135"/>
-    </row>
-    <row r="16" spans="1:135" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="126" t="s">
+      <c r="I69" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="122" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="123" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="132" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="127" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="130" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="121" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" s="55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="109" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="109" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="109" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" s="55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="I27" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="I29" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" s="55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="H30" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="I30" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="H31" s="109" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="55" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="H32" s="106" t="s">
-        <v>205</v>
-      </c>
-      <c r="I32" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J32" s="55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="106" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33" s="55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="I34" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" s="55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="F35" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="H35" s="106" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="J35" s="55" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="106" t="s">
-        <v>228</v>
-      </c>
-      <c r="I36" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="B37" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="H37" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="I37" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J37" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="C38" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="H38" s="109" t="s">
-        <v>235</v>
-      </c>
-      <c r="I38" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="B39" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="E39" s="73" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="H39" s="70" t="s">
-        <v>247</v>
-      </c>
-      <c r="I39" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="J39" s="74" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="C40" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="E40" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="F40" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="G40" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="H40" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="I40" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J40" s="78" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="B41" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="C41" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="D41" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="F41" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="G41" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="H41" s="78" t="s">
-        <v>262</v>
-      </c>
-      <c r="I41" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41" s="78" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="C42" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="E42" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="F42" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H42" s="78" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J42" s="78" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="B43" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="D43" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="E43" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="F43" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="G43" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="H43" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="I43" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="B44" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="C44" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="D44" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="80" t="s">
-        <v>285</v>
-      </c>
-      <c r="F44" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="G44" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="H44" s="78" t="s">
-        <v>288</v>
-      </c>
-      <c r="I44" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="J44" s="78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="81" t="s">
-        <v>289</v>
-      </c>
-      <c r="B45" s="82" t="s">
-        <v>290</v>
-      </c>
-      <c r="C45" s="83" t="s">
-        <v>291</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>292</v>
-      </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="G45" s="82" t="s">
-        <v>294</v>
-      </c>
-      <c r="H45" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="I45" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J45" s="82" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
-        <v>297</v>
-      </c>
-      <c r="B46" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="G46" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="H46" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="I46" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="J46" s="82" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="G47" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="I47" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J47" s="40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="I48" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J48" s="40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J49" s="40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="H50" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="I50" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J50" s="40" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="H51" s="99" t="s">
-        <v>339</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="J51" s="40" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J52" s="40" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="I53" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J53" s="40" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="B54" s="93" t="s">
-        <v>354</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="D54" s="94" t="s">
-        <v>316</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G54" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="H54" s="95" t="s">
-        <v>358</v>
-      </c>
-      <c r="I54" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="J54" s="88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="B55" s="93" t="s">
-        <v>360</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="D55" s="94" t="s">
-        <v>316</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G55" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="H55" s="96" t="s">
-        <v>364</v>
-      </c>
-      <c r="I55" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="J55" s="88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="B56" s="93" t="s">
-        <v>366</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="D56" s="97" t="s">
-        <v>316</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="H56" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="I56" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="J56" s="88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="G57" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="I57" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J57" s="88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="38" t="s">
-        <v>377</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G58" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="I58" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="J58" s="88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="94" t="s">
-        <v>383</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>385</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="I59" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="J59" s="88" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="94" t="s">
-        <v>388</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>389</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G60" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="H60" s="99" t="s">
-        <v>392</v>
-      </c>
-      <c r="I60" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="J60" s="88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="94" t="s">
-        <v>388</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="G61" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="H61" s="99" t="s">
-        <v>370</v>
-      </c>
-      <c r="I61" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="J61" s="88" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="139" t="s">
-        <v>396</v>
-      </c>
-      <c r="B62" s="138" t="s">
-        <v>397</v>
-      </c>
-      <c r="C62" s="139" t="s">
-        <v>398</v>
-      </c>
-      <c r="D62" s="140" t="s">
-        <v>399</v>
-      </c>
-      <c r="E62" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="138" t="s">
-        <v>400</v>
-      </c>
-      <c r="G62" s="142" t="s">
-        <v>401</v>
-      </c>
-      <c r="H62" s="143" t="s">
-        <v>586</v>
-      </c>
-      <c r="I62" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="J62" s="149" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="139" t="s">
-        <v>403</v>
-      </c>
-      <c r="B63" s="144" t="s">
-        <v>404</v>
-      </c>
-      <c r="C63" s="138" t="s">
-        <v>405</v>
-      </c>
-      <c r="D63" s="140" t="s">
-        <v>406</v>
-      </c>
-      <c r="E63" s="141" t="s">
-        <v>407</v>
-      </c>
-      <c r="F63" s="138" t="s">
-        <v>400</v>
-      </c>
-      <c r="G63" s="142" t="s">
-        <v>587</v>
-      </c>
-      <c r="H63" s="145" t="s">
-        <v>587</v>
-      </c>
-      <c r="I63" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="J63" s="149" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="139" t="s">
-        <v>409</v>
-      </c>
-      <c r="B64" s="144" t="s">
-        <v>410</v>
-      </c>
-      <c r="C64" s="138" t="s">
-        <v>411</v>
-      </c>
-      <c r="D64" s="140" t="s">
-        <v>412</v>
-      </c>
-      <c r="E64" s="146" t="s">
-        <v>413</v>
-      </c>
-      <c r="F64" s="146" t="s">
-        <v>414</v>
-      </c>
-      <c r="G64" s="146" t="s">
-        <v>415</v>
-      </c>
-      <c r="H64" s="145" t="s">
-        <v>588</v>
-      </c>
-      <c r="I64" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="J64" s="149" t="s">
-        <v>416</v>
-      </c>
-      <c r="K64" s="135"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
-      <c r="N64" s="135"/>
-      <c r="O64" s="135"/>
-      <c r="P64" s="135"/>
-      <c r="Q64" s="135"/>
-      <c r="R64" s="135"/>
-    </row>
-    <row r="65" spans="1:18" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="139" t="s">
-        <v>417</v>
-      </c>
-      <c r="B65" s="144" t="s">
-        <v>418</v>
-      </c>
-      <c r="C65" s="138" t="s">
-        <v>419</v>
-      </c>
-      <c r="D65" s="140" t="s">
-        <v>420</v>
-      </c>
-      <c r="E65" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="F65" s="146" t="s">
-        <v>422</v>
-      </c>
-      <c r="G65" s="146" t="s">
-        <v>423</v>
-      </c>
-      <c r="H65" s="145" t="s">
-        <v>423</v>
-      </c>
-      <c r="I65" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="J65" s="149" t="s">
-        <v>424</v>
-      </c>
-      <c r="K65" s="135"/>
-      <c r="L65" s="135"/>
-      <c r="M65" s="135"/>
-      <c r="N65" s="135"/>
-      <c r="O65" s="135"/>
-      <c r="P65" s="135"/>
-      <c r="Q65" s="135"/>
-      <c r="R65" s="135"/>
-    </row>
-    <row r="66" spans="1:18" s="11" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="139" t="s">
-        <v>425</v>
-      </c>
-      <c r="B66" s="144" t="s">
-        <v>418</v>
-      </c>
-      <c r="C66" s="138" t="s">
-        <v>426</v>
-      </c>
-      <c r="D66" s="140" t="s">
-        <v>427</v>
-      </c>
-      <c r="E66" s="146" t="s">
-        <v>428</v>
-      </c>
-      <c r="F66" s="146" t="s">
-        <v>429</v>
-      </c>
-      <c r="G66" s="146" t="s">
-        <v>423</v>
-      </c>
-      <c r="H66" s="145" t="s">
-        <v>423</v>
-      </c>
-      <c r="I66" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="J66" s="149" t="s">
-        <v>424</v>
-      </c>
-      <c r="K66" s="135"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="135"/>
-      <c r="N66" s="135"/>
-      <c r="O66" s="135"/>
-      <c r="P66" s="135"/>
-      <c r="Q66" s="135"/>
-      <c r="R66" s="135"/>
-    </row>
-    <row r="67" spans="1:18" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="139" t="s">
-        <v>430</v>
-      </c>
-      <c r="B67" s="144" t="s">
-        <v>591</v>
-      </c>
-      <c r="C67" s="144" t="s">
-        <v>592</v>
-      </c>
-      <c r="D67" s="140" t="s">
-        <v>431</v>
-      </c>
-      <c r="E67" s="146" t="s">
-        <v>432</v>
-      </c>
-      <c r="F67" s="146" t="s">
-        <v>433</v>
-      </c>
-      <c r="G67" s="146" t="s">
-        <v>593</v>
-      </c>
-      <c r="H67" s="145" t="s">
-        <v>594</v>
-      </c>
-      <c r="I67" s="150" t="s">
-        <v>98</v>
-      </c>
-      <c r="J67" s="149" t="s">
-        <v>434</v>
-      </c>
-      <c r="K67" s="135"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
-      <c r="N67" s="135"/>
-      <c r="O67" s="135"/>
-      <c r="P67" s="135"/>
-      <c r="Q67" s="135"/>
-      <c r="R67" s="135"/>
-    </row>
-    <row r="68" spans="1:18" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="139" t="s">
-        <v>435</v>
-      </c>
-      <c r="B68" s="146" t="s">
-        <v>436</v>
-      </c>
-      <c r="C68" s="147" t="s">
-        <v>437</v>
-      </c>
-      <c r="D68" s="147" t="s">
+      <c r="J69" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="114"/>
+    </row>
+    <row r="70" spans="1:18" s="14" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="B70" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="E68" s="148" t="s">
+      <c r="C70" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="F68" s="146" t="s">
-        <v>440</v>
-      </c>
-      <c r="G68" s="146" t="s">
-        <v>441</v>
-      </c>
-      <c r="H68" s="145" t="s">
-        <v>589</v>
-      </c>
-      <c r="I68" s="150" t="s">
-        <v>98</v>
-      </c>
-      <c r="J68" s="148" t="s">
-        <v>442</v>
-      </c>
-      <c r="K68" s="135"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
-      <c r="N68" s="135"/>
-      <c r="O68" s="135"/>
-      <c r="P68" s="135"/>
-      <c r="Q68" s="135"/>
-      <c r="R68" s="135"/>
-    </row>
-    <row r="69" spans="1:18" s="12" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="47" t="s">
+      <c r="D70" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="E70" s="48"/>
+      <c r="F70" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="G70" s="115" t="s">
+        <v>447</v>
+      </c>
+      <c r="H70" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="I70" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J70" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="B69" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="D69" s="49" t="s">
-        <v>446</v>
-      </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="G69" s="49" t="s">
+      <c r="K70" s="114"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="114"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="114"/>
+      <c r="Q70" s="114"/>
+      <c r="R70" s="114"/>
+    </row>
+    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="H69" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="I69" s="151" t="s">
-        <v>98</v>
-      </c>
-      <c r="J69" s="51" t="s">
+      <c r="B71" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="K69" s="135"/>
-      <c r="L69" s="135"/>
-      <c r="M69" s="135"/>
-      <c r="N69" s="135"/>
-      <c r="O69" s="135"/>
-      <c r="P69" s="135"/>
-      <c r="Q69" s="135"/>
-      <c r="R69" s="135"/>
-    </row>
-    <row r="70" spans="1:18" s="14" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="47" t="s">
+      <c r="C71" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B70" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="D70" s="49" t="s">
+      <c r="D71" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="48" t="s">
+      <c r="E71" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="G70" s="136" t="s">
+      <c r="F71" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="H70" s="52" t="s">
-        <v>453</v>
-      </c>
-      <c r="I70" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="J70" s="51" t="s">
-        <v>449</v>
-      </c>
-      <c r="K70" s="135"/>
-      <c r="L70" s="135"/>
-      <c r="M70" s="135"/>
-      <c r="N70" s="135"/>
-      <c r="O70" s="135"/>
-      <c r="P70" s="135"/>
-      <c r="Q70" s="135"/>
-      <c r="R70" s="135"/>
-    </row>
-    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="G71" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="H71" s="84" t="s">
         <v>455</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="I71" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J71" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="K71" s="114"/>
+      <c r="L71" s="114"/>
+      <c r="M71" s="114"/>
+      <c r="N71" s="114"/>
+      <c r="O71" s="114"/>
+      <c r="P71" s="114"/>
+      <c r="Q71" s="114"/>
+      <c r="R71" s="114"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="B72" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="C72" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="D72" s="15" t="s">
         <v>460</v>
-      </c>
-      <c r="H71" s="92" t="s">
-        <v>461</v>
-      </c>
-      <c r="I71" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="K71" s="135"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="135"/>
-      <c r="N71" s="135"/>
-      <c r="O71" s="135"/>
-      <c r="P71" s="135"/>
-      <c r="Q71" s="135"/>
-      <c r="R71" s="135"/>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>466</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="H72" s="84" t="s">
+        <v>463</v>
+      </c>
+      <c r="I72" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="K72" s="114"/>
+      <c r="L72" s="114"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="114"/>
+      <c r="O72" s="114"/>
+      <c r="P72" s="114"/>
+      <c r="Q72" s="114"/>
+      <c r="R72" s="114"/>
+    </row>
+    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="D73" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="H72" s="92" t="s">
+      <c r="G73" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="I72" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="J72" s="15" t="s">
+      <c r="H73" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="K72" s="135"/>
-      <c r="L72" s="135"/>
-      <c r="M72" s="135"/>
-      <c r="N72" s="135"/>
-      <c r="O72" s="135"/>
-      <c r="P72" s="135"/>
-      <c r="Q72" s="135"/>
-      <c r="R72" s="135"/>
-    </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="I73" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J73" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="K73" s="114"/>
+      <c r="L73" s="114"/>
+      <c r="M73" s="114"/>
+      <c r="N73" s="114"/>
+      <c r="O73" s="114"/>
+      <c r="P73" s="114"/>
+      <c r="Q73" s="114"/>
+      <c r="R73" s="114"/>
+    </row>
+    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="B74" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F73" s="17" t="s">
+      <c r="G74" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="H74" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="I74" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J74" s="94" t="s">
+        <v>471</v>
+      </c>
+      <c r="K74" s="114"/>
+      <c r="L74" s="114"/>
+      <c r="M74" s="114"/>
+      <c r="N74" s="114"/>
+      <c r="O74" s="114"/>
+      <c r="P74" s="114"/>
+      <c r="Q74" s="114"/>
+      <c r="R74" s="114"/>
+    </row>
+    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="I73" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="J73" s="15" t="s">
+      <c r="B75" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="K73" s="135"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="135"/>
-      <c r="N73" s="135"/>
-      <c r="O73" s="135"/>
-      <c r="P73" s="135"/>
-      <c r="Q73" s="135"/>
-      <c r="R73" s="135"/>
-    </row>
-    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="C75" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="H74" s="92" t="s">
-        <v>481</v>
-      </c>
-      <c r="I74" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="J74" s="108" t="s">
-        <v>477</v>
-      </c>
-      <c r="K74" s="135"/>
-      <c r="L74" s="135"/>
-      <c r="M74" s="135"/>
-      <c r="N74" s="135"/>
-      <c r="O74" s="135"/>
-      <c r="P74" s="135"/>
-      <c r="Q74" s="135"/>
-      <c r="R74" s="135"/>
-    </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>484</v>
-      </c>
       <c r="D75" s="15" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="I75" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="K75" s="114"/>
+      <c r="L75" s="114"/>
+      <c r="M75" s="114"/>
+      <c r="N75" s="114"/>
+      <c r="O75" s="114"/>
+      <c r="P75" s="114"/>
+      <c r="Q75" s="114"/>
+      <c r="R75" s="114"/>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D76" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="F76" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="H75" s="92" t="s">
+      <c r="G76" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="H76" s="84" t="s">
+        <v>475</v>
+      </c>
+      <c r="I76" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J76" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="I75" s="112" t="s">
-        <v>223</v>
-      </c>
-      <c r="J75" s="15" t="s">
+      <c r="K76" s="114"/>
+      <c r="L76" s="114"/>
+      <c r="M76" s="114"/>
+      <c r="N76" s="114"/>
+      <c r="O76" s="114"/>
+      <c r="P76" s="114"/>
+      <c r="Q76" s="114"/>
+      <c r="R76" s="114"/>
+    </row>
+    <row r="77" spans="1:18" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="K75" s="135"/>
-      <c r="L75" s="135"/>
-      <c r="M75" s="135"/>
-      <c r="N75" s="135"/>
-      <c r="O75" s="135"/>
-      <c r="P75" s="135"/>
-      <c r="Q75" s="135"/>
-      <c r="R75" s="135"/>
-    </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
+      <c r="B77" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="C77" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="D77" s="31" t="s">
         <v>491</v>
-      </c>
-      <c r="D76" s="107" t="s">
-        <v>466</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="H76" s="92" t="s">
-        <v>481</v>
-      </c>
-      <c r="I76" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="K76" s="135"/>
-      <c r="L76" s="135"/>
-      <c r="M76" s="135"/>
-      <c r="N76" s="135"/>
-      <c r="O76" s="135"/>
-      <c r="P76" s="135"/>
-      <c r="Q76" s="135"/>
-      <c r="R76" s="135"/>
-    </row>
-    <row r="77" spans="1:18" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>498</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>500</v>
-      </c>
-      <c r="H77" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>98</v>
+        <v>493</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="I77" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="J77" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="K77" s="135"/>
-      <c r="L77" s="135"/>
-      <c r="M77" s="135"/>
-      <c r="N77" s="135"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="135"/>
-      <c r="Q77" s="135"/>
-      <c r="R77" s="135"/>
-    </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="K77" s="114"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114"/>
+      <c r="O77" s="114"/>
+      <c r="P77" s="114"/>
+      <c r="Q77" s="114"/>
+      <c r="R77" s="114"/>
+    </row>
+    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="23" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="H78" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="I78" s="35" t="s">
-        <v>98</v>
+        <v>500</v>
+      </c>
+      <c r="H78" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="I78" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="J78" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="K78" s="135"/>
-      <c r="L78" s="135"/>
-      <c r="M78" s="135"/>
-      <c r="N78" s="135"/>
-      <c r="O78" s="135"/>
-      <c r="P78" s="135"/>
-      <c r="Q78" s="135"/>
-      <c r="R78" s="135"/>
-    </row>
-    <row r="79" spans="1:18" s="12" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="K78" s="114"/>
+      <c r="L78" s="114"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="114"/>
+      <c r="P78" s="114"/>
+      <c r="Q78" s="114"/>
+      <c r="R78" s="114"/>
+    </row>
+    <row r="79" spans="1:18" s="12" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="23" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="I79" s="35" t="s">
-        <v>98</v>
+        <v>508</v>
+      </c>
+      <c r="I79" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="K79" s="135"/>
-      <c r="L79" s="135"/>
-      <c r="M79" s="135"/>
-      <c r="N79" s="135"/>
-      <c r="O79" s="135"/>
-      <c r="P79" s="135"/>
-      <c r="Q79" s="135"/>
-      <c r="R79" s="135"/>
-    </row>
-    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="K79" s="114"/>
+      <c r="L79" s="114"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="114"/>
+      <c r="P79" s="114"/>
+      <c r="Q79" s="114"/>
+      <c r="R79" s="114"/>
+    </row>
+    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="24" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="I80" s="35" t="s">
-        <v>98</v>
+        <v>515</v>
+      </c>
+      <c r="I80" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="J80" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="K80" s="135"/>
-      <c r="L80" s="135"/>
-      <c r="M80" s="135"/>
-      <c r="N80" s="135"/>
-      <c r="O80" s="135"/>
-      <c r="P80" s="135"/>
-      <c r="Q80" s="135"/>
-      <c r="R80" s="135"/>
-    </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="K80" s="114"/>
+      <c r="L80" s="114"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="114"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="114"/>
+      <c r="Q80" s="114"/>
+      <c r="R80" s="114"/>
+    </row>
+    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="29" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="H81" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="I81" s="35" t="s">
-        <v>98</v>
+        <v>521</v>
+      </c>
+      <c r="H81" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="I81" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="K81" s="135"/>
-      <c r="L81" s="135"/>
-      <c r="M81" s="135"/>
-      <c r="N81" s="135"/>
-      <c r="O81" s="135"/>
-      <c r="P81" s="135"/>
-      <c r="Q81" s="135"/>
-      <c r="R81" s="135"/>
-    </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="K81" s="114"/>
+      <c r="L81" s="114"/>
+      <c r="M81" s="114"/>
+      <c r="N81" s="114"/>
+      <c r="O81" s="114"/>
+      <c r="P81" s="114"/>
+      <c r="Q81" s="114"/>
+      <c r="R81" s="114"/>
+    </row>
+    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E82" s="25"/>
       <c r="F82" s="29" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="I82" s="35" t="s">
-        <v>98</v>
+        <v>529</v>
+      </c>
+      <c r="I82" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="J82" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="K82" s="135"/>
-      <c r="L82" s="135"/>
-      <c r="M82" s="135"/>
-      <c r="N82" s="135"/>
-      <c r="O82" s="135"/>
-      <c r="P82" s="135"/>
-      <c r="Q82" s="135"/>
-      <c r="R82" s="135"/>
-    </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="114"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="114"/>
+      <c r="P82" s="114"/>
+      <c r="Q82" s="114"/>
+      <c r="R82" s="114"/>
+    </row>
+    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E83" s="25"/>
       <c r="F83" s="29" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="H83" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="I83" s="90" t="s">
-        <v>98</v>
+        <v>535</v>
+      </c>
+      <c r="H83" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="I83" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="J83" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="K83" s="135"/>
-      <c r="L83" s="135"/>
-      <c r="M83" s="135"/>
-      <c r="N83" s="135"/>
-      <c r="O83" s="135"/>
-      <c r="P83" s="135"/>
-      <c r="Q83" s="135"/>
-      <c r="R83" s="135"/>
-    </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="K83" s="114"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="114"/>
+      <c r="N83" s="114"/>
+      <c r="O83" s="114"/>
+      <c r="P83" s="114"/>
+      <c r="Q83" s="114"/>
+      <c r="R83" s="114"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C84" s="28" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="29" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="H84" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="I84" s="90" t="s">
-        <v>98</v>
+        <v>542</v>
+      </c>
+      <c r="H84" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="I84" s="98" t="s">
+        <v>95</v>
       </c>
       <c r="J84" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="K84" s="135"/>
-      <c r="L84" s="135"/>
-      <c r="M84" s="135"/>
-      <c r="N84" s="135"/>
-      <c r="O84" s="135"/>
-      <c r="P84" s="135"/>
-      <c r="Q84" s="135"/>
-      <c r="R84" s="135"/>
-    </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="114"/>
+      <c r="N84" s="114"/>
+      <c r="O84" s="114"/>
+      <c r="P84" s="114"/>
+      <c r="Q84" s="114"/>
+      <c r="R84" s="114"/>
+    </row>
+    <row r="85" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -6629,16 +6506,16 @@
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="135"/>
-      <c r="L85" s="135"/>
-      <c r="M85" s="135"/>
-      <c r="N85" s="135"/>
-      <c r="O85" s="135"/>
-      <c r="P85" s="135"/>
-      <c r="Q85" s="135"/>
-      <c r="R85" s="135"/>
-    </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="114"/>
+      <c r="N85" s="114"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="114"/>
+      <c r="Q85" s="114"/>
+      <c r="R85" s="114"/>
+    </row>
+    <row r="86" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -6649,16 +6526,16 @@
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="135"/>
-      <c r="L86" s="135"/>
-      <c r="M86" s="135"/>
-      <c r="N86" s="135"/>
-      <c r="O86" s="135"/>
-      <c r="P86" s="135"/>
-      <c r="Q86" s="135"/>
-      <c r="R86" s="135"/>
-    </row>
-    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K86" s="114"/>
+      <c r="L86" s="114"/>
+      <c r="M86" s="114"/>
+      <c r="N86" s="114"/>
+      <c r="O86" s="114"/>
+      <c r="P86" s="114"/>
+      <c r="Q86" s="114"/>
+      <c r="R86" s="114"/>
+    </row>
+    <row r="87" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -6669,16 +6546,16 @@
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="135"/>
-      <c r="L87" s="135"/>
-      <c r="M87" s="135"/>
-      <c r="N87" s="135"/>
-      <c r="O87" s="135"/>
-      <c r="P87" s="135"/>
-      <c r="Q87" s="135"/>
-      <c r="R87" s="135"/>
-    </row>
-    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K87" s="114"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="114"/>
+      <c r="O87" s="114"/>
+      <c r="P87" s="114"/>
+      <c r="Q87" s="114"/>
+      <c r="R87" s="114"/>
+    </row>
+    <row r="88" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -6689,10 +6566,10 @@
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="Q88" s="135"/>
-      <c r="R88" s="135"/>
-    </row>
-    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q88" s="114"/>
+      <c r="R88" s="114"/>
+    </row>
+    <row r="89" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -6703,10 +6580,10 @@
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-      <c r="Q89" s="135"/>
-      <c r="R89" s="135"/>
-    </row>
-    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q89" s="114"/>
+      <c r="R89" s="114"/>
+    </row>
+    <row r="90" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -6717,10 +6594,10 @@
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="Q90" s="135"/>
-      <c r="R90" s="135"/>
-    </row>
-    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q90" s="114"/>
+      <c r="R90" s="114"/>
+    </row>
+    <row r="91" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -6731,10 +6608,10 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="Q91" s="135"/>
-      <c r="R91" s="135"/>
-    </row>
-    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q91" s="114"/>
+      <c r="R91" s="114"/>
+    </row>
+    <row r="92" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -6745,10 +6622,10 @@
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-      <c r="Q92" s="135"/>
-      <c r="R92" s="135"/>
-    </row>
-    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q92" s="114"/>
+      <c r="R92" s="114"/>
+    </row>
+    <row r="93" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -6759,10 +6636,10 @@
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="Q93" s="135"/>
-      <c r="R93" s="135"/>
-    </row>
-    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q93" s="114"/>
+      <c r="R93" s="114"/>
+    </row>
+    <row r="94" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -6774,7 +6651,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -6786,7 +6663,7 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -6798,7 +6675,7 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -6810,7 +6687,7 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -6822,7 +6699,7 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -6834,7 +6711,7 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -6846,7 +6723,7 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -6858,7 +6735,7 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -6870,7 +6747,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -6882,7 +6759,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -6894,7 +6771,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -6906,7 +6783,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -6918,7 +6795,7 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -6930,7 +6807,7 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -6942,7 +6819,7 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
     </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -6954,7 +6831,7 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -6966,7 +6843,7 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6978,7 +6855,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -6990,7 +6867,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7002,7 +6879,7 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7014,7 +6891,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7026,7 +6903,7 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7038,7 +6915,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7050,7 +6927,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7062,7 +6939,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7074,7 +6951,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7086,7 +6963,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7098,7 +6975,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7110,7 +6987,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -7122,7 +6999,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -7134,7 +7011,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -7146,7 +7023,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -7158,7 +7035,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -7170,7 +7047,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -7182,7 +7059,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -7194,7 +7071,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -7206,7 +7083,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -7218,7 +7095,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -7230,7 +7107,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -7242,7 +7119,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -7254,7 +7131,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -7266,7 +7143,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -7278,7 +7155,7 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -7290,7 +7167,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -7302,7 +7179,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -7314,7 +7191,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -7326,7 +7203,7 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -7338,7 +7215,7 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -7350,7 +7227,7 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -7362,7 +7239,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -7374,7 +7251,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -7386,7 +7263,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -7398,7 +7275,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -7410,7 +7287,7 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -7422,7 +7299,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -7434,7 +7311,7 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -7446,7 +7323,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -7458,7 +7335,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -7470,7 +7347,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -7482,7 +7359,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -7494,7 +7371,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -7506,7 +7383,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -7518,7 +7395,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -7530,7 +7407,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -7542,7 +7419,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -7554,7 +7431,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -7566,7 +7443,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -7578,7 +7455,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -7590,7 +7467,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -7602,7 +7479,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -7614,7 +7491,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7626,7 +7503,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -7638,7 +7515,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -7650,7 +7527,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -7662,7 +7539,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -7674,7 +7551,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -7686,7 +7563,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -7698,7 +7575,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -7710,7 +7587,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -7722,7 +7599,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -7734,7 +7611,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -7746,7 +7623,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -7758,7 +7635,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7770,7 +7647,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -7782,7 +7659,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -7794,7 +7671,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -7806,7 +7683,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -7818,7 +7695,7 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -7830,7 +7707,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -7842,7 +7719,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -7854,7 +7731,7 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -7866,7 +7743,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -7878,7 +7755,7 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -7890,7 +7767,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -7902,7 +7779,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -7914,7 +7791,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -7926,7 +7803,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -7938,7 +7815,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -7950,7 +7827,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -7962,7 +7839,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -7974,7 +7851,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -7986,7 +7863,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -7998,7 +7875,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -8010,7 +7887,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -8022,7 +7899,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -8034,7 +7911,7 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -8046,7 +7923,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -8058,7 +7935,7 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -8070,7 +7947,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -8082,7 +7959,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -8094,7 +7971,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -8106,7 +7983,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -8118,7 +7995,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -8130,7 +8007,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -8142,7 +8019,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -8154,7 +8031,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -8166,7 +8043,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -8178,7 +8055,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -8190,7 +8067,7 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -8202,7 +8079,7 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -8214,7 +8091,7 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -8226,7 +8103,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -8238,7 +8115,7 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -8250,7 +8127,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -8262,7 +8139,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8274,7 +8151,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -8286,7 +8163,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -8298,7 +8175,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -8310,7 +8187,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -8322,7 +8199,7 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -8334,7 +8211,7 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -8346,7 +8223,7 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -8358,7 +8235,7 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -8370,7 +8247,7 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -8382,7 +8259,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -8394,7 +8271,7 @@
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -8406,7 +8283,7 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -8418,7 +8295,7 @@
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -8430,7 +8307,7 @@
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -8442,7 +8319,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -8454,7 +8331,7 @@
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -8466,7 +8343,7 @@
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -8478,7 +8355,7 @@
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -8490,7 +8367,7 @@
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -8502,7 +8379,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -8514,7 +8391,7 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -8526,7 +8403,7 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -8538,7 +8415,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -8550,7 +8427,7 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -8562,7 +8439,7 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -8574,7 +8451,7 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -8586,7 +8463,7 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8598,7 +8475,7 @@
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8610,7 +8487,7 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -8622,7 +8499,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -8634,7 +8511,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -8646,7 +8523,7 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8658,7 +8535,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -8670,7 +8547,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -8682,7 +8559,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -8694,7 +8571,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -8706,7 +8583,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -8718,7 +8595,7 @@
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -8730,7 +8607,7 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -8742,7 +8619,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -8754,7 +8631,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -8766,7 +8643,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -8778,7 +8655,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -8790,7 +8667,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -8802,7 +8679,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -8814,7 +8691,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -8843,185 +8720,185 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
